--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>N/A</t>
   </si>
@@ -464,7 +464,14 @@
     <t>Stuns Target</t>
   </si>
   <si>
-    <t>Teleports Casters to Target Location</t>
+    <t>Teleports Caster to Target Location</t>
+  </si>
+  <si>
+    <t>Comfort Shield</t>
+  </si>
+  <si>
+    <t>Comfy Temperature Min -24
+Comfy Temperature Max +24</t>
   </si>
 </sst>
 </file>
@@ -598,21 +605,21 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0"/>
@@ -680,11 +687,11 @@
     <tableColumn id="16" name="Duration (Secs)" dataDxfId="7"/>
     <tableColumn id="3" name="Duration (Game)" dataDxfId="6"/>
     <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="5"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="2"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="0"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="1"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="4"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="3"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="4"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="3"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="2"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="1"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2164,21 +2171,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="19"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
+    <row r="29" spans="2:15" ht="45">
+      <c r="B29" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>30</v>
+      </c>
+      <c r="H29" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="19"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -470,8 +470,8 @@
     <t>Comfort Shield</t>
   </si>
   <si>
-    <t>Comfy Temperature Min -24
-Comfy Temperature Max +24</t>
+    <t>Comfy Temperature Min -32
+Comfy Temperature Max +32</t>
   </si>
 </sst>
 </file>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2185,16 +2185,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="5">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="G29" s="4">
         <v>30</v>
       </c>
       <c r="H29" s="8">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="J29" s="18">
         <v>1.5</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -372,27 +372,6 @@
 Melee Dodge Chance +4 Levels</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Overdrive Exhaustion (Severe)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pain Offset +50%
-Rest Fall Factor Offset +30%
-Hunger Rate Factor Offset +20%
-Consciousness -10%
-Immunity Gain Speed -15%
-Injury Healing Factor -25%</t>
-    </r>
-  </si>
-  <si>
     <t>2.0 Hours</t>
   </si>
   <si>
@@ -472,6 +451,10 @@
   <si>
     <t>Comfy Temperature Min -32
 Comfy Temperature Max +32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overdrive Exhaustion (Severe)
+</t>
   </si>
 </sst>
 </file>
@@ -984,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1813,7 +1796,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>17</v>
@@ -1827,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1842,7 +1825,7 @@
         <v>84</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1871,7 +1854,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1886,7 +1869,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1898,7 +1881,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1915,7 +1898,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1930,7 +1913,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1942,7 +1925,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1959,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -1974,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -1986,7 +1969,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2003,7 +1986,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2018,7 +2001,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2030,7 +2013,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2047,7 +2030,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2062,7 +2045,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2074,7 +2057,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2091,7 +2074,7 @@
         <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2118,7 +2101,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2135,7 +2118,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2162,7 +2145,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2173,13 +2156,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -372,9 +372,6 @@
 Melee Dodge Chance +4 Levels</t>
   </si>
   <si>
-    <t>2.0 Hours</t>
-  </si>
-  <si>
     <t>Moving +30%</t>
   </si>
   <si>
@@ -453,8 +450,28 @@
 Comfy Temperature Max +32</t>
   </si>
   <si>
-    <t xml:space="preserve">Overdrive Exhaustion (Severe)
+    <r>
+      <t xml:space="preserve">Overdrive Exhaustion (Severe)
 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pain Offset +50%
+Rest Fall Factor Offset +30%
+Hunger Rate Factor Offset +20%
+Consciousness -10%
+Immunity Gain Speed -10%
+Injury Healing Factor -25%</t>
+    </r>
+  </si>
+  <si>
+    <t>4.0 Hours</t>
   </si>
 </sst>
 </file>
@@ -967,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1796,7 +1813,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>17</v>
@@ -1810,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1822,10 +1839,10 @@
         <v>50</v>
       </c>
       <c r="H21" s="8">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1854,7 +1871,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1869,7 +1886,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1881,7 +1898,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1898,7 +1915,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1913,7 +1930,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1925,7 +1942,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1942,7 +1959,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -1957,7 +1974,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -1969,7 +1986,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -1986,7 +2003,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2001,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2013,7 +2030,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2030,7 +2047,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2045,7 +2062,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2057,7 +2074,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2074,7 +2091,7 @@
         <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2101,7 +2118,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2118,7 +2135,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2145,7 +2162,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2156,13 +2173,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -144,9 +144,6 @@
     <t>Duration (Game)</t>
   </si>
   <si>
-    <t>14.0 Days</t>
-  </si>
-  <si>
     <t>Flash Heal</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>Injury Healing Factor +1000%</t>
-  </si>
-  <si>
-    <t>2.3 Days</t>
   </si>
   <si>
     <r>
@@ -345,9 +339,6 @@
     <t>Adjust Need</t>
   </si>
   <si>
-    <t>Rest Need +40%</t>
-  </si>
-  <si>
     <t>Projectile Interceptor
 Intercepts Air Projectiles
 Intercepts Non Hostile Projectiles
@@ -450,6 +441,15 @@
 Comfy Temperature Max +32</t>
   </si>
   <si>
+    <t>4.0 Hours</t>
+  </si>
+  <si>
+    <t>7.0 Days</t>
+  </si>
+  <si>
+    <t>2.0 Days</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Overdrive Exhaustion (Severe)
 </t>
@@ -465,13 +465,12 @@
       <t>Pain Offset +50%
 Rest Fall Factor Offset +30%
 Hunger Rate Factor Offset +20%
-Consciousness -10%
 Immunity Gain Speed -10%
 Injury Healing Factor -25%</t>
     </r>
   </si>
   <si>
-    <t>4.0 Hours</t>
+    <t>Rest Need +50%</t>
   </si>
 </sst>
 </file>
@@ -984,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1038,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1229,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>0</v>
@@ -1244,18 +1243,18 @@
         <v>34</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
       <c r="B8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1270,7 +1269,7 @@
         <v>42</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="18">
         <v>0.5</v>
@@ -1285,21 +1284,21 @@
         <v>28</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
       <c r="B9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -1314,7 +1313,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J9" s="18">
         <v>5</v>
@@ -1329,21 +1328,21 @@
         <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
       <c r="B10" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1370,24 +1369,24 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1425,13 +1424,13 @@
     </row>
     <row r="12" spans="2:15" ht="60">
       <c r="B12" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1469,13 +1468,13 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1490,7 +1489,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="18">
         <v>0.1</v>
@@ -1513,19 +1512,19 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
@@ -1546,7 +1545,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1557,13 +1556,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1590,7 +1589,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1601,13 +1600,13 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -1634,7 +1633,7 @@
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1645,19 +1644,19 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="F17" s="5">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -1689,19 +1688,19 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -1733,19 +1732,19 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="19" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
       </c>
       <c r="F19" s="5">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="G19" s="4">
         <v>65</v>
@@ -1754,7 +1753,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19" s="18">
         <v>1</v>
@@ -1777,13 +1776,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1798,7 +1797,7 @@
         <v>420</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
@@ -1821,28 +1820,28 @@
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
       </c>
       <c r="F21" s="5">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="G21" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H21" s="8">
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1865,13 +1864,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1886,7 +1885,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1898,7 +1897,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1909,13 +1908,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1930,7 +1929,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1942,7 +1941,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1953,13 +1952,13 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -1974,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -1986,7 +1985,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -1997,13 +1996,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2018,7 +2017,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2030,7 +2029,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2041,13 +2040,13 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2062,7 +2061,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2074,7 +2073,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2085,13 +2084,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2118,7 +2117,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2129,13 +2128,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2162,7 +2161,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2173,13 +2172,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="111">
   <si>
     <t>N/A</t>
   </si>
@@ -471,6 +471,15 @@
   </si>
   <si>
     <t>Rest Need +50%</t>
+  </si>
+  <si>
+    <t>Engulf</t>
+  </si>
+  <si>
+    <t>Ability Launch Projectile</t>
+  </si>
+  <si>
+    <t>Spawn 'engulf' projectile, hitting  target area and causing a flame explosion</t>
   </si>
 </sst>
 </file>
@@ -983,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1524,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
@@ -2214,21 +2223,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="19"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
+    <row r="30" spans="2:15" ht="45">
+      <c r="B30" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G30" s="4">
+        <v>36</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="K30" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="L30" s="18">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="19"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="111">
   <si>
     <t>N/A</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>7.2 Hours</t>
-  </si>
-  <si>
-    <t>Heals scars by 0.1 points every 10 seconds (Approx total of 3.0 points)</t>
   </si>
   <si>
     <t>Resurrect</t>
@@ -270,14 +267,7 @@
 Targets Items</t>
   </si>
   <si>
-    <t>Sets single target area or item on fire</t>
-  </si>
-  <si>
     <t>Recondition</t>
-  </si>
-  <si>
-    <t>Repairs item by this formula:
-(MaxHitPoints - CurrentHitPoints) / 2</t>
   </si>
   <si>
     <t>Targets Items
@@ -480,6 +470,16 @@
   </si>
   <si>
     <t>Spawn 'engulf' projectile, hitting  target area and causing a flame explosion</t>
+  </si>
+  <si>
+    <t>Heals scars by 0.2 points every 10 seconds (Approx total of 6.0 points)</t>
+  </si>
+  <si>
+    <t>Repairs item by this formula:
+((MaxHitPoints - CurrentHitPoints) / 2 ) + (MaxHitPoints / 20))</t>
+  </si>
+  <si>
+    <t>Sets single target area on fire</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,7 +1046,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>34</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
@@ -1296,7 +1296,7 @@
         <v>39</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
@@ -1307,7 +1307,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -1340,18 +1340,18 @@
         <v>39</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
       <c r="B10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1378,24 +1378,24 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1433,13 +1433,13 @@
     </row>
     <row r="12" spans="2:15" ht="60">
       <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1477,13 +1477,13 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1498,7 +1498,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="18">
         <v>0.1</v>
@@ -1521,19 +1521,19 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G14" s="4">
         <v>5</v>
@@ -1547,14 +1547,14 @@
       <c r="J14" s="18">
         <v>9.9</v>
       </c>
-      <c r="K14" s="16" t="s">
-        <v>0</v>
+      <c r="K14" s="16">
+        <v>0.1</v>
       </c>
       <c r="L14" s="18">
         <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1565,13 +1565,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1580,7 +1580,7 @@
         <v>0.2</v>
       </c>
       <c r="G15" s="4">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -1642,7 +1642,7 @@
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1741,13 +1741,13 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1756,7 +1756,7 @@
         <v>0.15</v>
       </c>
       <c r="G19" s="4">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H19" s="8">
         <v>45</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="19" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1806,7 +1806,7 @@
         <v>420</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
@@ -1821,7 +1821,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>17</v>
@@ -1829,13 +1829,13 @@
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1894,7 +1894,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1906,7 +1906,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1938,7 +1938,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1950,7 +1950,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1961,13 +1961,13 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -1982,7 +1982,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -1994,7 +1994,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2005,13 +2005,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2026,7 +2026,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2038,7 +2038,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2082,7 +2082,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2093,13 +2093,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2126,7 +2126,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2170,7 +2170,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -469,9 +469,6 @@
     <t>Ability Launch Projectile</t>
   </si>
   <si>
-    <t>Spawn 'engulf' projectile, hitting  target area and causing a flame explosion</t>
-  </si>
-  <si>
     <t>Heals scars by 0.2 points every 10 seconds (Approx total of 6.0 points)</t>
   </si>
   <si>
@@ -480,6 +477,9 @@
   </si>
   <si>
     <t>Sets single target area on fire</t>
+  </si>
+  <si>
+    <t>Create a flame explosion at target location</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1307,7 +1307,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="6">
         <v>4</v>
@@ -1527,7 +1527,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0.02</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -2231,7 +2231,7 @@
         <v>106</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2240,7 +2240,7 @@
         <v>0.06</v>
       </c>
       <c r="G30" s="4">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>0</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="113">
   <si>
     <t>N/A</t>
   </si>
@@ -120,25 +120,6 @@
   </si>
   <si>
     <t>A.E. Duration (Initial)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Renewal Sickness (Major)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pain Offset +15%
-Hunger Rate Factor Offset +20%
-Consciousness -10%
-Moving -10%</t>
-    </r>
   </si>
   <si>
     <t>Duration (Game)</t>
@@ -434,12 +415,6 @@
     <t>4.0 Hours</t>
   </si>
   <si>
-    <t>7.0 Days</t>
-  </si>
-  <si>
-    <t>2.0 Days</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Overdrive Exhaustion (Severe)
 </t>
@@ -480,6 +455,51 @@
   </si>
   <si>
     <t>Create a flame explosion at target location</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Renewal Sickness (Minor)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pain Offset +10%
+Hunger Rate Factor Offset +10%
+Consciousness -5%
+Moving -5%</t>
+    </r>
+  </si>
+  <si>
+    <t>5.0 Days (Stacks Max 15.0 Days)</t>
+  </si>
+  <si>
+    <t>1.5 Hour</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Healing Pains (Minor)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pain Offset +15%
+Rest Fall Factor Offset +15%</t>
+    </r>
+  </si>
+  <si>
+    <t>2.0 Days  (Stacks Max 6.0 Days)</t>
   </si>
 </sst>
 </file>
@@ -992,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1058,7 +1078,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -1137,7 +1157,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G5" s="4">
         <v>15</v>
@@ -1181,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="G6" s="4">
         <v>15</v>
@@ -1222,13 +1242,13 @@
         <v>27</v>
       </c>
       <c r="E7" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="5">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="G7" s="4">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>0</v>
@@ -1249,36 +1269,36 @@
         <v>28</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
       <c r="B8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
       </c>
       <c r="F8" s="5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G8" s="4">
         <v>40</v>
       </c>
       <c r="H8" s="8">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="J8" s="18">
         <v>0.5</v>
@@ -1293,36 +1313,36 @@
         <v>28</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
       <c r="B9" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E9" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="G9" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H9" s="8">
         <v>300</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" s="18">
         <v>5</v>
@@ -1337,21 +1357,21 @@
         <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>102</v>
+        <v>38</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
       <c r="B10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1378,24 +1398,24 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1433,13 +1453,13 @@
     </row>
     <row r="12" spans="2:15" ht="60">
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1477,19 +1497,19 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="5">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="4">
         <v>5</v>
@@ -1498,7 +1518,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="18">
         <v>0.1</v>
@@ -1521,13 +1541,13 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1554,7 +1574,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1565,13 +1585,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1598,7 +1618,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1609,13 +1629,13 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -1642,7 +1662,7 @@
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1653,13 +1673,13 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1697,13 +1717,13 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1741,13 +1761,13 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1762,7 +1782,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J19" s="18">
         <v>1</v>
@@ -1785,13 +1805,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1806,7 +1826,7 @@
         <v>420</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
@@ -1821,7 +1841,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>17</v>
@@ -1829,13 +1849,13 @@
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1850,7 +1870,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1873,13 +1893,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1894,7 +1914,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1906,7 +1926,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1917,13 +1937,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1938,7 +1958,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1950,7 +1970,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1961,13 +1981,13 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -1982,7 +2002,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -1994,7 +2014,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2005,13 +2025,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2026,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2038,7 +2058,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2049,13 +2069,13 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2070,7 +2090,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2082,7 +2102,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2093,13 +2113,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2126,7 +2146,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2137,13 +2157,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2170,7 +2190,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2181,13 +2201,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2225,13 +2245,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="116">
   <si>
     <t>N/A</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>Give Two Hediffs</t>
-  </si>
-  <si>
-    <t>Injury Healing Factor +1000%</t>
   </si>
   <si>
     <r>
@@ -479,9 +476,6 @@
     <t>5.0 Days (Stacks Max 15.0 Days)</t>
   </si>
   <si>
-    <t>1.5 Hour</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Healing Pains (Minor)
 </t>
@@ -500,6 +494,21 @@
   </si>
   <si>
     <t>2.0 Days  (Stacks Max 6.0 Days)</t>
+  </si>
+  <si>
+    <t>2.0 Hours</t>
+  </si>
+  <si>
+    <t>Injury Healing Factor +1500% (Heals about 11.8 Damage)</t>
+  </si>
+  <si>
+    <t>Dart</t>
+  </si>
+  <si>
+    <t>Spawn Skyfaller</t>
+  </si>
+  <si>
+    <t>Spawns a meteorite or ship chunk at target location. 30% chance for  Meteroite and 70% for Ship Chunk. 20% chance that 2 Ship Chunks spawn instead of 1 if Ship Chunks spawn</t>
   </si>
 </sst>
 </file>
@@ -1012,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1066,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1269,10 +1278,10 @@
         <v>28</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
@@ -1282,8 +1291,8 @@
       <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>37</v>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1295,10 +1304,10 @@
         <v>40</v>
       </c>
       <c r="H8" s="8">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J8" s="18">
         <v>0.5</v>
@@ -1313,21 +1322,21 @@
         <v>28</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
       <c r="B9" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1342,7 +1351,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="18">
         <v>5</v>
@@ -1357,21 +1366,21 @@
         <v>28</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
       <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1398,24 +1407,24 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1453,13 +1462,13 @@
     </row>
     <row r="12" spans="2:15" ht="60">
       <c r="B12" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1497,13 +1506,13 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1518,7 +1527,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="18">
         <v>0.1</v>
@@ -1541,13 +1550,13 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1574,7 +1583,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1585,13 +1594,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1618,7 +1627,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1629,13 +1638,13 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -1662,7 +1671,7 @@
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1673,13 +1682,13 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1717,13 +1726,13 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1761,13 +1770,13 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1782,7 +1791,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19" s="18">
         <v>1</v>
@@ -1805,13 +1814,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1826,7 +1835,7 @@
         <v>420</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
@@ -1841,7 +1850,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>17</v>
@@ -1849,13 +1858,13 @@
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1870,7 +1879,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1893,13 +1902,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1914,7 +1923,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1926,7 +1935,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1937,13 +1946,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1958,7 +1967,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1970,7 +1979,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1981,13 +1990,13 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -2002,7 +2011,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -2014,7 +2023,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2025,13 +2034,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2046,7 +2055,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2058,7 +2067,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2069,13 +2078,13 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2090,7 +2099,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2102,7 +2111,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2113,13 +2122,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2146,7 +2155,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2157,13 +2166,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2190,7 +2199,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2201,13 +2210,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2245,13 +2254,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2287,21 +2296,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="19"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
+    <row r="31" spans="2:15" ht="90">
+      <c r="B31" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G31" s="4">
+        <v>20</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="18">
+        <v>8</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>14.9</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="19"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1562,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="G14" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="16">
         <v>9.9</v>
-      </c>
-      <c r="K14" s="16">
-        <v>0.1</v>
       </c>
       <c r="L14" s="18">
         <v>-1</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="124">
   <si>
     <t>N/A</t>
   </si>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>Ability Spawn</t>
-  </si>
-  <si>
-    <t>Removes 10 Degrees C Per Second
-Reduces area to miniumum of -5C</t>
   </si>
   <si>
     <t>5.0 Days</t>
@@ -509,6 +505,36 @@
   </si>
   <si>
     <t>Spawns a meteorite or ship chunk at target location. 30% chance for  Meteroite and 70% for Ship Chunk. 20% chance that 2 Ship Chunks spawn instead of 1 if Ship Chunks spawn</t>
+  </si>
+  <si>
+    <t>Endothermic Pinhole</t>
+  </si>
+  <si>
+    <t>30.0 Days</t>
+  </si>
+  <si>
+    <t>Supernova Pinhole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 1 Degree C Per Second
+</t>
+  </si>
+  <si>
+    <t>10.0 Days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targets Base Opinion Offset of Secondary Target +20 </t>
+  </si>
+  <si>
+    <t>Word of Friendship</t>
+  </si>
+  <si>
+    <t>Removes 2 Degrees C Per Second
+Reduces area to miniumum of -3C</t>
+  </si>
+  <si>
+    <t>Removes 10 Degrees C Per Second
+Reduces area to miniumum of -9C</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1049,19 +1075,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
-      </c>
-      <c r="K1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:15">
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="17"/>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:15">
@@ -1075,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1087,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -1102,10 +1128,10 @@
         <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="30">
@@ -1116,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1131,7 +1157,7 @@
         <v>5000</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="18">
         <v>0.2</v>
@@ -1143,7 +1169,7 @@
         <v>24.9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>0</v>
@@ -1154,10 +1180,10 @@
     </row>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="45">
       <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -1175,7 +1201,7 @@
         <v>320</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="18">
         <v>4</v>
@@ -1187,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>0</v>
@@ -1198,10 +1224,10 @@
     </row>
     <row r="6" spans="2:15" ht="45">
       <c r="B6" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -1219,7 +1245,7 @@
         <v>320</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="18">
         <v>4</v>
@@ -1231,7 +1257,7 @@
         <v>-1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>0</v>
@@ -1242,13 +1268,13 @@
     </row>
     <row r="7" spans="2:15" ht="75">
       <c r="B7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -1275,24 +1301,24 @@
         <v>-1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
       <c r="B8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1307,7 +1333,7 @@
         <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J8" s="18">
         <v>0.5</v>
@@ -1319,24 +1345,24 @@
         <v>-1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
       <c r="B9" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1351,7 +1377,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J9" s="18">
         <v>5</v>
@@ -1363,24 +1389,24 @@
         <v>-1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
       <c r="B10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1407,24 +1433,24 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1451,7 +1477,7 @@
         <v>24.9</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>0</v>
@@ -1462,13 +1488,13 @@
     </row>
     <row r="12" spans="2:15" ht="60">
       <c r="B12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1495,7 +1521,7 @@
         <v>14.9</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>0</v>
@@ -1506,13 +1532,13 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1527,7 +1553,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="18">
         <v>0.1</v>
@@ -1539,7 +1565,7 @@
         <v>-1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>0</v>
@@ -1550,13 +1576,13 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1583,7 +1609,7 @@
         <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1594,13 +1620,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1627,7 +1653,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1638,13 +1664,13 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -1671,7 +1697,7 @@
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1682,13 +1708,13 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1715,7 +1741,7 @@
         <v>-1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>0</v>
@@ -1726,13 +1752,13 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1759,7 +1785,7 @@
         <v>-1</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>0</v>
@@ -1770,13 +1796,13 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1791,7 +1817,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J19" s="18">
         <v>1</v>
@@ -1803,7 +1829,7 @@
         <v>24.9</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>0</v>
@@ -1814,13 +1840,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1835,7 +1861,7 @@
         <v>420</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J20" s="18">
         <v>3</v>
@@ -1847,24 +1873,24 @@
         <v>-1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1879,7 +1905,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J21" s="18">
         <v>0.1</v>
@@ -1891,7 +1917,7 @@
         <v>-1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>0</v>
@@ -1902,13 +1928,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1923,7 +1949,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
@@ -1935,7 +1961,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1946,13 +1972,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -1967,7 +1993,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J23" s="18">
         <v>2</v>
@@ -1979,7 +2005,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -1990,13 +2016,13 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -2011,7 +2037,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -2023,7 +2049,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2034,13 +2060,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2055,7 +2081,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2067,7 +2093,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2078,13 +2104,13 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2099,7 +2125,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2111,7 +2137,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2122,13 +2148,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2155,7 +2181,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2166,13 +2192,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2199,7 +2225,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2210,13 +2236,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2231,7 +2257,7 @@
         <v>5000</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="18">
         <v>1.5</v>
@@ -2243,7 +2269,7 @@
         <v>-1</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>0</v>
@@ -2254,13 +2280,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2287,7 +2313,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>0</v>
@@ -2298,13 +2324,13 @@
     </row>
     <row r="31" spans="2:15" ht="90">
       <c r="B31" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -2331,7 +2357,7 @@
         <v>14.9</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>0</v>
@@ -2340,53 +2366,137 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="19"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="19"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="19"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
+    <row r="32" spans="2:15" ht="30">
+      <c r="B32" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
+        <v>30000</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="K32" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="L32" s="18">
+        <v>24.9</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="30">
+      <c r="B33" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="6">
+        <v>3</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="K33" s="16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L33" s="18">
+        <v>7.9</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="30">
+      <c r="B34" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="3">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8">
+        <v>8000</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="18">
+        <v>2</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>-1</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="19"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
   <si>
     <t>N/A</t>
   </si>
@@ -535,6 +535,12 @@
   <si>
     <t>Removes 10 Degrees C Per Second
 Reduces area to miniumum of -9C</t>
+  </si>
+  <si>
+    <t>Chemskip</t>
+  </si>
+  <si>
+    <t>Destroy a corpse turning it into Chemfuel using the followig formula. Chemfuel Amount = (CurrentHitPoints / 2) + 10</t>
   </si>
 </sst>
 </file>
@@ -601,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -638,9 +644,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -660,6 +663,27 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1072,7 @@
   <dimension ref="B1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1071,7 +1095,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1085,7 +1109,7 @@
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="17"/>
+      <c r="J2" s="16"/>
       <c r="K2" t="s">
         <v>31</v>
       </c>
@@ -1135,7 +1159,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="30">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1159,13 +1183,13 @@
       <c r="I4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="15">
         <v>14.9</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>24.9</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -1179,7 +1203,7 @@
       </c>
     </row>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="45">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1203,13 +1227,13 @@
       <c r="I5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>4</v>
       </c>
-      <c r="K5" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="K5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <v>-1</v>
       </c>
       <c r="M5" s="3" t="s">
@@ -1223,7 +1247,7 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="45">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1247,13 +1271,13 @@
       <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <v>4</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
+      <c r="K6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>-1</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -1267,10 +1291,10 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="75">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1291,13 +1315,13 @@
       <c r="I7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <v>5</v>
       </c>
-      <c r="K7" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
+      <c r="K7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>-1</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -1311,7 +1335,7 @@
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1335,13 +1359,13 @@
       <c r="I8" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <v>0.5</v>
       </c>
-      <c r="K8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="18">
+      <c r="K8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="17">
         <v>-1</v>
       </c>
       <c r="M8" s="3" t="s">
@@ -1355,7 +1379,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1379,13 +1403,13 @@
       <c r="I9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <v>5</v>
       </c>
-      <c r="K9" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
+      <c r="K9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17">
         <v>-1</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -1399,10 +1423,10 @@
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1423,13 +1447,13 @@
       <c r="I10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <v>5</v>
       </c>
-      <c r="K10" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
+      <c r="K10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
@@ -1443,7 +1467,7 @@
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1467,13 +1491,13 @@
       <c r="I11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <v>2</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="15">
         <v>14.9</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="17">
         <v>24.9</v>
       </c>
       <c r="M11" s="6" t="s">
@@ -1487,7 +1511,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="60">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1511,13 +1535,13 @@
       <c r="I12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <v>3</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>1.9</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <v>14.9</v>
       </c>
       <c r="M12" s="6" t="s">
@@ -1531,7 +1555,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" ht="45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1555,13 +1579,13 @@
       <c r="I13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>0.1</v>
       </c>
-      <c r="K13" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
+      <c r="K13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="17">
         <v>-1</v>
       </c>
       <c r="M13" s="3" t="s">
@@ -1575,10 +1599,10 @@
       </c>
     </row>
     <row r="14" spans="2:15" ht="30">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1599,13 +1623,13 @@
       <c r="I14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>9.9</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="17">
         <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
@@ -1619,7 +1643,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="45">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>55</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1643,13 +1667,13 @@
       <c r="I15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <v>2.5</v>
       </c>
-      <c r="K15" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="18">
+      <c r="K15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="17">
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
@@ -1663,7 +1687,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" ht="30">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1687,13 +1711,13 @@
       <c r="I16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <v>0.1</v>
       </c>
-      <c r="K16" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
+      <c r="K16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -1707,7 +1731,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="45">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1731,13 +1755,13 @@
       <c r="I17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <v>2</v>
       </c>
-      <c r="K17" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
+      <c r="K17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="17">
         <v>-1</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -1751,7 +1775,7 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="45">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1775,13 +1799,13 @@
       <c r="I18" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="17">
         <v>2</v>
       </c>
-      <c r="K18" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
+      <c r="K18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
         <v>-1</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -1795,7 +1819,7 @@
       </c>
     </row>
     <row r="19" spans="2:15" ht="60">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1816,16 +1840,16 @@
       <c r="H19" s="8">
         <v>45</v>
       </c>
-      <c r="I19" s="18" t="s">
+      <c r="I19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <v>1</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>15.9</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="17">
         <v>24.9</v>
       </c>
       <c r="M19" s="6" t="s">
@@ -1839,7 +1863,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="150">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1863,13 +1887,13 @@
       <c r="I20" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="17">
         <v>3</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="15">
         <v>15.9</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="17">
         <v>-1</v>
       </c>
       <c r="M20" s="3" t="s">
@@ -1883,13 +1907,13 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="45">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>79</v>
       </c>
       <c r="E21" s="3">
@@ -1907,13 +1931,13 @@
       <c r="I21" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="17">
         <v>0.1</v>
       </c>
-      <c r="K21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
+      <c r="K21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
         <v>-1</v>
       </c>
       <c r="M21" s="3" t="s">
@@ -1927,7 +1951,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="30">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1951,13 +1975,13 @@
       <c r="I22" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="17">
         <v>2</v>
       </c>
-      <c r="K22" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="18">
+      <c r="K22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
@@ -1971,13 +1995,13 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="30">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E23" s="6">
@@ -1995,13 +2019,13 @@
       <c r="I23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="17">
         <v>2</v>
       </c>
-      <c r="K23" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="18">
+      <c r="K23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -2015,7 +2039,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="60">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2042,10 +2066,10 @@
       <c r="J24" s="8">
         <v>0.25</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="15">
         <v>2.9</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="17">
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
@@ -2059,7 +2083,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="60">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2086,10 +2110,10 @@
       <c r="J25" s="8">
         <v>0.25</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="15">
         <v>3.9</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="17">
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
@@ -2103,7 +2127,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="60">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2130,10 +2154,10 @@
       <c r="J26" s="8">
         <v>0.25</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="15">
         <v>2.9</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="17">
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
@@ -2147,7 +2171,7 @@
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2174,10 +2198,10 @@
       <c r="J27" s="8">
         <v>0.13</v>
       </c>
-      <c r="K27" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="18">
+      <c r="K27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
@@ -2191,7 +2215,7 @@
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2218,10 +2242,10 @@
       <c r="J28" s="8">
         <v>0.1</v>
       </c>
-      <c r="K28" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="18">
+      <c r="K28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
@@ -2235,7 +2259,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="45">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2259,13 +2283,13 @@
       <c r="I29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="17">
         <v>1.5</v>
       </c>
-      <c r="K29" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
+      <c r="K29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L29" s="17">
         <v>-1</v>
       </c>
       <c r="M29" s="3" t="s">
@@ -2279,10 +2303,10 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="45">
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -2303,13 +2327,13 @@
       <c r="I30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="17">
         <v>0.25</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="15">
         <v>2.5</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="17">
         <v>19.899999999999999</v>
       </c>
       <c r="M30" s="3" t="s">
@@ -2323,7 +2347,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="90">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2347,13 +2371,13 @@
       <c r="I31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="17">
         <v>8</v>
       </c>
-      <c r="K31" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="18">
+      <c r="K31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="17">
         <v>14.9</v>
       </c>
       <c r="M31" s="6" t="s">
@@ -2367,7 +2391,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" ht="30">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2391,13 +2415,13 @@
       <c r="I32" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="17">
         <v>0.2</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="15">
         <v>14.9</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="17">
         <v>24.9</v>
       </c>
       <c r="M32" s="6" t="s">
@@ -2411,7 +2435,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="30">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2435,13 +2459,13 @@
       <c r="I33" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="17">
         <v>0.2</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="15">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="17">
         <v>7.9</v>
       </c>
       <c r="M33" s="6" t="s">
@@ -2455,7 +2479,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" ht="30">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2479,13 +2503,13 @@
       <c r="I34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="18">
+      <c r="J34" s="17">
         <v>2</v>
       </c>
-      <c r="K34" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
+      <c r="K34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="17">
         <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
@@ -2498,24 +2522,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="19"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
+    <row r="35" spans="2:15" ht="60">
+      <c r="B35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="G35" s="24">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="26">
+        <v>2</v>
+      </c>
+      <c r="K35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="26">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N35" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2523,15 +2575,15 @@
       <c r="G36" s="4"/>
       <c r="H36" s="8"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="18"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="17"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="19"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2539,31 +2591,31 @@
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="18"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="17"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
       <c r="H38" s="8"/>
       <c r="I38" s="6"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="18"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="17"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="19"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="2"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -2571,15 +2623,15 @@
       <c r="G39" s="4"/>
       <c r="H39" s="8"/>
       <c r="I39" s="6"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="18"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="17"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="19"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2587,15 +2639,15 @@
       <c r="G40" s="4"/>
       <c r="H40" s="8"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="18"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="17"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="19"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2603,15 +2655,15 @@
       <c r="G41" s="4"/>
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="18"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="17"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="19"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2619,9 +2671,9 @@
       <c r="G42" s="4"/>
       <c r="H42" s="8"/>
       <c r="I42" s="6"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="18"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="17"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
   <si>
     <t>N/A</t>
   </si>
@@ -540,7 +540,7 @@
     <t>Chemskip</t>
   </si>
   <si>
-    <t>Destroy a corpse turning it into Chemfuel using the followig formula. Chemfuel Amount = (CurrentHitPoints / 2) + 10</t>
+    <t>Destroy a corpse turning it into Chemfuel using the followig formula. Chemfuel Amount = ((CurrentHitPoints * (MeatAmount / 3) / 100 ) + 5</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1072,7 @@
   <dimension ref="B1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1080,17 +1080,17 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1"/>
-    <col min="14" max="14" width="32.140625" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" customWidth="1"/>
     <col min="15" max="15" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1602,8 +1602,8 @@
       <c r="B14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>101</v>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>104</v>
@@ -1626,11 +1626,11 @@
       <c r="J14" s="17">
         <v>1</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="17">
         <v>9.9</v>
-      </c>
-      <c r="L14" s="17">
-        <v>-1</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>54</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="60">
+    <row r="35" spans="2:15" ht="75">
       <c r="B35" s="18" t="s">
         <v>124</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="26">
-        <v>-1</v>
+        <v>9.9</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>48</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="129">
   <si>
     <t>N/A</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>Clean Skip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destorys all Filth in target area </t>
   </si>
   <si>
     <t>Ability Effect
@@ -516,10 +513,6 @@
     <t>Supernova Pinhole</t>
   </si>
   <si>
-    <t xml:space="preserve">Add 1 Degree C Per Second
-</t>
-  </si>
-  <si>
     <t>10.0 Days</t>
   </si>
   <si>
@@ -540,7 +533,25 @@
     <t>Chemskip</t>
   </si>
   <si>
-    <t>Destroy a corpse turning it into Chemfuel using the followig formula. Chemfuel Amount = ((CurrentHitPoints * (MeatAmount / 3) / 100 ) + 5</t>
+    <t>Destroy a corpse turning it into Chemfuel using the followig formula. Chemfuel Amount = ((CurrentHitPoints * ((MeatAmount / 10) + (NutritionAmount * 6)) / 100 ) + 5</t>
+  </si>
+  <si>
+    <t>Brickgate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destroys all Filth in target area </t>
+  </si>
+  <si>
+    <t>Destroys a stone chunk, turning it into 15 stone blocks of the same type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targets Items
+</t>
+  </si>
+  <si>
+    <t>Add 1 Degree C Per Second
+Increases area to maximum of 38C
+Provide 100% light in 4.9 radius</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1125,7 +1136,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -1166,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1328,10 +1339,10 @@
         <v>27</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
@@ -1342,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1357,7 +1368,7 @@
         <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" s="17">
         <v>0.5</v>
@@ -1372,10 +1383,10 @@
         <v>27</v>
       </c>
       <c r="N8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
@@ -1386,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1419,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
@@ -1427,7 +1438,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>41</v>
@@ -1457,13 +1468,13 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:15">
@@ -1474,7 +1485,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1510,15 +1521,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="60">
+    <row r="12" spans="2:15" ht="45">
       <c r="B12" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1556,13 +1567,13 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1577,7 +1588,7 @@
         <v>180</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J13" s="17">
         <v>0.1</v>
@@ -1600,13 +1611,13 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1633,7 +1644,7 @@
         <v>9.9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1644,13 +1655,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1677,7 +1688,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1688,13 +1699,13 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
@@ -1721,7 +1732,7 @@
         <v>30.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1732,13 +1743,13 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1776,13 +1787,13 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1820,13 +1831,13 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1864,13 +1875,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1885,7 +1896,7 @@
         <v>420</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20" s="17">
         <v>3</v>
@@ -1900,7 +1911,7 @@
         <v>27</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>16</v>
@@ -1908,13 +1919,13 @@
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1929,7 +1940,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J21" s="17">
         <v>0.1</v>
@@ -1952,13 +1963,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1973,7 +1984,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="17">
         <v>2</v>
@@ -1985,7 +1996,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -1996,13 +2007,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -2017,7 +2028,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J23" s="17">
         <v>2</v>
@@ -2029,7 +2040,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -2040,13 +2051,13 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -2061,7 +2072,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -2073,7 +2084,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2084,13 +2095,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2105,7 +2116,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2117,7 +2128,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2128,13 +2139,13 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2149,7 +2160,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2161,7 +2172,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2172,13 +2183,13 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2205,7 +2216,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2216,13 +2227,13 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2249,7 +2260,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2260,13 +2271,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2304,13 +2315,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="D30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2346,15 +2357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="90">
+    <row r="31" spans="2:15" ht="60">
       <c r="B31" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -2392,13 +2403,13 @@
     </row>
     <row r="32" spans="2:15" ht="30">
       <c r="B32" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2413,7 +2424,7 @@
         <v>30000</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J32" s="17">
         <v>0.2</v>
@@ -2434,15 +2445,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="30">
+    <row r="33" spans="2:15" ht="45">
       <c r="B33" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2457,7 +2468,7 @@
         <v>10000</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J33" s="17">
         <v>0.2</v>
@@ -2480,13 +2491,13 @@
     </row>
     <row r="34" spans="2:15" ht="30">
       <c r="B34" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -2501,7 +2512,7 @@
         <v>8000</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J34" s="17">
         <v>2</v>
@@ -2513,7 +2524,7 @@
         <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>0</v>
@@ -2522,21 +2533,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="75">
+    <row r="35" spans="2:15" ht="60">
       <c r="B35" s="18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E35" s="22">
         <v>2</v>
       </c>
       <c r="F35" s="23">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="G35" s="24">
         <v>0</v>
@@ -2548,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" s="27" t="s">
         <v>0</v>
@@ -2557,7 +2568,7 @@
         <v>9.9</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>0</v>
@@ -2566,21 +2577,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="18"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
+    <row r="36" spans="2:15" ht="30">
+      <c r="B36" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="17">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="18"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>N/A</t>
   </si>
@@ -306,22 +306,7 @@
 Intercepts Outgoing Projectiles</t>
   </si>
   <si>
-    <t>10.0 Hours</t>
-  </si>
-  <si>
     <t>Total Bleed Factor x10%</t>
-  </si>
-  <si>
-    <t>Hunger Rate Factor Offset -30%
-Rest Fall Factor Set to 70%
-Pain Factor x50%
-Consciousness +10%
-Sight +30%
-Hearing +30%
-Moving +30%
-Mental Break Threshold -10%
-Melee Hit Chance +4 Levels
-Melee Dodge Chance +4 Levels</t>
   </si>
   <si>
     <t>Moving +30%</t>
@@ -405,26 +390,6 @@
     <t>4.0 Hours</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Overdrive Exhaustion (Severe)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pain Offset +50%
-Rest Fall Factor Offset +30%
-Hunger Rate Factor Offset +20%
-Immunity Gain Speed -10%
-Injury Healing Factor -25%</t>
-    </r>
-  </si>
-  <si>
     <t>Rest Need +50%</t>
   </si>
   <si>
@@ -552,6 +517,44 @@
     <t>Add 1 Degree C Per Second
 Increases area to maximum of 38C
 Provide 100% light in 4.9 radius</t>
+  </si>
+  <si>
+    <t>12.0 Hours</t>
+  </si>
+  <si>
+    <t>5.0 Days (Including about 14 hours of 'Onset' which has no negatives)</t>
+  </si>
+  <si>
+    <t>Hunger Rate Factor Offset -30%
+Rest Fall Factor Set to 70%
+Pain Factor x50%
+Consciousness +15%
+Sight +30%
+Hearing +30%
+Moving +30%
+Mental Break Threshold -15%
+Melee Hit Chance +4 Levels
+Melee Dodge Chance +4 Levels</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overdrive Exhaustion (Severe)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pain Offset +35%
+Rest Fall Factor Offset +30%
+Hunger Rate Factor Offset +20%
+Immunity Gain Speed -10%
+Injury Healing Factor -25%</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1082,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1177,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1339,10 +1342,10 @@
         <v>27</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
@@ -1353,7 +1356,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1368,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J8" s="17">
         <v>0.5</v>
@@ -1383,10 +1386,10 @@
         <v>27</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
@@ -1397,7 +1400,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1430,7 +1433,7 @@
         <v>36</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
@@ -1485,7 +1488,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1573,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1617,7 +1620,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1661,7 +1664,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1793,7 +1796,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1881,7 +1884,7 @@
         <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1893,10 +1896,10 @@
         <v>50</v>
       </c>
       <c r="H20" s="8">
-        <v>420</v>
+        <v>500</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="J20" s="17">
         <v>3</v>
@@ -1911,10 +1914,10 @@
         <v>27</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>16</v>
+        <v>129</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="45">
@@ -1925,7 +1928,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1940,7 +1943,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J21" s="17">
         <v>0.1</v>
@@ -1969,7 +1972,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1984,7 +1987,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J22" s="17">
         <v>2</v>
@@ -1996,7 +1999,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -2013,7 +2016,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -2028,7 +2031,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J23" s="17">
         <v>2</v>
@@ -2040,7 +2043,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -2057,7 +2060,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
@@ -2072,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -2084,7 +2087,7 @@
         <v>14.9</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2101,7 +2104,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2116,7 +2119,7 @@
         <v>17</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2128,7 +2131,7 @@
         <v>23.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2145,7 +2148,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
@@ -2160,7 +2163,7 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2172,7 +2175,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2189,7 +2192,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
@@ -2216,7 +2219,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2233,7 +2236,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
@@ -2260,7 +2263,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2271,13 +2274,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2315,13 +2318,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2359,13 +2362,13 @@
     </row>
     <row r="31" spans="2:15" ht="60">
       <c r="B31" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -2403,13 +2406,13 @@
     </row>
     <row r="32" spans="2:15" ht="30">
       <c r="B32" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2424,7 +2427,7 @@
         <v>30000</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J32" s="17">
         <v>0.2</v>
@@ -2447,13 +2450,13 @@
     </row>
     <row r="33" spans="2:15" ht="45">
       <c r="B33" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2468,7 +2471,7 @@
         <v>10000</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J33" s="17">
         <v>0.2</v>
@@ -2491,13 +2494,13 @@
     </row>
     <row r="34" spans="2:15" ht="30">
       <c r="B34" s="18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -2512,7 +2515,7 @@
         <v>8000</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J34" s="17">
         <v>2</v>
@@ -2524,7 +2527,7 @@
         <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>0</v>
@@ -2535,13 +2538,13 @@
     </row>
     <row r="35" spans="2:15" ht="60">
       <c r="B35" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="22">
         <v>2</v>
@@ -2579,13 +2582,13 @@
     </row>
     <row r="36" spans="2:15" ht="30">
       <c r="B36" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -2612,7 +2615,7 @@
         <v>-1</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>0</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -17,9 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>Injury Healing Factor +60%</t>
   </si>
   <si>
     <t>Immunity Gain Speed +30%</t>
@@ -228,9 +225,6 @@
     <t>Haemostasis</t>
   </si>
   <si>
-    <t>4.3 Hours</t>
-  </si>
-  <si>
     <t>Ignite</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
 ((MaxHitPoints - CurrentHitPoints) / 2 ) + (MaxHitPoints / 20))</t>
   </si>
   <si>
-    <t>Sets single target area on fire</t>
-  </si>
-  <si>
     <t>Create a flame explosion at target location</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
     <t>2.0 Hours</t>
   </si>
   <si>
-    <t>Injury Healing Factor +1500% (Heals about 11.8 Damage)</t>
-  </si>
-  <si>
     <t>Dart</t>
   </si>
   <si>
@@ -485,14 +473,6 @@
   </si>
   <si>
     <t>Word of Friendship</t>
-  </si>
-  <si>
-    <t>Removes 2 Degrees C Per Second
-Reduces area to miniumum of -3C</t>
-  </si>
-  <si>
-    <t>Removes 10 Degrees C Per Second
-Reduces area to miniumum of -9C</t>
   </si>
   <si>
     <t>Chemskip</t>
@@ -512,11 +492,6 @@
   <si>
     <t xml:space="preserve">Targets Items
 </t>
-  </si>
-  <si>
-    <t>Add 1 Degree C Per Second
-Increases area to maximum of 38C
-Provide 100% light in 4.9 radius</t>
   </si>
   <si>
     <t>12.0 Hours</t>
@@ -555,6 +530,31 @@
 Immunity Gain Speed -10%
 Injury Healing Factor -25%</t>
     </r>
+  </si>
+  <si>
+    <t>Injury Healing Factor +75%</t>
+  </si>
+  <si>
+    <t>Injury Healing Factor +2000% (Heals about 14.75 Damage)</t>
+  </si>
+  <si>
+    <t>5.3 Hours</t>
+  </si>
+  <si>
+    <t>Sets single target object on fire (cannot target pawns or animals)</t>
+  </si>
+  <si>
+    <t>Add 1 Degree C Per Second
+Increases area to maximum of 30C
+Provide 100% light in 4.9 radius</t>
+  </si>
+  <si>
+    <t>Removes 30 Degrees C Per Second
+Reduces area to miniumum of -9C</t>
+  </si>
+  <si>
+    <t>Removes 30 Degrees C Per Second
+Reduces area to miniumum of -5C</t>
   </si>
 </sst>
 </file>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1110,77 +1110,77 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="B1" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
         <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="2:15">
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" t="s">
-        <v>12</v>
-      </c>
       <c r="N3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="30">
       <c r="B4" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1195,7 +1195,7 @@
         <v>5000</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="17">
         <v>0.2</v>
@@ -1207,7 +1207,7 @@
         <v>24.9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>0</v>
@@ -1218,19 +1218,19 @@
     </row>
     <row r="5" spans="2:15" s="2" customFormat="1" ht="45">
       <c r="B5" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="5">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G5" s="4">
         <v>15</v>
@@ -1239,7 +1239,7 @@
         <v>320</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="17">
         <v>4</v>
@@ -1251,7 +1251,7 @@
         <v>-1</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>0</v>
@@ -1262,19 +1262,19 @@
     </row>
     <row r="6" spans="2:15" ht="45">
       <c r="B6" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="G6" s="4">
         <v>15</v>
@@ -1283,7 +1283,7 @@
         <v>320</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" s="17">
         <v>4</v>
@@ -1295,7 +1295,7 @@
         <v>-1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>0</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="7" spans="2:15" ht="75">
       <c r="B7" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="E7" s="6">
         <v>4</v>
@@ -1339,24 +1339,24 @@
         <v>-1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="45">
       <c r="B8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E8" s="6">
         <v>3</v>
@@ -1371,7 +1371,7 @@
         <v>84</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J8" s="17">
         <v>0.5</v>
@@ -1383,24 +1383,24 @@
         <v>-1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="45">
       <c r="B9" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
@@ -1415,7 +1415,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="17">
         <v>5</v>
@@ -1427,24 +1427,24 @@
         <v>-1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="135">
       <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="6">
         <v>6</v>
@@ -1471,24 +1471,24 @@
         <v>-1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6">
         <v>3</v>
@@ -1515,7 +1515,7 @@
         <v>24.9</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>0</v>
@@ -1526,13 +1526,13 @@
     </row>
     <row r="12" spans="2:15" ht="45">
       <c r="B12" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
@@ -1559,7 +1559,7 @@
         <v>14.9</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>0</v>
@@ -1570,13 +1570,13 @@
     </row>
     <row r="13" spans="2:15" ht="45">
       <c r="B13" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -1588,10 +1588,10 @@
         <v>5</v>
       </c>
       <c r="H13" s="8">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="J13" s="17">
         <v>0.1</v>
@@ -1603,7 +1603,7 @@
         <v>-1</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>0</v>
@@ -1614,13 +1614,13 @@
     </row>
     <row r="14" spans="2:15" ht="30">
       <c r="B14" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1638,16 +1638,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>0</v>
       </c>
       <c r="L14" s="17">
-        <v>9.9</v>
+        <v>12.9</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E15" s="3">
         <v>5</v>
@@ -1691,7 +1691,7 @@
         <v>14.9</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>0</v>
@@ -1702,22 +1702,22 @@
     </row>
     <row r="16" spans="2:15" ht="30">
       <c r="B16" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="E16" s="6">
         <v>4</v>
       </c>
       <c r="F16" s="5">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G16" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="17">
-        <v>30.9</v>
+        <v>31.9</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>0</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="17" spans="2:15" ht="45">
       <c r="B17" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
@@ -1779,7 +1779,7 @@
         <v>-1</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>0</v>
@@ -1790,13 +1790,13 @@
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
@@ -1823,7 +1823,7 @@
         <v>-1</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N18" s="8" t="s">
         <v>0</v>
@@ -1834,13 +1834,13 @@
     </row>
     <row r="19" spans="2:15" ht="60">
       <c r="B19" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" s="6">
         <v>4</v>
@@ -1855,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="17">
         <v>1</v>
@@ -1867,7 +1867,7 @@
         <v>24.9</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>0</v>
@@ -1878,13 +1878,13 @@
     </row>
     <row r="20" spans="2:15" ht="150">
       <c r="B20" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E20" s="6">
         <v>5</v>
@@ -1899,7 +1899,7 @@
         <v>500</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="J20" s="17">
         <v>3</v>
@@ -1911,24 +1911,24 @@
         <v>-1</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:15" ht="45">
       <c r="B21" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="3">
         <v>3</v>
@@ -1943,7 +1943,7 @@
         <v>168</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J21" s="17">
         <v>0.1</v>
@@ -1955,7 +1955,7 @@
         <v>-1</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" s="8" t="s">
         <v>0</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="22" spans="2:15" ht="30">
       <c r="B22" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3">
         <v>3</v>
@@ -1987,7 +1987,7 @@
         <v>8000</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J22" s="17">
         <v>2</v>
@@ -1999,7 +1999,7 @@
         <v>-1</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>0</v>
@@ -2010,13 +2010,13 @@
     </row>
     <row r="23" spans="2:15" ht="30">
       <c r="B23" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
@@ -2031,7 +2031,7 @@
         <v>3000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J23" s="17">
         <v>2</v>
@@ -2043,7 +2043,7 @@
         <v>-1</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N23" s="8" t="s">
         <v>0</v>
@@ -2054,19 +2054,19 @@
     </row>
     <row r="24" spans="2:15" ht="60">
       <c r="B24" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="F24" s="5">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G24" s="4">
         <v>60</v>
@@ -2075,7 +2075,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J24" s="8">
         <v>0.25</v>
@@ -2084,10 +2084,10 @@
         <v>2.9</v>
       </c>
       <c r="L24" s="17">
-        <v>14.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>0</v>
@@ -2098,13 +2098,13 @@
     </row>
     <row r="25" spans="2:15" ht="60">
       <c r="B25" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" s="3">
         <v>3</v>
@@ -2116,10 +2116,10 @@
         <v>24</v>
       </c>
       <c r="H25" s="8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J25" s="8">
         <v>0.25</v>
@@ -2128,10 +2128,10 @@
         <v>3.9</v>
       </c>
       <c r="L25" s="17">
-        <v>23.9</v>
+        <v>24.9</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
@@ -2142,28 +2142,28 @@
     </row>
     <row r="26" spans="2:15" ht="60">
       <c r="B26" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="F26" s="5">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G26" s="4">
         <v>36</v>
       </c>
       <c r="H26" s="8">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J26" s="8">
         <v>0.25</v>
@@ -2172,10 +2172,10 @@
         <v>2.9</v>
       </c>
       <c r="L26" s="17">
-        <v>19.899999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>0</v>
@@ -2186,22 +2186,22 @@
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3">
         <v>3</v>
       </c>
       <c r="F27" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G27" s="4">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>22.9</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N27" s="8" t="s">
         <v>0</v>
@@ -2230,22 +2230,22 @@
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3">
         <v>4</v>
       </c>
       <c r="F28" s="5">
-        <v>0.03</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="G28" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="8">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>31.9</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>0</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="29" spans="2:15" ht="45">
       <c r="B29" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>5000</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" s="17">
         <v>1.5</v>
@@ -2307,7 +2307,7 @@
         <v>-1</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29" s="8" t="s">
         <v>0</v>
@@ -2318,13 +2318,13 @@
     </row>
     <row r="30" spans="2:15" ht="45">
       <c r="B30" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E30" s="6">
         <v>3</v>
@@ -2351,7 +2351,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>0</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="31" spans="2:15" ht="60">
       <c r="B31" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
@@ -2395,7 +2395,7 @@
         <v>14.9</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>0</v>
@@ -2406,13 +2406,13 @@
     </row>
     <row r="32" spans="2:15" ht="30">
       <c r="B32" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2427,7 +2427,7 @@
         <v>30000</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J32" s="17">
         <v>0.2</v>
@@ -2439,7 +2439,7 @@
         <v>24.9</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>0</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="33" spans="2:15" ht="45">
       <c r="B33" s="18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E33" s="6">
         <v>3</v>
@@ -2471,7 +2471,7 @@
         <v>10000</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J33" s="17">
         <v>0.2</v>
@@ -2483,7 +2483,7 @@
         <v>7.9</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>0</v>
@@ -2494,13 +2494,13 @@
     </row>
     <row r="34" spans="2:15" ht="30">
       <c r="B34" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -2515,7 +2515,7 @@
         <v>8000</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J34" s="17">
         <v>2</v>
@@ -2527,7 +2527,7 @@
         <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>0</v>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="35" spans="2:15" ht="60">
       <c r="B35" s="18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E35" s="22">
         <v>2</v>
@@ -2571,7 +2571,7 @@
         <v>9.9</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="22" t="s">
         <v>0</v>
@@ -2582,13 +2582,13 @@
     </row>
     <row r="36" spans="2:15" ht="30">
       <c r="B36" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
@@ -2615,7 +2615,7 @@
         <v>-1</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>0</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -621,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -700,6 +700,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,8 +775,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:O42" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="B3:O42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:O41" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="B3:O41">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
     <filterColumn colId="6"/>
@@ -1083,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O52"/>
+  <dimension ref="B1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2625,10 +2631,10 @@
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="18"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
       <c r="F37" s="5"/>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
@@ -2643,8 +2649,8 @@
     <row r="38" spans="2:15">
       <c r="B38" s="18"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="5"/>
       <c r="G38" s="4"/>
       <c r="H38" s="8"/>
@@ -2705,34 +2711,32 @@
       <c r="O41" s="6"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="18"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="2"/>
@@ -2833,32 +2837,18 @@
       <c r="M50" s="6"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="135">
   <si>
     <t>N/A</t>
   </si>
@@ -139,9 +139,6 @@
       <t>Pain Offset +10%
 Rest Fall Factor Offset +10%</t>
     </r>
-  </si>
-  <si>
-    <t>1.0 Hour</t>
   </si>
   <si>
     <t>Superficial Regeneration</t>
@@ -555,6 +552,24 @@
   <si>
     <t>Removes 30 Degrees C Per Second
 Reduces area to miniumum of -5C</t>
+  </si>
+  <si>
+    <t>Static Burst</t>
+  </si>
+  <si>
+    <t>Create a emp explosion at target location</t>
+  </si>
+  <si>
+    <t>Revitalise (Anomaly Only)</t>
+  </si>
+  <si>
+    <t>Superskip</t>
+  </si>
+  <si>
+    <t>Teleports Target to Target Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regeneration +15 (Heals 15 Damage per day)(Heals 150 Damage total)  </t>
   </si>
 </sst>
 </file>
@@ -621,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,9 +671,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -700,11 +712,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,6 +793,9 @@
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
+  <sortState ref="B4:O41">
+    <sortCondition ref="B3:B41"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Psycast" dataDxfId="13"/>
     <tableColumn id="14" name="Effect" dataDxfId="12"/>
@@ -1092,7 +1104,7 @@
   <dimension ref="B1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1115,7 +1127,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -1129,7 +1141,7 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="16"/>
+      <c r="J2" s="15"/>
       <c r="K2" t="s">
         <v>30</v>
       </c>
@@ -1145,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -1179,14 +1191,14 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="30">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1203,13 +1215,13 @@
       <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>0.2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>14.9</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>24.9</v>
       </c>
       <c r="M4" s="6" t="s">
@@ -1222,347 +1234,347 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" s="2" customFormat="1" ht="45">
-      <c r="B5" s="18" t="s">
-        <v>17</v>
+    <row r="5" spans="2:15" s="2" customFormat="1" ht="30">
+      <c r="B5" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="60">
+      <c r="B6" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.15</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="L7" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="45">
+      <c r="B8" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="F8" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="G8" s="4">
+        <v>30</v>
+      </c>
+      <c r="H8" s="8">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8">
-        <v>320</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="17">
-        <v>4</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="45">
-      <c r="B6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="4">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8">
-        <v>320</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="17">
-        <v>4</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" ht="75">
-      <c r="B7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="6">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="G7" s="4">
-        <v>50</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
-        <v>5</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" ht="45">
-      <c r="B8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="6">
-        <v>3</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>40</v>
-      </c>
-      <c r="H8" s="8">
-        <v>84</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="17">
+      <c r="J8" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16">
         <v>-1</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="45">
-      <c r="B9" s="18" t="s">
-        <v>37</v>
+      <c r="N8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="60">
+      <c r="B9" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="E9" s="6">
         <v>3</v>
       </c>
       <c r="F9" s="5">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="G9" s="4">
-        <v>40</v>
-      </c>
-      <c r="H9" s="8">
-        <v>300</v>
+        <v>20</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="17">
+        <v>0</v>
+      </c>
+      <c r="J9" s="16">
+        <v>8</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="45">
+      <c r="B10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G10" s="4">
+        <v>30</v>
+      </c>
+      <c r="H10" s="8">
+        <v>168</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="75">
+      <c r="B11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="16">
         <v>5</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17">
+      <c r="K11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="16">
         <v>-1</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="135">
-      <c r="B10" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6">
-        <v>6</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G10" s="4">
-        <v>150</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
-        <v>5</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="6">
+      <c r="N11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="30">
+      <c r="B12" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
-        <v>2</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="F12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>30000</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="K12" s="14">
         <v>14.9</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L12" s="16">
         <v>24.9</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="45">
-      <c r="B12" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
-        <v>3</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1.9</v>
-      </c>
-      <c r="L12" s="17">
-        <v>14.9</v>
       </c>
       <c r="M12" s="6" t="s">
         <v>16</v>
@@ -1574,42 +1586,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="45">
-      <c r="B13" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
+    <row r="13" spans="2:15" ht="60">
+      <c r="B13" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3</v>
       </c>
       <c r="F13" s="5">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="G13" s="4">
-        <v>5</v>
-      </c>
-      <c r="H13" s="8">
-        <v>240</v>
+        <v>45</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J13" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="17">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K13" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L13" s="16">
+        <v>19.899999999999999</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>0</v>
@@ -1618,24 +1630,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="30">
-      <c r="B14" s="18" t="s">
-        <v>50</v>
+    <row r="14" spans="2:15" ht="45">
+      <c r="B14" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>0</v>
@@ -1643,17 +1655,17 @@
       <c r="I14" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="17">
-        <v>12.9</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>51</v>
+      <c r="J14" s="16">
+        <v>3</v>
+      </c>
+      <c r="K14" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="L14" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1663,67 +1675,67 @@
       </c>
     </row>
     <row r="15" spans="2:15" ht="45">
-      <c r="B15" s="18" t="s">
-        <v>52</v>
+      <c r="B15" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
+        <v>123</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
       </c>
       <c r="F15" s="5">
         <v>0.2</v>
       </c>
       <c r="G15" s="4">
-        <v>70</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
-        <v>2.5</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="17">
-        <v>14.9</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="8">
+        <v>84</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>-1</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" ht="30">
-      <c r="B16" s="18" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="6">
-        <v>4</v>
+        <v>88</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3</v>
       </c>
       <c r="F16" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>0</v>
@@ -1731,414 +1743,414 @@
       <c r="I16" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="8">
         <v>0.1</v>
       </c>
-      <c r="K16" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="17">
-        <v>31.9</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6" t="s">
+      <c r="K16" s="14">
+        <v>22.9</v>
+      </c>
+      <c r="L16" s="16">
+        <v>22.9</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:15" ht="45">
-      <c r="B17" s="18" t="s">
-        <v>54</v>
+      <c r="B17" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="5">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <v>2</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="17">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
+        <v>240</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16">
         <v>-1</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8" t="s">
+      <c r="N17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="45">
-      <c r="B18" s="18" t="s">
-        <v>55</v>
+      <c r="B18" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>2</v>
-      </c>
-      <c r="K18" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
+        <v>15</v>
+      </c>
+      <c r="H18" s="8">
+        <v>320</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="16">
+        <v>4</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
         <v>-1</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" ht="60">
-      <c r="B19" s="18" t="s">
-        <v>56</v>
+      <c r="N18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="30">
+      <c r="B19" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="6">
+        <v>125</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G19" s="4">
+        <v>5</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>12.9</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="45">
+      <c r="B20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G20" s="4">
+        <v>15</v>
+      </c>
+      <c r="H20" s="8">
+        <v>320</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="16">
         <v>4</v>
       </c>
-      <c r="F19" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8">
-        <v>45</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="J19" s="17">
-        <v>1</v>
-      </c>
-      <c r="K19" s="15">
-        <v>15.9</v>
-      </c>
-      <c r="L19" s="17">
-        <v>24.9</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="150">
-      <c r="B20" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="6">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G20" s="4">
-        <v>50</v>
-      </c>
-      <c r="H20" s="8">
-        <v>500</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J20" s="17">
-        <v>3</v>
-      </c>
-      <c r="K20" s="15">
-        <v>15.9</v>
-      </c>
-      <c r="L20" s="17">
+      <c r="K20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
         <v>-1</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="3" t="s">
+      <c r="N20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="30">
+      <c r="B21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>16</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
+        <v>31.9</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="60">
+      <c r="B22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>60</v>
+      </c>
+      <c r="H22" s="8">
+        <v>8</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="K22" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="L22" s="16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="60">
+      <c r="B23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G23" s="4">
+        <v>24</v>
+      </c>
+      <c r="H23" s="8">
+        <v>20</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="K23" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="L23" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="150">
+      <c r="B24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" ht="45">
-      <c r="B21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>50</v>
+      </c>
+      <c r="H24" s="8">
+        <v>500</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="16">
+        <v>3</v>
+      </c>
+      <c r="K24" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="L24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="30">
+      <c r="B25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="G21" s="4">
-        <v>30</v>
-      </c>
-      <c r="H21" s="8">
-        <v>168</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="17">
+      <c r="D25" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="16">
+        <v>2</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
         <v>-1</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="30">
-      <c r="B22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>8000</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J22" s="17">
-        <v>2</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="30">
-      <c r="B23" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="6">
-        <v>2</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I23" s="6" t="s">
+      <c r="M25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J23" s="17">
-        <v>2</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" ht="60">
-      <c r="B24" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>60</v>
-      </c>
-      <c r="H24" s="8">
-        <v>8</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="K24" s="15">
-        <v>2.9</v>
-      </c>
-      <c r="L24" s="17">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="60">
-      <c r="B25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="3">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="G25" s="4">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>20</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="K25" s="15">
-        <v>3.9</v>
-      </c>
-      <c r="L25" s="17">
-        <v>24.9</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="N25" s="8" t="s">
         <v>0</v>
       </c>
@@ -2146,279 +2158,279 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="60">
-      <c r="B26" s="18" t="s">
-        <v>63</v>
+    <row r="26" spans="2:15" ht="45">
+      <c r="B26" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>70</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="135">
+      <c r="B27" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="G27" s="4">
+        <v>150</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>5</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="60">
+      <c r="B28" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="6">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G28" s="4">
+        <v>55</v>
+      </c>
+      <c r="H28" s="8">
+        <v>45</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="16">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="L28" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E29" s="3">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K29" s="14">
+        <v>31.9</v>
+      </c>
+      <c r="L29" s="16">
+        <v>31.9</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="60">
+      <c r="B30" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="3">
         <v>3</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F30" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G30" s="4">
         <v>36</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H30" s="8">
         <v>3</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="8">
+      <c r="I30" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="8">
         <v>0.25</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K30" s="14">
         <v>2.9</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L30" s="16">
         <v>20.9</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="3">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="G27" s="4">
-        <v>12</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
-        <v>22.9</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="3">
-        <v>4</v>
-      </c>
-      <c r="F28" s="5">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>20</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="17">
-        <v>31.9</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" ht="45">
-      <c r="B29" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.125</v>
-      </c>
-      <c r="G29" s="4">
-        <v>30</v>
-      </c>
-      <c r="H29" s="8">
-        <v>5000</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="45">
-      <c r="B30" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="M30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="45">
+      <c r="B31" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="6">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="K30" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="L30" s="17">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="60">
-      <c r="B31" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="E31" s="6">
         <v>3</v>
       </c>
       <c r="F31" s="5">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="G31" s="4">
-        <v>20</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="H31" s="8">
+        <v>300</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
-        <v>8</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="17">
-        <v>14.9</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="30">
-      <c r="B32" s="18" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="J31" s="16">
+        <v>5</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="45">
+      <c r="B32" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2430,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="H32" s="8">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="J32" s="17">
+        <v>109</v>
+      </c>
+      <c r="J32" s="16">
         <v>0.2</v>
       </c>
-      <c r="K32" s="15">
-        <v>14.9</v>
-      </c>
-      <c r="L32" s="17">
-        <v>24.9</v>
+      <c r="K32" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L32" s="16">
+        <v>7.9</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>16</v>
@@ -2454,59 +2466,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="45">
-      <c r="B33" s="18" t="s">
-        <v>109</v>
+    <row r="33" spans="2:15" ht="30">
+      <c r="B33" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="6">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="7">
-        <v>0.3</v>
+      <c r="F33" s="5">
+        <v>0.5</v>
       </c>
       <c r="G33" s="4">
         <v>0</v>
       </c>
       <c r="H33" s="8">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="K33" s="15">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L33" s="17">
-        <v>7.9</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J33" s="16">
+        <v>2</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O33" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:15" ht="30">
-      <c r="B34" s="18" t="s">
-        <v>112</v>
+      <c r="B34" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E34" s="3">
         <v>2</v>
@@ -2521,19 +2533,19 @@
         <v>8000</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J34" s="17">
+        <v>76</v>
+      </c>
+      <c r="J34" s="16">
         <v>2</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="17">
+      <c r="K34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
         <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>0</v>
@@ -2542,144 +2554,224 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="60">
-      <c r="B35" s="18" t="s">
-        <v>113</v>
+    <row r="35" spans="2:15" ht="45">
+      <c r="B35" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="22">
+        <v>70</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="3">
         <v>2</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="5">
         <v>0.15</v>
       </c>
-      <c r="G35" s="24">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="G35" s="4">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>2</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="45">
+      <c r="B36" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="3">
+        <v>2</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G36" s="4">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16">
+        <v>2</v>
+      </c>
+      <c r="K36" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="60">
+      <c r="B37" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="6">
         <v>1</v>
       </c>
-      <c r="K35" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="L35" s="26">
-        <v>9.9</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="30">
-      <c r="B36" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="G36" s="4">
-        <v>4</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="K36" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
+      <c r="F37" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G37" s="4">
+        <v>12</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K37" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="L37" s="16">
+        <v>28.9</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="45">
+      <c r="B38" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="6">
+        <v>5</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G38" s="4">
+        <v>50</v>
+      </c>
+      <c r="H38" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="16">
+        <v>5</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16">
         <v>-1</v>
       </c>
-      <c r="M36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="18"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="18"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="6"/>
+      <c r="M38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="45">
+      <c r="B39" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="6">
+        <v>6</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="G39" s="4">
+        <v>40</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K39" s="14">
+        <v>38.9</v>
+      </c>
+      <c r="L39" s="16">
+        <v>35.9</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="18"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2687,15 +2779,15 @@
       <c r="G40" s="4"/>
       <c r="H40" s="8"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2703,9 +2795,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="8"/>
       <c r="I41" s="6"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="17"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -529,12 +529,6 @@
     </r>
   </si>
   <si>
-    <t>Injury Healing Factor +75%</t>
-  </si>
-  <si>
-    <t>Injury Healing Factor +2000% (Heals about 14.75 Damage)</t>
-  </si>
-  <si>
     <t>5.3 Hours</t>
   </si>
   <si>
@@ -570,6 +564,12 @@
   </si>
   <si>
     <t xml:space="preserve">Regeneration +15 (Heals 15 Damage per day)(Heals 150 Damage total)  </t>
+  </si>
+  <si>
+    <t>Injury Healing Factor +75% (Heals a minimum of 4.5 damage)</t>
+  </si>
+  <si>
+    <t>Injury Healing Factor +2000% (Heals a minimum of 13.3 Damage)</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
@@ -1550,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6">
         <v>3</v>
@@ -1682,7 +1682,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="E15" s="6">
         <v>3</v>
@@ -1785,7 +1785,7 @@
         <v>240</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J17" s="16">
         <v>0.1</v>
@@ -1814,13 +1814,13 @@
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E18" s="3">
         <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="G18" s="4">
         <v>15</v>
@@ -1858,7 +1858,7 @@
         <v>23</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -2430,7 +2430,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E32" s="6">
         <v>3</v>
@@ -2644,13 +2644,13 @@
     </row>
     <row r="37" spans="2:15" ht="60">
       <c r="B37" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>94</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E37" s="6">
         <v>1</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="38" spans="2:15" ht="45">
       <c r="B38" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E38" s="6">
         <v>5</v>
@@ -2732,13 +2732,13 @@
     </row>
     <row r="39" spans="2:15" ht="45">
       <c r="B39" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E39" s="6">
         <v>6</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755"/>
   </bookViews>
   <sheets>
-    <sheet name="Psycasts" sheetId="1" r:id="rId1"/>
+    <sheet name="SLP More Psycasts" sheetId="1" r:id="rId1"/>
+    <sheet name="SLP Even More Psycasts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="139">
   <si>
     <t>N/A</t>
   </si>
@@ -570,6 +571,18 @@
   </si>
   <si>
     <t>Injury Healing Factor +2000% (Heals a minimum of 13.3 Damage)</t>
+  </si>
+  <si>
+    <t>Psycast  Stats - Sleepy's Even More Psycasts</t>
+  </si>
+  <si>
+    <t>Mech Energy +40%</t>
+  </si>
+  <si>
+    <t>Targets Mechs</t>
+  </si>
+  <si>
+    <t>Energise (Biotech Only)</t>
   </si>
 </sst>
 </file>
@@ -719,7 +732,58 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -784,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:O41" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:O41" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="B3:O41">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
@@ -793,6 +857,32 @@
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
   </autoFilter>
+  <sortState ref="B4:O41">
+    <sortCondition ref="B3:B41"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="1" name="Psycast" dataDxfId="28"/>
+    <tableColumn id="14" name="Effect" dataDxfId="27"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="26"/>
+    <tableColumn id="8" name="Level" dataDxfId="25"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="24"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="23"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="22"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="21"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="20"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="19"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="18"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="17"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="16"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:O41" totalsRowShown="0" dataDxfId="14">
+  <autoFilter ref="B3:O41"/>
   <sortState ref="B4:O41">
     <sortCondition ref="B3:B41"/>
   </sortState>
@@ -1103,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1586,86 +1676,82 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="60">
+    <row r="13" spans="2:15" ht="30">
       <c r="B13" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" ht="60">
+      <c r="B14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F14" s="5">
         <v>0.06</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>45</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
+      <c r="H14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
         <v>0.25</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K14" s="14">
         <v>2.5</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L14" s="16">
         <v>19.899999999999999</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="45">
-      <c r="B14" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="3">
-        <v>6</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
-        <v>3</v>
-      </c>
-      <c r="K14" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="L14" s="16">
-        <v>14.9</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>0</v>
@@ -1676,163 +1762,163 @@
     </row>
     <row r="15" spans="2:15" ht="45">
       <c r="B15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="3">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>3</v>
+      </c>
+      <c r="K15" s="14">
+        <v>1.9</v>
+      </c>
+      <c r="L15" s="16">
+        <v>14.9</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="45">
+      <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F16" s="5">
         <v>0.2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>40</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H16" s="8">
         <v>84</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J16" s="16">
         <v>0.5</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="K16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="16">
         <v>-1</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="17" t="s">
+    <row r="17" spans="2:15">
+      <c r="B17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F17" s="5">
         <v>0.01</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G17" s="4">
         <v>12</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
+      <c r="H17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
         <v>0.1</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K17" s="14">
         <v>22.9</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L17" s="16">
         <v>22.9</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="45">
-      <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8">
-        <v>240</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6" t="s">
+      <c r="N17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="45">
       <c r="B18" s="17" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="E18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G18" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H18" s="8">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="J18" s="16">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="K18" s="14" t="s">
         <v>0</v>
@@ -1850,215 +1936,215 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="30">
+    <row r="19" spans="2:15" ht="45">
       <c r="B19" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="4">
+        <v>15</v>
+      </c>
+      <c r="H19" s="8">
+        <v>320</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="16">
+        <v>4</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="30">
+      <c r="B20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F20" s="5">
         <v>0.01</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
+      <c r="H20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
         <v>0.5</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="K20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
         <v>12.9</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" ht="45">
-      <c r="B20" s="17" t="s">
+      <c r="N20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="45">
+      <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F21" s="5">
         <v>0.12</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G21" s="4">
         <v>15</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H21" s="8">
         <v>320</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J21" s="16">
         <v>4</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="K21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16">
         <v>-1</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="30">
-      <c r="B21" s="17" t="s">
+      <c r="N21" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="30">
+      <c r="B22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <v>4</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F22" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G22" s="4">
         <v>16</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
+      <c r="H22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
         <v>0.1</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="K22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
         <v>31.9</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="60">
-      <c r="B22" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="3">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>60</v>
-      </c>
-      <c r="H22" s="8">
-        <v>8</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="K22" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="L22" s="16">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8" t="s">
+      <c r="N22" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="60">
       <c r="B23" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F23" s="5">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G23" s="4">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H23" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J23" s="8">
         <v>0.25</v>
       </c>
       <c r="K23" s="14">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="L23" s="16">
-        <v>24.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>81</v>
@@ -2070,438 +2156,438 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="150">
+    <row r="24" spans="2:15" ht="60">
       <c r="B24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G24" s="4">
+        <v>24</v>
+      </c>
+      <c r="H24" s="8">
+        <v>20</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="K24" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="L24" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="150">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F25" s="5">
         <v>0.4</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G25" s="4">
         <v>50</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H25" s="8">
         <v>500</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J25" s="16">
         <v>3</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K25" s="14">
         <v>15.9</v>
-      </c>
-      <c r="L24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="30">
-      <c r="B25" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="6">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>3000</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="16">
-        <v>2</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>0</v>
       </c>
       <c r="L25" s="16">
         <v>-1</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" ht="30">
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8">
+        <v>3000</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="16">
+        <v>2</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="45">
-      <c r="B26" s="17" t="s">
+      <c r="N26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="45">
+      <c r="B27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E27" s="3">
         <v>5</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F27" s="5">
         <v>0.2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G27" s="4">
         <v>70</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" s="16">
+      <c r="H27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
         <v>2.5</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="K27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
         <v>14.9</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" ht="135">
-      <c r="B27" s="17" t="s">
+      <c r="N27" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="135">
+      <c r="B28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E28" s="6">
         <v>6</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F28" s="5">
         <v>0.9</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G28" s="4">
         <v>150</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="16">
+      <c r="H28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
         <v>5</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
+      <c r="K28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
         <v>-1</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="2:15" ht="60">
-      <c r="B28" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="6">
-        <v>4</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="G28" s="4">
-        <v>55</v>
-      </c>
-      <c r="H28" s="8">
-        <v>45</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="J28" s="16">
-        <v>1</v>
-      </c>
-      <c r="K28" s="14">
-        <v>15.9</v>
-      </c>
-      <c r="L28" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" ht="45">
       <c r="B29" s="17" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="3">
-        <v>4</v>
+        <v>132</v>
+      </c>
+      <c r="E29" s="6">
+        <v>5</v>
       </c>
       <c r="F29" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>0.45</v>
       </c>
       <c r="G29" s="4">
-        <v>20</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K29" s="14">
-        <v>31.9</v>
+        <v>50</v>
+      </c>
+      <c r="H29" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="16">
+        <v>5</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="L29" s="16">
-        <v>31.9</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="60">
       <c r="B30" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="6">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="G30" s="4">
+        <v>55</v>
+      </c>
+      <c r="H30" s="8">
+        <v>45</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="16">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="L30" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>20</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K31" s="14">
+        <v>31.9</v>
+      </c>
+      <c r="L31" s="16">
+        <v>31.9</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="60">
+      <c r="B32" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>12</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="K32" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="L32" s="16">
+        <v>28.9</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="60">
+      <c r="B33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>36</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="K30" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="L30" s="16">
-        <v>20.9</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" ht="45">
-      <c r="B31" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="6">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="G31" s="4">
-        <v>40</v>
-      </c>
-      <c r="H31" s="8">
-        <v>300</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J31" s="16">
-        <v>5</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" ht="45">
-      <c r="B32" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="6">
-        <v>3</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>10000</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="K32" s="14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L32" s="16">
-        <v>7.9</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" ht="30">
-      <c r="B33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="E33" s="3">
         <v>3</v>
       </c>
       <c r="F33" s="5">
-        <v>0.5</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G33" s="4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H33" s="8">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="16">
-        <v>2</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="K33" s="14">
+        <v>2.9</v>
       </c>
       <c r="L33" s="16">
-        <v>-1</v>
+        <v>20.9</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>0</v>
@@ -2510,33 +2596,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="30">
+    <row r="34" spans="2:15" ht="45">
       <c r="B34" s="17" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="3">
-        <v>2</v>
+        <v>95</v>
+      </c>
+      <c r="E34" s="6">
+        <v>3</v>
       </c>
       <c r="F34" s="5">
         <v>0.35</v>
       </c>
       <c r="G34" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H34" s="8">
-        <v>8000</v>
+        <v>300</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="J34" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>0</v>
@@ -2545,174 +2631,170 @@
         <v>-1</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="45">
       <c r="B35" s="17" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5">
-        <v>0.15</v>
+        <v>124</v>
+      </c>
+      <c r="E35" s="6">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.3</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>0</v>
+      <c r="H35" s="8">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="J35" s="16">
-        <v>2</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="14">
+        <v>4.9000000000000004</v>
       </c>
       <c r="L35" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O35" s="8" t="s">
+        <v>7.9</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:15" ht="45">
       <c r="B36" s="17" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="E36" s="6">
+        <v>6</v>
       </c>
       <c r="F36" s="5">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="G36" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="16">
-        <v>2</v>
-      </c>
-      <c r="K36" s="14" t="s">
-        <v>0</v>
+      <c r="I36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="K36" s="14">
+        <v>38.9</v>
       </c>
       <c r="L36" s="16">
-        <v>-1</v>
+        <v>35.9</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" ht="60">
-      <c r="B37" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>94</v>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+    </row>
+    <row r="37" spans="2:15" ht="30">
+      <c r="B37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="E37" s="3">
+        <v>3</v>
       </c>
       <c r="F37" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.5</v>
       </c>
       <c r="G37" s="4">
-        <v>12</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H37" s="8">
+        <v>8000</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="J37" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="K37" s="14">
-        <v>4.5</v>
+        <v>2</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="L37" s="16">
-        <v>28.9</v>
+        <v>-1</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15" ht="45">
+        <v>75</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="30">
       <c r="B38" s="17" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" s="6">
-        <v>5</v>
+        <v>110</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2</v>
       </c>
       <c r="F38" s="5">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="G38" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H38" s="8">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="J38" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>0</v>
@@ -2721,52 +2803,931 @@
         <v>-1</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>101</v>
+        <v>75</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:15" ht="45">
       <c r="B39" s="17" t="s">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="6">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="E39" s="3">
+        <v>2</v>
       </c>
       <c r="F39" s="5">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="G39" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="K39" s="14">
-        <v>38.9</v>
+      <c r="I39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16">
+        <v>2</v>
+      </c>
+      <c r="K39" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="L39" s="16">
-        <v>35.9</v>
+        <v>-1</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="N39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" ht="45">
+      <c r="B40" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="3">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16">
+        <v>2</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="17"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:O51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="14" max="14" width="29.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15">
+      <c r="B1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="17"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="2:15" s="2" customFormat="1">
+      <c r="B5" s="17"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="17"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="17"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="17"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="17"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="17"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="17"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="17"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="17"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="17"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="17"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="17"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="17"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="17"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="17"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="17"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="17"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="17"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="17"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="17"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="17"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="17"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="17"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="17"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="17"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="17"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="17"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="17"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="27"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="17"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="17"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="3"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
@@ -2944,9 +3905,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="SLP More Psycasts" sheetId="1" r:id="rId1"/>
-    <sheet name="SLP Even More Psycasts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="140">
   <si>
     <t>N/A</t>
   </si>
@@ -476,9 +475,6 @@
     <t>Chemskip</t>
   </si>
   <si>
-    <t>Destroy a corpse turning it into Chemfuel using the followig formula. Chemfuel Amount = ((CurrentHitPoints * ((MeatAmount / 10) + (NutritionAmount * 6)) / 100 ) + 5</t>
-  </si>
-  <si>
     <t>Brickgate</t>
   </si>
   <si>
@@ -573,9 +569,6 @@
     <t>Injury Healing Factor +2000% (Heals a minimum of 13.3 Damage)</t>
   </si>
   <si>
-    <t>Psycast  Stats - Sleepy's Even More Psycasts</t>
-  </si>
-  <si>
     <t>Mech Energy +40%</t>
   </si>
   <si>
@@ -583,6 +576,15 @@
   </si>
   <si>
     <t>Energise (Biotech Only)</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Volume 1</t>
+  </si>
+  <si>
+    <t>Destroy a corpse turning it into Chemfuel using the following formula. Chemfuel Amount = ((CurrentHitPoints * ((MeatAmount / 10) + (NutritionAmount * 6)) / 100 ) + 5</t>
   </si>
 </sst>
 </file>
@@ -592,7 +594,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,6 +630,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -649,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -701,9 +710,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -728,61 +734,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="16">
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -821,15 +794,6 @@
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -848,59 +812,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:O41" totalsRowShown="0" dataDxfId="29">
-  <autoFilter ref="B3:O41">
-    <filterColumn colId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:P41" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B3:P41">
+    <filterColumn colId="1"/>
     <filterColumn colId="4"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="11"/>
+    <filterColumn colId="5"/>
+    <filterColumn colId="7"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
+    <filterColumn colId="14"/>
   </autoFilter>
-  <sortState ref="B4:O41">
+  <sortState ref="B4:P41">
     <sortCondition ref="B3:B41"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Psycast" dataDxfId="28"/>
-    <tableColumn id="14" name="Effect" dataDxfId="27"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="26"/>
-    <tableColumn id="8" name="Level" dataDxfId="25"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="24"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="23"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="22"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="21"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="20"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="19"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="18"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="17"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="16"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:O41" totalsRowShown="0" dataDxfId="14">
-  <autoFilter ref="B3:O41"/>
-  <sortState ref="B4:O41">
-    <sortCondition ref="B3:B41"/>
-  </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" name="Psycast" dataDxfId="13"/>
-    <tableColumn id="14" name="Effect" dataDxfId="12"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="11"/>
-    <tableColumn id="8" name="Level" dataDxfId="10"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="9"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="8"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="7"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="6"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="5"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="4"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="3"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="2"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="1"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="0"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="Psycast" dataDxfId="14"/>
+    <tableColumn id="4" name="Volume" dataDxfId="3"/>
+    <tableColumn id="14" name="Effect" dataDxfId="2"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="0"/>
+    <tableColumn id="8" name="Level" dataDxfId="1"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="13"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="12"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="11"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="10"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="9"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="8"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="7"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="6"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="5"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1191,1870 +1131,1997 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O51"/>
+  <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="29.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15">
+    <row r="1" spans="2:16">
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="13"/>
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="2:15">
-      <c r="E2" t="s">
+    <row r="2" spans="2:16">
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="30">
+    <row r="4" spans="2:16" ht="30">
       <c r="B4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="G4" s="7">
         <v>0.08</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
         <v>5000</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <v>0.2</v>
       </c>
-      <c r="K4" s="14">
+      <c r="L4" s="14">
         <v>14.9</v>
       </c>
-      <c r="L4" s="16">
+      <c r="M4" s="16">
         <v>24.9</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O4" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" s="2" customFormat="1" ht="30">
+      <c r="P4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" s="2" customFormat="1" ht="45">
       <c r="B5" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O5" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" ht="60">
+      <c r="P5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="90">
       <c r="B6" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="G6" s="21">
         <v>0.15</v>
       </c>
-      <c r="G6" s="23">
-        <v>0</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="24">
         <v>1</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
+      <c r="L6" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="24">
         <v>9.9</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+      <c r="O6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>0.1</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4">
         <v>0</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
         <v>2</v>
       </c>
-      <c r="K7" s="14">
+      <c r="L7" s="14">
         <v>14.9</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M7" s="16">
         <v>24.9</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="N7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O7" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="45">
+      <c r="P7" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="45">
       <c r="B8" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>0.125</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>30</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="8">
         <v>5000</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="16">
+      <c r="K8" s="16">
         <v>1.5</v>
       </c>
-      <c r="K8" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
+      <c r="L8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
         <v>-1</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O8" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" ht="60">
+      <c r="P8" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="90">
       <c r="B9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="6">
+      <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G9" s="5">
         <v>0.7</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>20</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
         <v>8</v>
       </c>
-      <c r="K9" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="L9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
         <v>14.9</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O9" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" ht="45">
+      <c r="P9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="45">
       <c r="B10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="G10" s="5">
         <v>0.09</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>30</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="8">
         <v>168</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="16">
+      <c r="K10" s="16">
         <v>0.1</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="L10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
         <v>-1</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N10" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O10" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" ht="75">
+      <c r="P10" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="75">
       <c r="B11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>4</v>
       </c>
-      <c r="F11" s="5">
+      <c r="G11" s="5">
         <v>0.65</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>50</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="I11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
         <v>5</v>
       </c>
-      <c r="K11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="L11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
         <v>-1</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="30">
+    <row r="12" spans="2:16" ht="30">
       <c r="B12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="E12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="G12" s="7">
         <v>0.3</v>
       </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
         <v>30000</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="16">
+      <c r="K12" s="16">
         <v>0.2</v>
       </c>
-      <c r="K12" s="14">
+      <c r="L12" s="14">
         <v>14.9</v>
       </c>
-      <c r="L12" s="16">
+      <c r="M12" s="16">
         <v>24.9</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="N12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O12" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" ht="30">
+      <c r="P12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="30">
       <c r="B13" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="6">
         <v>4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>0.35</v>
       </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="16">
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="L13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
         <v>-1</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="2:15" ht="60">
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="2:16" ht="60">
       <c r="B14" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="6">
+      <c r="F14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="5">
+      <c r="G14" s="5">
         <v>0.06</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>45</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="16">
+      <c r="I14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
         <v>0.25</v>
       </c>
-      <c r="K14" s="14">
+      <c r="L14" s="14">
         <v>2.5</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="16">
         <v>19.899999999999999</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O14" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" ht="45">
+      <c r="P14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="60">
       <c r="B15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="G15" s="5">
         <v>0.8</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
         <v>3</v>
       </c>
-      <c r="K15" s="14">
+      <c r="L15" s="14">
         <v>1.9</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="16">
         <v>14.9</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="N15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O15" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="45">
+      <c r="P15" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="45">
       <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="E16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="G16" s="5">
         <v>0.2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>40</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="8">
         <v>84</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="16">
+      <c r="K16" s="16">
         <v>0.5</v>
       </c>
-      <c r="K16" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="16">
+      <c r="L16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
         <v>-1</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:16">
       <c r="B17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="5">
+      <c r="G17" s="5">
         <v>0.01</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>12</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="I17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
         <v>0.1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="L17" s="14">
         <v>22.9</v>
       </c>
-      <c r="L17" s="16">
+      <c r="M17" s="16">
         <v>22.9</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="N17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O17" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" ht="45">
+      <c r="P17" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="45">
       <c r="B18" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="G18" s="5">
         <v>0.1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>240</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="16">
+      <c r="J18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="16">
         <v>0.1</v>
       </c>
-      <c r="K18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="16">
+      <c r="L18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
         <v>-1</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O18" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" ht="45">
+      <c r="P18" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="45">
       <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="3">
+      <c r="E19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="G19" s="5">
         <v>0.09</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>15</v>
       </c>
-      <c r="H19" s="8">
+      <c r="I19" s="8">
         <v>320</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="16">
+      <c r="K19" s="16">
         <v>4</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16">
+      <c r="L19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16">
         <v>-1</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O19" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" ht="30">
+      <c r="P19" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="30">
       <c r="B20" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="5">
+      <c r="G20" s="5">
         <v>0.01</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="I20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
         <v>0.5</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
+      <c r="L20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
         <v>12.9</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O20" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" ht="45">
+      <c r="P20" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="45">
       <c r="B21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="5">
+      <c r="G21" s="5">
         <v>0.12</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>15</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="8">
         <v>320</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="16">
+      <c r="K21" s="16">
         <v>4</v>
       </c>
-      <c r="K21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16">
+      <c r="L21" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16">
         <v>-1</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N21" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O21" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" ht="30">
+      <c r="P21" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="30">
       <c r="B22" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <v>4</v>
       </c>
-      <c r="F22" s="5">
+      <c r="G22" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G22" s="4">
+      <c r="H22" s="4">
         <v>16</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="I22" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
         <v>0.1</v>
       </c>
-      <c r="K22" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16">
+      <c r="L22" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
         <v>31.9</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O22" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" ht="60">
+      <c r="P22" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="60">
       <c r="B23" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5</v>
       </c>
-      <c r="F23" s="5">
+      <c r="G23" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G23" s="4">
+      <c r="H23" s="4">
         <v>60</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="8">
         <v>8</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="J23" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="8">
+      <c r="K23" s="8">
         <v>0.25</v>
       </c>
-      <c r="K23" s="14">
+      <c r="L23" s="14">
         <v>2.9</v>
       </c>
-      <c r="L23" s="16">
+      <c r="M23" s="16">
         <v>18.899999999999999</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N23" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O23" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" ht="60">
+      <c r="P23" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="60">
       <c r="B24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="5">
+      <c r="G24" s="5">
         <v>0.03</v>
       </c>
-      <c r="G24" s="4">
+      <c r="H24" s="4">
         <v>24</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="8">
         <v>20</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="8">
+      <c r="K24" s="8">
         <v>0.25</v>
       </c>
-      <c r="K24" s="14">
+      <c r="L24" s="14">
         <v>3.9</v>
       </c>
-      <c r="L24" s="16">
+      <c r="M24" s="16">
         <v>24.9</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O24" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" ht="150">
+      <c r="P24" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="150">
       <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="6">
+        <v>5</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H25" s="4">
+        <v>50</v>
+      </c>
+      <c r="I25" s="8">
+        <v>500</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25" s="16">
+        <v>3</v>
+      </c>
+      <c r="L25" s="14">
+        <v>15.9</v>
+      </c>
+      <c r="M25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E25" s="6">
-        <v>5</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G25" s="4">
-        <v>50</v>
-      </c>
-      <c r="H25" s="8">
-        <v>500</v>
-      </c>
-      <c r="I25" s="6" t="s">
+      <c r="P25" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="16">
-        <v>3</v>
-      </c>
-      <c r="K25" s="14">
-        <v>15.9</v>
-      </c>
-      <c r="L25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" ht="30">
+    </row>
+    <row r="26" spans="2:16" ht="30">
       <c r="B26" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="E26" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="6">
+      <c r="F26" s="6">
         <v>2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G26" s="5">
         <v>0.45</v>
       </c>
-      <c r="G26" s="4">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
         <v>3000</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="16">
+      <c r="K26" s="16">
         <v>2</v>
       </c>
-      <c r="K26" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16">
+      <c r="L26" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
         <v>-1</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O26" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" ht="45">
+      <c r="P26" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="45">
       <c r="B27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G27" s="5">
         <v>0.2</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="4">
         <v>70</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="I27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
         <v>2.5</v>
       </c>
-      <c r="K27" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16">
+      <c r="L27" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
         <v>14.9</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O27" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" ht="135">
+      <c r="P27" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="135">
       <c r="B28" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="6">
+      <c r="F28" s="6">
         <v>6</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G28" s="5">
         <v>0.9</v>
       </c>
-      <c r="G28" s="4">
+      <c r="H28" s="4">
         <v>150</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="I28" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
         <v>5</v>
       </c>
-      <c r="K28" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16">
+      <c r="L28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="16">
         <v>-1</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="45">
+    <row r="29" spans="2:16" ht="45">
       <c r="B29" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="E29" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" s="6">
         <v>5</v>
       </c>
-      <c r="F29" s="5">
+      <c r="G29" s="5">
         <v>0.45</v>
       </c>
-      <c r="G29" s="4">
+      <c r="H29" s="4">
         <v>50</v>
       </c>
-      <c r="H29" s="8">
+      <c r="I29" s="8">
         <v>10000</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J29" s="16">
+      <c r="K29" s="16">
         <v>5</v>
       </c>
-      <c r="K29" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16">
+      <c r="L29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
         <v>-1</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="60">
+    <row r="30" spans="2:16" ht="60">
       <c r="B30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="6">
+      <c r="F30" s="6">
         <v>4</v>
       </c>
-      <c r="F30" s="5">
+      <c r="G30" s="5">
         <v>0.15</v>
       </c>
-      <c r="G30" s="4">
+      <c r="H30" s="4">
         <v>55</v>
       </c>
-      <c r="H30" s="8">
+      <c r="I30" s="8">
         <v>45</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="J30" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J30" s="16">
+      <c r="K30" s="16">
         <v>1</v>
       </c>
-      <c r="K30" s="14">
+      <c r="L30" s="14">
         <v>15.9</v>
       </c>
-      <c r="L30" s="16">
+      <c r="M30" s="16">
         <v>24.9</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="N30" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O30" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:15">
+      <c r="P30" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="3">
+      <c r="F31" s="3">
         <v>4</v>
       </c>
-      <c r="F31" s="5">
+      <c r="G31" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G31" s="4">
+      <c r="H31" s="4">
         <v>20</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="I31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K31" s="14">
+      <c r="L31" s="14">
         <v>31.9</v>
       </c>
-      <c r="L31" s="16">
+      <c r="M31" s="16">
         <v>31.9</v>
       </c>
-      <c r="M31" s="6" t="s">
+      <c r="N31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O31" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" ht="60">
-      <c r="B32" s="27" t="s">
+      <c r="P31" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="60">
+      <c r="B32" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="6">
+      <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="F32" s="5">
+      <c r="G32" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G32" s="4">
+      <c r="H32" s="4">
         <v>12</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
+      <c r="I32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
         <v>0.25</v>
       </c>
-      <c r="K32" s="14">
+      <c r="L32" s="14">
         <v>4.5</v>
       </c>
-      <c r="L32" s="16">
+      <c r="M32" s="16">
         <v>28.9</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N32" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O32" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" ht="60">
+      <c r="P32" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" ht="60">
       <c r="B33" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3</v>
       </c>
-      <c r="F33" s="5">
+      <c r="G33" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G33" s="4">
+      <c r="H33" s="4">
         <v>36</v>
       </c>
-      <c r="H33" s="8">
+      <c r="I33" s="8">
         <v>3</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="J33" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="8">
+      <c r="K33" s="8">
         <v>0.25</v>
       </c>
-      <c r="K33" s="14">
+      <c r="L33" s="14">
         <v>2.9</v>
       </c>
-      <c r="L33" s="16">
+      <c r="M33" s="16">
         <v>20.9</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="N33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N33" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O33" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" ht="45">
+      <c r="P33" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" ht="45">
       <c r="B34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E34" s="6">
+      <c r="F34" s="6">
         <v>3</v>
       </c>
-      <c r="F34" s="5">
+      <c r="G34" s="5">
         <v>0.35</v>
       </c>
-      <c r="G34" s="4">
+      <c r="H34" s="4">
         <v>40</v>
       </c>
-      <c r="H34" s="8">
+      <c r="I34" s="8">
         <v>300</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J34" s="16">
+      <c r="K34" s="16">
         <v>5</v>
       </c>
-      <c r="K34" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L34" s="16">
+      <c r="L34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
         <v>-1</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="P34" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:15" ht="45">
+    <row r="35" spans="2:16" ht="45">
       <c r="B35" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="6">
+      <c r="E35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="6">
         <v>3</v>
       </c>
-      <c r="F35" s="7">
+      <c r="G35" s="7">
         <v>0.3</v>
       </c>
-      <c r="G35" s="4">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
+      <c r="H35" s="4">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
         <v>10000</v>
       </c>
-      <c r="I35" s="6" t="s">
+      <c r="J35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="J35" s="16">
+      <c r="K35" s="16">
         <v>0.2</v>
       </c>
-      <c r="K35" s="14">
+      <c r="L35" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L35" s="16">
+      <c r="M35" s="16">
         <v>7.9</v>
       </c>
-      <c r="M35" s="6" t="s">
+      <c r="N35" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="O35" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" ht="45">
+      <c r="P35" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="45">
       <c r="B36" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="6">
+      <c r="F36" s="6">
         <v>6</v>
       </c>
-      <c r="F36" s="5">
+      <c r="G36" s="5">
         <v>0.06</v>
       </c>
-      <c r="G36" s="4">
+      <c r="H36" s="4">
         <v>40</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
+      <c r="I36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
         <v>0.05</v>
       </c>
-      <c r="K36" s="14">
+      <c r="L36" s="14">
         <v>38.9</v>
       </c>
-      <c r="L36" s="16">
+      <c r="M36" s="16">
         <v>35.9</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="N36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N36" s="6"/>
       <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="2:15" ht="30">
+      <c r="P36" s="6"/>
+    </row>
+    <row r="37" spans="2:16" ht="30">
       <c r="B37" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="3">
+      <c r="F37" s="3">
         <v>3</v>
       </c>
-      <c r="F37" s="5">
+      <c r="G37" s="5">
         <v>0.5</v>
       </c>
-      <c r="G37" s="4">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
+      <c r="H37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
         <v>8000</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="J37" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J37" s="16">
+      <c r="K37" s="16">
         <v>2</v>
       </c>
-      <c r="K37" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L37" s="16">
+      <c r="L37" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
         <v>-1</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O37" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" ht="30">
+      <c r="P37" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="30">
       <c r="B38" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="3">
+      <c r="F38" s="3">
         <v>2</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <v>0.35</v>
       </c>
-      <c r="G38" s="4">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8">
         <v>8000</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="J38" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J38" s="16">
+      <c r="K38" s="16">
         <v>2</v>
       </c>
-      <c r="K38" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="16">
+      <c r="L38" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="16">
         <v>-1</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="N38" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N38" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O38" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" ht="45">
+      <c r="P38" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="45">
       <c r="B39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F39" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="5">
+      <c r="G39" s="5">
         <v>0.15</v>
       </c>
-      <c r="G39" s="4">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8" t="s">
+      <c r="H39" s="4">
         <v>0</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
         <v>2</v>
       </c>
-      <c r="K39" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="16">
+      <c r="L39" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
         <v>-1</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N39" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O39" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" ht="45">
+      <c r="P39" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" ht="45">
       <c r="B40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>2</v>
       </c>
-      <c r="F40" s="5">
+      <c r="G40" s="5">
         <v>0.35</v>
       </c>
-      <c r="G40" s="4">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="4">
         <v>0</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
         <v>2</v>
       </c>
-      <c r="K40" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="16">
+      <c r="L40" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
         <v>-1</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="8" t="s">
-        <v>0</v>
-      </c>
       <c r="O40" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="P40" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41" s="17"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="6"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="16"/>
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="P41" s="6"/>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="12"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="2:15">
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="5"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="2:15">
+      <c r="N43" s="6"/>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="5"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="2:15">
+      <c r="N44" s="6"/>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="5"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="5"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="2:15">
+      <c r="N45" s="6"/>
+    </row>
+    <row r="46" spans="2:16">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="5"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="5"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="2:15">
+      <c r="N46" s="6"/>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="5"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="2:15">
+      <c r="N47" s="6"/>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="5"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="2:13">
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="5"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="2:13">
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="2:14">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="5"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="5"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="2:13">
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="2:14">
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="12"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="10"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="12"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3063,850 +3130,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:O51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
-    <col min="14" max="14" width="29.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="17"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="2:15" s="2" customFormat="1">
-      <c r="B5" s="17"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="17"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="17"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="17"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="2:15">
-      <c r="B9" s="17"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="2:15">
-      <c r="B10" s="17"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="2:15">
-      <c r="B12" s="17"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="17"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="17"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="17"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="17"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="17"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="17"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="17"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="B21" s="17"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" s="17"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" s="17"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="17"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="B25" s="17"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" s="17"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" s="17"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-    </row>
-    <row r="29" spans="2:15">
-      <c r="B29" s="17"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" s="17"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" s="17"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" s="17"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="17"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="17"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="17"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="17"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="27"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="17"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="17"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -746,18 +746,6 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -794,6 +782,18 @@
       <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -827,20 +827,20 @@
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Psycast" dataDxfId="14"/>
-    <tableColumn id="4" name="Volume" dataDxfId="3"/>
-    <tableColumn id="14" name="Effect" dataDxfId="2"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="0"/>
-    <tableColumn id="8" name="Level" dataDxfId="1"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="13"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="12"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="11"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="10"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="9"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="8"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="7"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="6"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="5"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="4"/>
+    <tableColumn id="4" name="Volume" dataDxfId="13"/>
+    <tableColumn id="14" name="Effect" dataDxfId="12"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="11"/>
+    <tableColumn id="8" name="Level" dataDxfId="10"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="9"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="8"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="7"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="6"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="5"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="4"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="3"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="2"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="1"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <v>31.9</v>
+        <v>32.9</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>68</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="183">
   <si>
     <t>N/A</t>
   </si>
@@ -615,22 +615,13 @@
     <t>Volume 3</t>
   </si>
   <si>
-    <t>Learning +25%</t>
-  </si>
-  <si>
     <t>Targets Animals</t>
   </si>
   <si>
     <t>Force Job Driver of Target Pawn to 'Flee And Cower'</t>
   </si>
   <si>
-    <t>Beauty +4.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Max Manipution x0 </t>
-  </si>
-  <si>
-    <t>2.0 Days</t>
   </si>
   <si>
     <t>Spawn Firefoam at Target Location within Effect Range</t>
@@ -722,6 +713,16 @@
   </si>
   <si>
     <t>Create a flame explosion at target location. Spawn Fire 'fuel' to maintain blaze for short time.</t>
+  </si>
+  <si>
+    <t>Targets Pawns</t>
+  </si>
+  <si>
+    <t>Learning +25%
+Learning Rate Factor +25%</t>
+  </si>
+  <si>
+    <t>Beauty +6.0 (Has no effect above 2 but this negates existing negatives)</t>
   </si>
 </sst>
 </file>
@@ -923,9 +924,6 @@
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -971,14 +969,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1011,6 +1002,16 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1091,52 +1092,52 @@
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
   </autoFilter>
-  <sortState ref="B4:P41">
-    <sortCondition ref="B3:B41"/>
+  <sortState ref="B4:P60">
+    <sortCondition ref="C3:C60"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Psycast" dataDxfId="30"/>
     <tableColumn id="4" name="Volume" dataDxfId="29"/>
     <tableColumn id="14" name="Effect" dataDxfId="28"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="17"/>
-    <tableColumn id="8" name="Level" dataDxfId="18"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="16"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="27"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="26"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="25"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="24"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="23"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="22"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="21"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="20"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="19"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="27"/>
+    <tableColumn id="8" name="Level" dataDxfId="26"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="25"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="24"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="23"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="22"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="21"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="20"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="19"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="18"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="17"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:P51" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:P51" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="B3:P51"/>
   <sortState ref="B4:P41">
     <sortCondition ref="B3:B41"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Psycast" dataDxfId="15"/>
-    <tableColumn id="4" name="Volume" dataDxfId="14"/>
-    <tableColumn id="14" name="Effect" dataDxfId="13"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="12"/>
-    <tableColumn id="8" name="Level" dataDxfId="11"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="10"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="9"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="8"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="7"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="6"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="5"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="4"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="3"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="2"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="1"/>
+    <tableColumn id="1" name="Psycast" dataDxfId="14"/>
+    <tableColumn id="4" name="Volume" dataDxfId="13"/>
+    <tableColumn id="14" name="Effect" dataDxfId="12"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="11"/>
+    <tableColumn id="8" name="Level" dataDxfId="10"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="9"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="8"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="7"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="6"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="5"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="4"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="3"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="2"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="1"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1429,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1521,7 +1522,7 @@
         <v>31</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="30">
@@ -3257,16 +3258,16 @@
     </row>
     <row r="41" spans="2:16" ht="30">
       <c r="B41" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3277,11 +3278,11 @@
       <c r="H41" s="4">
         <v>15</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>0</v>
+      <c r="I41" s="8">
+        <v>500</v>
       </c>
       <c r="J41" s="8" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="K41" s="16">
         <v>1</v>
@@ -3293,7 +3294,7 @@
         <v>39.9</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O41" s="8" t="s">
         <v>0</v>
@@ -3303,41 +3304,41 @@
       </c>
     </row>
     <row r="42" spans="2:16" ht="30">
-      <c r="B42" s="29" t="s">
-        <v>140</v>
+      <c r="B42" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>149</v>
+      <c r="D42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F42" s="6">
-        <v>2</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="31">
-        <v>3000</v>
+        <v>4</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H42" s="4">
+        <v>30</v>
+      </c>
+      <c r="I42" s="8">
+        <v>15</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42" s="32">
-        <v>2</v>
+        <v>84</v>
+      </c>
+      <c r="K42" s="16">
+        <v>0.5</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="32">
-        <v>-1</v>
+      <c r="M42" s="16">
+        <v>30.9</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>75</v>
@@ -3351,43 +3352,43 @@
     </row>
     <row r="43" spans="2:16" ht="45">
       <c r="B43" s="17" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>23</v>
+      <c r="D43" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="F43" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H43" s="4">
-        <v>20</v>
-      </c>
-      <c r="I43" s="8">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <v>5000</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0.25</v>
+        <v>15</v>
+      </c>
+      <c r="K43" s="16">
+        <v>1</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="16">
-        <v>25.9</v>
+      <c r="M43" s="32">
+        <v>-1</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>0</v>
@@ -3407,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F44" s="6">
         <v>4</v>
@@ -3425,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L44" s="14">
         <v>4.9000000000000004</v>
       </c>
       <c r="M44" s="16">
-        <v>28.9</v>
+        <v>24.9</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>16</v>
@@ -3443,45 +3444,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="30">
+    <row r="45" spans="2:16" ht="45">
       <c r="B45" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="5">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H45" s="4">
-        <v>30</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="I45" s="8">
+        <v>8</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <v>1</v>
-      </c>
-      <c r="L45" s="14">
-        <v>3.5</v>
+        <v>82</v>
+      </c>
+      <c r="K45" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M45" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>16</v>
+        <v>25.9</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>0</v>
@@ -3492,13 +3493,13 @@
     </row>
     <row r="46" spans="2:16" ht="30">
       <c r="B46" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>153</v>
@@ -3507,28 +3508,28 @@
         <v>4</v>
       </c>
       <c r="G46" s="5">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="H46" s="4">
         <v>30</v>
       </c>
-      <c r="I46" s="8">
-        <v>15</v>
+      <c r="I46" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="K46" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L46" s="14">
+        <v>3.5</v>
       </c>
       <c r="M46" s="16">
-        <v>30.9</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>75</v>
+        <v>24.9</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3538,8 +3539,8 @@
       </c>
     </row>
     <row r="47" spans="2:16" ht="30">
-      <c r="B47" s="17" t="s">
-        <v>145</v>
+      <c r="B47" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>147</v>
@@ -3547,26 +3548,26 @@
       <c r="D47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>152</v>
+      <c r="E47" s="30" t="s">
+        <v>181</v>
       </c>
       <c r="F47" s="6">
-        <v>5</v>
-      </c>
-      <c r="G47" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="H47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H47" s="11">
         <v>0</v>
       </c>
       <c r="I47" s="31">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47" s="16">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="K47" s="32">
+        <v>2</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>0</v>
@@ -3575,7 +3576,7 @@
         <v>-1</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>0</v>
@@ -3595,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F48" s="6">
         <v>6</v>
@@ -3610,7 +3611,7 @@
         <v>4000</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K48" s="16">
         <v>1</v>
@@ -3633,7 +3634,7 @@
     </row>
     <row r="49" spans="2:16" ht="45">
       <c r="B49" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>148</v>
@@ -3641,32 +3642,32 @@
       <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="36" t="s">
+      <c r="E49" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="H49" s="4">
-        <v>25</v>
-      </c>
-      <c r="I49" s="31">
-        <v>240</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K49" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="32">
-        <v>35.9</v>
+        <v>30</v>
+      </c>
+      <c r="I49" s="8">
+        <v>180</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <v>-1</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>26</v>
@@ -3678,45 +3679,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="45">
+    <row r="50" spans="2:16" ht="60">
       <c r="B50" s="17" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
+      <c r="D50" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F50" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G50" s="5">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H50" s="4">
-        <v>30</v>
-      </c>
-      <c r="I50" s="8">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L50" s="14">
+        <v>5.9</v>
       </c>
       <c r="M50" s="16">
-        <v>-1</v>
+        <v>24.9</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>0</v>
@@ -3726,41 +3727,41 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="30">
-      <c r="B51" s="29" t="s">
-        <v>164</v>
+      <c r="B51" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>173</v>
+      <c r="D51" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="F51" s="6">
-        <v>3</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H51" s="11">
-        <v>30</v>
-      </c>
-      <c r="I51" s="31">
-        <v>240</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K51" s="32">
-        <v>1</v>
-      </c>
-      <c r="L51" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="32">
-        <v>45.9</v>
+        <v>4</v>
+      </c>
+      <c r="G51" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>40</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16">
+        <v>24.9</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>68</v>
@@ -3772,45 +3773,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="30">
+    <row r="52" spans="2:16" ht="45">
       <c r="B52" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>179</v>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="F52" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H52" s="4">
-        <v>30</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K52" s="16">
+        <v>25</v>
+      </c>
+      <c r="I52" s="31">
+        <v>240</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" s="32">
         <v>0.5</v>
       </c>
-      <c r="L52" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="16">
-        <v>19.899999999999999</v>
+      <c r="L52" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="32">
+        <v>35.9</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>0</v>
@@ -3820,41 +3821,41 @@
       </c>
     </row>
     <row r="53" spans="2:16" ht="30">
-      <c r="B53" s="17" t="s">
-        <v>166</v>
+      <c r="B53" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>180</v>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="F53" s="6">
-        <v>4</v>
-      </c>
-      <c r="G53" s="5">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H53" s="4">
-        <v>40</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K53" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="16">
-        <v>24.9</v>
+        <v>3</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H53" s="11">
+        <v>30</v>
+      </c>
+      <c r="I53" s="31">
+        <v>240</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K53" s="32">
+        <v>1</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>45.9</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>68</v>
@@ -3868,7 +3869,7 @@
     </row>
     <row r="54" spans="2:16" ht="45">
       <c r="B54" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -3877,7 +3878,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F54" s="6">
         <v>4</v>
@@ -3892,7 +3893,7 @@
         <v>240</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K54" s="32">
         <v>0.5</v>
@@ -3913,45 +3914,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="30">
+    <row r="55" spans="2:16" ht="45">
       <c r="B55" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>171</v>
+      <c r="D55" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F55" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G55" s="5">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="H55" s="4">
-        <v>40</v>
-      </c>
-      <c r="I55" s="8">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="K55" s="16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>68</v>
+        <v>29.9</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>0</v>
@@ -3960,45 +3961,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="60">
+    <row r="56" spans="2:16" ht="30">
       <c r="B56" s="17" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F56" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G56" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H56" s="4">
-        <v>65</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I56" s="8">
+        <v>21</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="K56" s="16">
-        <v>1</v>
-      </c>
-      <c r="L56" s="14">
-        <v>5.9</v>
+        <v>0.1</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M56" s="16">
-        <v>24.9</v>
+        <v>-1</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>0</v>
@@ -4007,27 +4008,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="45">
+    <row r="57" spans="2:16" ht="30">
       <c r="B57" s="17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>104</v>
+      <c r="D57" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F57" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G57" s="5">
-        <v>0.85</v>
+        <v>0.05</v>
       </c>
       <c r="H57" s="4">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I57" s="8" t="s">
         <v>0</v>
@@ -4036,16 +4037,16 @@
         <v>0</v>
       </c>
       <c r="K57" s="16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L57" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M57" s="16">
-        <v>29.9</v>
-      </c>
-      <c r="N57" s="6" t="s">
-        <v>16</v>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>0</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3444,45 +3444,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="45">
+    <row r="45" spans="2:16" ht="30">
       <c r="B45" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F45" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H45" s="4">
-        <v>20</v>
-      </c>
-      <c r="I45" s="8">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>1</v>
+      </c>
+      <c r="L45" s="14">
+        <v>3.5</v>
       </c>
       <c r="M45" s="16">
-        <v>25.9</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>26</v>
+        <v>29.9</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>0</v>
@@ -3492,44 +3492,44 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="30">
-      <c r="B46" s="17" t="s">
-        <v>143</v>
+      <c r="B46" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>153</v>
+      <c r="D46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>181</v>
       </c>
       <c r="F46" s="6">
-        <v>4</v>
-      </c>
-      <c r="G46" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="H46" s="4">
-        <v>30</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="31">
+        <v>3000</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <v>1</v>
-      </c>
-      <c r="L46" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="M46" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>16</v>
+        <v>77</v>
+      </c>
+      <c r="K46" s="32">
+        <v>2</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3538,45 +3538,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="30">
-      <c r="B47" s="29" t="s">
-        <v>140</v>
+    <row r="47" spans="2:16" ht="45">
+      <c r="B47" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>181</v>
+      <c r="E47" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="F47" s="6">
-        <v>2</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="31">
-        <v>3000</v>
+        <v>6</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="4">
+        <v>60</v>
+      </c>
+      <c r="I47" s="8">
+        <v>4000</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K47" s="32">
-        <v>2</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M47" s="32">
-        <v>-1</v>
+        <v>154</v>
+      </c>
+      <c r="K47" s="16">
+        <v>1</v>
+      </c>
+      <c r="L47" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="M47" s="16">
+        <v>15.9</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>0</v>
@@ -3587,40 +3587,40 @@
     </row>
     <row r="48" spans="2:16" ht="45">
       <c r="B48" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F48" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G48" s="5">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="H48" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I48" s="8">
-        <v>4000</v>
+        <v>180</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="K48" s="16">
-        <v>1</v>
-      </c>
-      <c r="L48" s="14">
-        <v>5.9</v>
+        <v>1.5</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M48" s="16">
-        <v>15.9</v>
+        <v>-1</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>26</v>
@@ -3632,45 +3632,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="45">
+    <row r="49" spans="2:16" ht="60">
       <c r="B49" s="17" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>18</v>
+      <c r="D49" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F49" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49" s="5">
-        <v>0.2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H49" s="4">
-        <v>30</v>
-      </c>
-      <c r="I49" s="8">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="K49" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L49" s="14">
+        <v>5.9</v>
       </c>
       <c r="M49" s="16">
-        <v>-1</v>
+        <v>24.9</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>0</v>
@@ -3679,9 +3679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="60">
+    <row r="50" spans="2:16" ht="30">
       <c r="B50" s="17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>148</v>
@@ -3690,16 +3690,16 @@
         <v>94</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F50" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G50" s="5">
-        <v>0.14000000000000001</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>1</v>
-      </c>
-      <c r="L50" s="14">
-        <v>5.9</v>
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M50" s="16">
         <v>24.9</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>0</v>
@@ -3726,45 +3726,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="30">
+    <row r="51" spans="2:16" ht="45">
       <c r="B51" s="17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>177</v>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="F51" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H51" s="4">
-        <v>40</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K51" s="16">
+        <v>25</v>
+      </c>
+      <c r="I51" s="31">
+        <v>240</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="K51" s="32">
         <v>0.5</v>
       </c>
-      <c r="L51" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="16">
-        <v>24.9</v>
+      <c r="L51" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="32">
+        <v>35.9</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>0</v>
@@ -3773,9 +3773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="45">
-      <c r="B52" s="17" t="s">
-        <v>159</v>
+    <row r="52" spans="2:16" ht="30">
+      <c r="B52" s="29" t="s">
+        <v>161</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -3783,17 +3783,17 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="36" t="s">
-        <v>169</v>
+      <c r="E52" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H52" s="4">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H52" s="11">
+        <v>30</v>
       </c>
       <c r="I52" s="31">
         <v>240</v>
@@ -3802,16 +3802,16 @@
         <v>173</v>
       </c>
       <c r="K52" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L52" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M52" s="32">
-        <v>35.9</v>
+        <v>45.9</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>0</v>
@@ -3820,9 +3820,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="30">
-      <c r="B53" s="29" t="s">
-        <v>161</v>
+    <row r="53" spans="2:16" ht="45">
+      <c r="B53" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
@@ -3830,17 +3830,17 @@
       <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="37" t="s">
-        <v>170</v>
+      <c r="E53" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="F53" s="6">
-        <v>3</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H53" s="11">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H53" s="4">
+        <v>55</v>
       </c>
       <c r="I53" s="31">
         <v>240</v>
@@ -3849,16 +3849,16 @@
         <v>173</v>
       </c>
       <c r="K53" s="32">
-        <v>1</v>
-      </c>
-      <c r="L53" s="33" t="s">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="33">
+        <v>3.9</v>
       </c>
       <c r="M53" s="32">
-        <v>45.9</v>
+        <v>30.9</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>0</v>
@@ -3869,43 +3869,43 @@
     </row>
     <row r="54" spans="2:16" ht="45">
       <c r="B54" s="17" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>169</v>
+        <v>104</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="F54" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G54" s="5">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="H54" s="4">
-        <v>55</v>
-      </c>
-      <c r="I54" s="31">
-        <v>240</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K54" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L54" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="M54" s="32">
-        <v>30.9</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16">
+        <v>1</v>
+      </c>
+      <c r="L54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="16">
+        <v>29.9</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>0</v>
@@ -3914,45 +3914,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="45">
+    <row r="55" spans="2:16" ht="30">
       <c r="B55" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
+      <c r="D55" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F55" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55" s="5">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="H55" s="4">
-        <v>75</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I55" s="8">
+        <v>21</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="K55" s="16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <v>29.9</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>0</v>
@@ -3963,40 +3963,40 @@
     </row>
     <row r="56" spans="2:16" ht="30">
       <c r="B56" s="17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>168</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F56" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G56" s="5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H56" s="4">
-        <v>40</v>
-      </c>
-      <c r="I56" s="8">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="K56" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M56" s="16">
-        <v>-1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>68</v>
@@ -4008,46 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="30">
-      <c r="B57" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="6">
-        <v>3</v>
-      </c>
-      <c r="G57" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H57" s="4">
-        <v>30</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K57" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="16">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>68</v>
-      </c>
+    <row r="57" spans="2:16">
       <c r="O57" s="8" t="s">
         <v>0</v>
       </c>
@@ -4240,7 +4201,7 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4331,20 +4292,46 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="17"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="6"/>
+    <row r="4" spans="2:16" ht="45">
+      <c r="B4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8">
+        <v>8</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="16">
+        <v>25.9</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -621,9 +621,6 @@
     <t>Force Job Driver of Target Pawn to 'Flee And Cower'</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Manipution x0 </t>
-  </si>
-  <si>
     <t>Spawn Firefoam at Target Location within Effect Range</t>
   </si>
   <si>
@@ -723,6 +720,9 @@
   </si>
   <si>
     <t>Beauty +6.0 (Has no effect above 2 but this negates existing negatives)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Manipution x0.01 </t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:N50"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1522,7 +1522,7 @@
         <v>31</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="30">
@@ -3258,16 +3258,16 @@
     </row>
     <row r="41" spans="2:16" ht="30">
       <c r="B41" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3314,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="F42" s="6">
         <v>4</v>
@@ -3361,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F43" s="6">
         <v>5</v>
@@ -3408,7 +3408,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F44" s="6">
         <v>4</v>
@@ -3455,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F45" s="6">
         <v>4</v>
@@ -3502,7 +3502,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F46" s="6">
         <v>2</v>
@@ -3529,7 +3529,7 @@
         <v>-1</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>18</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F47" s="6">
         <v>6</v>
@@ -3564,7 +3564,7 @@
         <v>4000</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K47" s="16">
         <v>1</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="48" spans="2:16" ht="45">
       <c r="B48" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C48" s="35" t="s">
         <v>148</v>
@@ -3596,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
@@ -3634,7 +3634,7 @@
     </row>
     <row r="49" spans="2:16" ht="60">
       <c r="B49" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>148</v>
@@ -3643,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F49" s="6">
         <v>6</v>
@@ -3679,45 +3679,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="30">
+    <row r="50" spans="2:16" ht="45">
       <c r="B50" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>177</v>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F50" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H50" s="4">
-        <v>40</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
+        <v>25</v>
+      </c>
+      <c r="I50" s="31">
+        <v>240</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" s="32">
         <v>0.5</v>
       </c>
-      <c r="L50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="16">
-        <v>24.9</v>
+      <c r="L50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="32">
+        <v>35.9</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>0</v>
@@ -3726,9 +3726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="45">
-      <c r="B51" s="17" t="s">
-        <v>159</v>
+    <row r="51" spans="2:16" ht="30">
+      <c r="B51" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>148</v>
@@ -3736,35 +3736,35 @@
       <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="37" t="s">
         <v>169</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H51" s="4">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H51" s="11">
+        <v>30</v>
       </c>
       <c r="I51" s="31">
         <v>240</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K51" s="32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L51" s="33" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="32">
-        <v>35.9</v>
+        <v>45.9</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>0</v>
@@ -3773,9 +3773,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="30">
-      <c r="B52" s="29" t="s">
-        <v>161</v>
+    <row r="52" spans="2:16" ht="45">
+      <c r="B52" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -3783,35 +3783,35 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="37" t="s">
-        <v>170</v>
+      <c r="E52" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F52" s="6">
-        <v>3</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H52" s="11">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H52" s="4">
+        <v>55</v>
       </c>
       <c r="I52" s="31">
         <v>240</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K52" s="32">
-        <v>1</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="L52" s="33">
+        <v>3.9</v>
       </c>
       <c r="M52" s="32">
-        <v>45.9</v>
+        <v>30.9</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>0</v>
@@ -3822,43 +3822,43 @@
     </row>
     <row r="53" spans="2:16" ht="45">
       <c r="B53" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>169</v>
+        <v>104</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="F53" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G53" s="5">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="H53" s="4">
-        <v>55</v>
-      </c>
-      <c r="I53" s="31">
-        <v>240</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K53" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L53" s="33">
-        <v>3.9</v>
-      </c>
-      <c r="M53" s="32">
-        <v>30.9</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>1</v>
+      </c>
+      <c r="L53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>29.9</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>0</v>
@@ -3867,45 +3867,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="45">
+    <row r="54" spans="2:16" ht="30">
       <c r="B54" s="17" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>104</v>
+      <c r="D54" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="6">
+        <v>5</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>40</v>
+      </c>
+      <c r="I54" s="8">
+        <v>21</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F54" s="6">
-        <v>6</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="H54" s="4">
-        <v>75</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="K54" s="16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <v>29.9</v>
-      </c>
-      <c r="N54" s="6" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>0</v>
@@ -3914,46 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="30">
-      <c r="B55" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F55" s="6">
-        <v>5</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H55" s="4">
-        <v>40</v>
-      </c>
-      <c r="I55" s="8">
-        <v>21</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="K55" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>68</v>
-      </c>
+    <row r="55" spans="2:16">
       <c r="O55" s="8" t="s">
         <v>0</v>
       </c>
@@ -3961,46 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="30">
-      <c r="B56" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="6">
-        <v>3</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H56" s="4">
-        <v>30</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L56" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="16">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>68</v>
-      </c>
+    <row r="56" spans="2:16">
       <c r="O56" s="8" t="s">
         <v>0</v>
       </c>
@@ -4201,7 +4123,7 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4335,36 +4257,89 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="2:16" s="2" customFormat="1">
-      <c r="B5" s="17"/>
-      <c r="C5" s="27"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="3"/>
+    <row r="5" spans="2:16" s="2" customFormat="1" ht="30">
+      <c r="B5" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>40</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="17"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="3"/>
+    <row r="6" spans="2:16" ht="30">
+      <c r="B6" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="O6" s="20"/>
       <c r="P6" s="6"/>
     </row>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -695,9 +695,6 @@
     <t xml:space="preserve">Spawns a 4 meteorites at target location. Meteorites will only be stone and never resources. </t>
   </si>
   <si>
-    <t>0.5 Hours</t>
-  </si>
-  <si>
     <t xml:space="preserve">Projectile cannot be intecepted. 
 BaseBullet 12 Damage, AP 25%, </t>
   </si>
@@ -722,7 +719,10 @@
     <t>Beauty +6.0 (Has no effect above 2 but this negates existing negatives)</t>
   </si>
   <si>
-    <t xml:space="preserve">Max Manipution x0.01 </t>
+    <t xml:space="preserve">Max Manipution x0 </t>
+  </si>
+  <si>
+    <t>1.0 Hour</t>
   </si>
 </sst>
 </file>
@@ -1430,8 +1430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3314,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="6">
         <v>4</v>
@@ -3361,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="6">
         <v>5</v>
@@ -3502,7 +3502,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F46" s="6">
         <v>2</v>
@@ -3529,7 +3529,7 @@
         <v>-1</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F49" s="6">
         <v>6</v>
@@ -3878,7 +3878,7 @@
         <v>167</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F54" s="6">
         <v>5</v>
@@ -3890,10 +3890,10 @@
         <v>40</v>
       </c>
       <c r="I54" s="8">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K54" s="16">
         <v>0.1</v>
@@ -4268,7 +4268,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
@@ -4311,7 +4311,7 @@
         <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="183">
   <si>
     <t>N/A</t>
   </si>
@@ -702,10 +702,6 @@
     <t xml:space="preserve">BaseBullet 18 Damage, AP 50%, </t>
   </si>
   <si>
-    <t>Max Consciousness x1% 
-BaseBlunt 10 Damage</t>
-  </si>
-  <si>
     <t>Create a flame explosion at target location. Spawn Fire 'fuel' to maintain blaze for short time.</t>
   </si>
   <si>
@@ -722,7 +718,11 @@
     <t xml:space="preserve">Max Manipution x0 </t>
   </si>
   <si>
-    <t>1.0 Hour</t>
+    <t>0.5 Hours</t>
+  </si>
+  <si>
+    <t>Max Consciousness x1% 
+Deals 10 Blunt Damage 33%AP</t>
   </si>
 </sst>
 </file>
@@ -1430,19 +1430,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
@@ -3314,7 +3314,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="6">
         <v>4</v>
@@ -3361,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F43" s="6">
         <v>5</v>
@@ -3502,7 +3502,7 @@
         <v>18</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F46" s="6">
         <v>2</v>
@@ -3529,7 +3529,7 @@
         <v>-1</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="14">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="M47" s="16">
         <v>15.9</v>
@@ -3643,7 +3643,7 @@
         <v>94</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F49" s="6">
         <v>6</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="14">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="M49" s="16">
         <v>24.9</v>
@@ -3805,7 +3805,7 @@
         <v>0.5</v>
       </c>
       <c r="L52" s="33">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="M52" s="32">
         <v>30.9</v>
@@ -3820,45 +3820,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="45">
+    <row r="53" spans="2:16" ht="30">
       <c r="B53" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>104</v>
+      <c r="D53" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="F53" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G53" s="5">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="H53" s="4">
-        <v>75</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I53" s="8">
+        <v>25</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="K53" s="16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L53" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M53" s="16">
-        <v>29.9</v>
-      </c>
-      <c r="N53" s="6" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>0</v>
@@ -3869,40 +3869,40 @@
     </row>
     <row r="54" spans="2:16" ht="30">
       <c r="B54" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F54" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G54" s="5">
-        <v>0.1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H54" s="4">
         <v>40</v>
       </c>
-      <c r="I54" s="8">
-        <v>42</v>
+      <c r="I54" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="K54" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <v>-1</v>
+        <v>24.9</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>68</v>
@@ -4123,7 +4123,7 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4343,20 +4343,46 @@
       <c r="O6" s="20"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="17"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="6"/>
+    <row r="7" spans="2:16" ht="45">
+      <c r="B7" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="4">
+        <v>75</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>1</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>29.9</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -1431,7 +1431,7 @@
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>0</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="186">
   <si>
     <t>N/A</t>
   </si>
@@ -723,6 +723,85 @@
   <si>
     <t>Max Consciousness x1% 
 Deals 10 Blunt Damage 33%AP</t>
+  </si>
+  <si>
+    <t>Resonance</t>
+  </si>
+  <si>
+    <t>1.5 Days</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Psychic Sensitivity +90%
+MeditationFocusGain +0.10
+Psychic Entropy Recovery Rate +0.06/sec
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Caster:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PsychicSensitivity -90%
+MeditationFocusGain -0.40</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Psychic Entropy Recovery Rate
+ -0.50/sec </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -803,7 +882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -912,11 +991,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -998,17 +1092,6 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1100,44 +1183,44 @@
     <tableColumn id="4" name="Volume" dataDxfId="29"/>
     <tableColumn id="14" name="Effect" dataDxfId="28"/>
     <tableColumn id="13" name="Effect Specifics" dataDxfId="27"/>
-    <tableColumn id="8" name="Level" dataDxfId="26"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="25"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="24"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="23"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="22"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="21"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="20"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="19"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="18"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="17"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="16"/>
+    <tableColumn id="8" name="Level" dataDxfId="2"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="0"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="1"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="26"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="25"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="24"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="23"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="22"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="21"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="20"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:P51" totalsRowShown="0" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:P51" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="B3:P51"/>
   <sortState ref="B4:P41">
     <sortCondition ref="B3:B41"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Psycast" dataDxfId="14"/>
-    <tableColumn id="4" name="Volume" dataDxfId="13"/>
-    <tableColumn id="14" name="Effect" dataDxfId="12"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="11"/>
-    <tableColumn id="8" name="Level" dataDxfId="10"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="9"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="8"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="7"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="6"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="5"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="4"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="3"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="2"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="1"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="0"/>
+    <tableColumn id="1" name="Psycast" dataDxfId="17"/>
+    <tableColumn id="4" name="Volume" dataDxfId="16"/>
+    <tableColumn id="14" name="Effect" dataDxfId="15"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="14"/>
+    <tableColumn id="8" name="Level" dataDxfId="13"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="12"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="11"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="10"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="9"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="8"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="7"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="6"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="5"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="4"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1430,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3585,36 +3668,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="45">
-      <c r="B48" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>148</v>
+    <row r="48" spans="2:16" ht="150">
+      <c r="B48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F48" s="6">
-        <v>2</v>
+        <v>185</v>
+      </c>
+      <c r="F48" s="2">
+        <v>3</v>
       </c>
       <c r="G48" s="5">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="H48" s="4">
-        <v>30</v>
-      </c>
-      <c r="I48" s="8">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1500</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48" s="16">
-        <v>1.5</v>
+        <v>184</v>
+      </c>
+      <c r="K48" s="38">
+        <v>1</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>0</v>
@@ -3623,7 +3706,7 @@
         <v>-1</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>0</v>
@@ -3632,45 +3715,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="60">
+    <row r="49" spans="2:16" ht="45">
       <c r="B49" s="17" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>94</v>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F49" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G49" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H49" s="4">
-        <v>65</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I49" s="8">
+        <v>180</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K49" s="16">
-        <v>1</v>
-      </c>
-      <c r="L49" s="14">
-        <v>4.5</v>
+        <v>1.5</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M49" s="16">
-        <v>24.9</v>
+        <v>-1</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>0</v>
@@ -3679,45 +3762,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="45">
+    <row r="50" spans="2:16" ht="60">
       <c r="B50" s="17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="36" t="s">
-        <v>168</v>
+      <c r="D50" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="F50" s="6">
+        <v>6</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H50" s="4">
+        <v>65</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
         <v>1</v>
       </c>
-      <c r="G50" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H50" s="4">
-        <v>25</v>
-      </c>
-      <c r="I50" s="31">
-        <v>240</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K50" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L50" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="32">
-        <v>35.9</v>
+      <c r="L50" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="M50" s="16">
+        <v>24.9</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>0</v>
@@ -3727,41 +3810,41 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="30">
-      <c r="B51" s="29" t="s">
-        <v>160</v>
+      <c r="B51" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>169</v>
+      <c r="D51" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="F51" s="6">
-        <v>3</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H51" s="11">
-        <v>30</v>
-      </c>
-      <c r="I51" s="31">
-        <v>240</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K51" s="32">
-        <v>1</v>
-      </c>
-      <c r="L51" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M51" s="32">
-        <v>45.9</v>
+        <v>4</v>
+      </c>
+      <c r="G51" s="5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>40</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="16">
+        <v>24.9</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>68</v>
@@ -3775,7 +3858,7 @@
     </row>
     <row r="52" spans="2:16" ht="45">
       <c r="B52" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -3787,13 +3870,13 @@
         <v>168</v>
       </c>
       <c r="F52" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="5">
-        <v>0.25</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H52" s="4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I52" s="31">
         <v>240</v>
@@ -3804,11 +3887,11 @@
       <c r="K52" s="32">
         <v>0.5</v>
       </c>
-      <c r="L52" s="33">
-        <v>2.5</v>
+      <c r="L52" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="M52" s="32">
-        <v>30.9</v>
+        <v>35.9</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>26</v>
@@ -3821,41 +3904,41 @@
       </c>
     </row>
     <row r="53" spans="2:16" ht="30">
-      <c r="B53" s="17" t="s">
-        <v>164</v>
+      <c r="B53" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>182</v>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="F53" s="6">
-        <v>5</v>
-      </c>
-      <c r="G53" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H53" s="4">
-        <v>40</v>
-      </c>
-      <c r="I53" s="8">
-        <v>25</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="K53" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="16">
-        <v>-1</v>
+        <v>3</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H53" s="11">
+        <v>30</v>
+      </c>
+      <c r="I53" s="31">
+        <v>240</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K53" s="32">
+        <v>1</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>45.9</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>68</v>
@@ -3867,54 +3950,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="30">
+    <row r="54" spans="2:16" ht="45">
       <c r="B54" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>175</v>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F54" s="6">
         <v>4</v>
       </c>
       <c r="G54" s="5">
-        <v>6.5000000000000002E-2</v>
+        <v>0.25</v>
       </c>
       <c r="H54" s="4">
+        <v>55</v>
+      </c>
+      <c r="I54" s="31">
+        <v>240</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="L54" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="M54" s="32">
+        <v>30.9</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="2" customFormat="1" ht="30">
+      <c r="B55" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="6">
+        <v>5</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H55" s="4">
         <v>40</v>
       </c>
-      <c r="I54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N54" s="3" t="s">
+      <c r="I55" s="8">
+        <v>25</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N55" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="O54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:16">
       <c r="O55" s="8" t="s">
         <v>0</v>
       </c>
@@ -3923,6 +4045,9 @@
       </c>
     </row>
     <row r="56" spans="2:16">
+      <c r="G56" s="1"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="39"/>
       <c r="O56" s="8" t="s">
         <v>0</v>
       </c>
@@ -3931,6 +4056,9 @@
       </c>
     </row>
     <row r="57" spans="2:16">
+      <c r="G57" s="1"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="39"/>
       <c r="O57" s="8" t="s">
         <v>0</v>
       </c>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="187">
   <si>
     <t>N/A</t>
   </si>
@@ -751,7 +751,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 
-Psychic Sensitivity +90%
+Psychic Sensitivity +80%
 MeditationFocusGain +0.10
 Psychic Entropy Recovery Rate +0.06/sec
 </t>
@@ -776,8 +776,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PsychicSensitivity -90%
-MeditationFocusGain -0.40</t>
+      <t>PsychicSensitivity -80%
+MeditationFocusGain -0.35</t>
     </r>
     <r>
       <rPr>
@@ -800,8 +800,11 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Psychic Entropy Recovery Rate
- -0.50/sec </t>
+ -0.40/sec </t>
     </r>
+  </si>
+  <si>
+    <t>Using the psycast twice will have more signficant effects on the caster.</t>
   </si>
 </sst>
 </file>
@@ -882,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -995,22 +998,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
@@ -1092,6 +1087,17 @@
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -1183,44 +1189,44 @@
     <tableColumn id="4" name="Volume" dataDxfId="29"/>
     <tableColumn id="14" name="Effect" dataDxfId="28"/>
     <tableColumn id="13" name="Effect Specifics" dataDxfId="27"/>
-    <tableColumn id="8" name="Level" dataDxfId="2"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="0"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="1"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="26"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="25"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="24"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="23"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="22"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="21"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="20"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="19"/>
+    <tableColumn id="8" name="Level" dataDxfId="26"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="25"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="24"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="23"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="22"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="21"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="20"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="19"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="18"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="17"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:P51" totalsRowShown="0" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table132" displayName="Table132" ref="B3:P51" totalsRowShown="0" dataDxfId="15">
   <autoFilter ref="B3:P51"/>
   <sortState ref="B4:P41">
     <sortCondition ref="B3:B41"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Psycast" dataDxfId="17"/>
-    <tableColumn id="4" name="Volume" dataDxfId="16"/>
-    <tableColumn id="14" name="Effect" dataDxfId="15"/>
-    <tableColumn id="13" name="Effect Specifics" dataDxfId="14"/>
-    <tableColumn id="8" name="Level" dataDxfId="13"/>
-    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="12"/>
-    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="11"/>
-    <tableColumn id="16" name="Duration (Secs)" dataDxfId="10"/>
-    <tableColumn id="3" name="Duration (Game)" dataDxfId="9"/>
-    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="8"/>
-    <tableColumn id="10" name="Effect Range" dataDxfId="7"/>
-    <tableColumn id="11" name="Cast Range" dataDxfId="6"/>
-    <tableColumn id="19" name="Targeting Parameters" dataDxfId="5"/>
-    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="4"/>
-    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="3"/>
+    <tableColumn id="1" name="Psycast" dataDxfId="14"/>
+    <tableColumn id="4" name="Volume" dataDxfId="13"/>
+    <tableColumn id="14" name="Effect" dataDxfId="12"/>
+    <tableColumn id="13" name="Effect Specifics" dataDxfId="11"/>
+    <tableColumn id="8" name="Level" dataDxfId="10"/>
+    <tableColumn id="17" name="Psyfocus Cost (%)" dataDxfId="9"/>
+    <tableColumn id="2" name="Neural Heat Gain" dataDxfId="8"/>
+    <tableColumn id="16" name="Duration (Secs)" dataDxfId="7"/>
+    <tableColumn id="3" name="Duration (Game)" dataDxfId="6"/>
+    <tableColumn id="9" name="Warmup Time (Seconds)" dataDxfId="5"/>
+    <tableColumn id="10" name="Effect Range" dataDxfId="4"/>
+    <tableColumn id="11" name="Cast Range" dataDxfId="3"/>
+    <tableColumn id="19" name="Targeting Parameters" dataDxfId="2"/>
+    <tableColumn id="15" name="After Effects (Initial)" dataDxfId="1"/>
+    <tableColumn id="18" name="A.E. Duration (Initial)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1513,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3708,8 +3714,8 @@
       <c r="N48" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O48" s="8" t="s">
-        <v>0</v>
+      <c r="O48" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="P48" s="8" t="s">
         <v>0</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="186">
   <si>
     <t>N/A</t>
   </si>
@@ -802,9 +802,6 @@
       <t xml:space="preserve">Psychic Entropy Recovery Rate
  -0.40/sec </t>
     </r>
-  </si>
-  <si>
-    <t>Using the psycast twice will have more signficant effects on the caster.</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1517,7 @@
   <dimension ref="B1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3691,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="5">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="H48" s="4">
         <v>0</v>
@@ -3714,9 +3711,7 @@
       <c r="N48" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O48" s="40" t="s">
-        <v>186</v>
-      </c>
+      <c r="O48" s="40"/>
       <c r="P48" s="8" t="s">
         <v>0</v>
       </c>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="194">
   <si>
     <t>N/A</t>
   </si>
@@ -802,6 +802,35 @@
       <t xml:space="preserve">Psychic Entropy Recovery Rate
  -0.40/sec </t>
     </r>
+  </si>
+  <si>
+    <t>Clairvoyance</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>Thermal Shock</t>
+  </si>
+  <si>
+    <t>Hypervelocity</t>
+  </si>
+  <si>
+    <t>Melee Dodge Chance +12 Levels
+Pawn Trap Spring Chance -40%</t>
+  </si>
+  <si>
+    <t>Moving +50%
+Melee Dodge Chance +6 Levels
+Aiming Delay Factor -7.5%
+Ranged Cooldown Factor -7.5%
+Melee Cooldown Factor -15%</t>
+  </si>
+  <si>
+    <t>Hypothermia set to 60%</t>
+  </si>
+  <si>
+    <t>Heatstroke set to 60%</t>
   </si>
 </sst>
 </file>
@@ -882,7 +911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -994,9 +1023,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,8 +1202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:P60" totalsRowShown="0" dataDxfId="31">
-  <autoFilter ref="B3:P60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="B3:P72" totalsRowShown="0" dataDxfId="31">
+  <autoFilter ref="B3:P72">
     <filterColumn colId="1"/>
     <filterColumn colId="4"/>
     <filterColumn colId="5"/>
@@ -1514,10 +1548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:R67"/>
+  <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2625,8 +2659,8 @@
       <c r="K25" s="16">
         <v>3</v>
       </c>
-      <c r="L25" s="14">
-        <v>15.9</v>
+      <c r="L25" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M25" s="16">
         <v>-1</v>
@@ -3711,7 +3745,7 @@
       <c r="N48" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O48" s="40"/>
+      <c r="O48" s="39"/>
       <c r="P48" s="8" t="s">
         <v>0</v>
       </c>
@@ -4045,10 +4079,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
-      <c r="G56" s="1"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="39"/>
+    <row r="56" spans="2:16" ht="45">
+      <c r="B56" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H56" s="8">
+        <v>20</v>
+      </c>
+      <c r="I56" s="8">
+        <v>168</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56" s="16">
+        <v>1</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O56" s="8" t="s">
         <v>0</v>
       </c>
@@ -4056,10 +4126,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16">
-      <c r="G57" s="1"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="39"/>
+    <row r="57" spans="2:16" ht="45">
+      <c r="B57" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H57" s="8">
+        <v>20</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="16">
+        <v>3</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O57" s="8" t="s">
         <v>0</v>
       </c>
@@ -4067,48 +4173,104 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="6"/>
+    <row r="58" spans="2:16" ht="45">
+      <c r="B58" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H58" s="8">
+        <v>20</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16">
+        <v>3</v>
+      </c>
+      <c r="L58" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="16">
+        <v>15.9</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
+    <row r="59" spans="2:16" ht="90">
+      <c r="B59" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H59" s="4">
+        <v>45</v>
+      </c>
+      <c r="I59" s="8">
+        <v>252</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="16">
+        <v>3</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="60" spans="2:16">
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="2"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="40"/>
       <c r="E60" s="3"/>
       <c r="F60" s="6"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="4"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="8"/>
       <c r="J60" s="6"/>
       <c r="K60" s="16"/>
@@ -4236,6 +4398,91 @@
       <c r="N67" s="10"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+    </row>
+    <row r="69" spans="2:16">
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+    </row>
+    <row r="72" spans="2:16">
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -1170,7 +1170,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>57397</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>9814</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1212,8 +1212,8 @@
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
   </autoFilter>
-  <sortState ref="B4:P60">
-    <sortCondition ref="C3:C60"/>
+  <sortState ref="B4:P72">
+    <sortCondition ref="C3:C72"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" name="Psycast" dataDxfId="30"/>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1739,92 +1739,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="90">
+    <row r="6" spans="2:18" ht="45">
       <c r="B6" s="17" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="20">
-        <v>2</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0.15</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="K6" s="24">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="24">
-        <v>9.9</v>
+      <c r="G6" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="H6" s="4">
+        <v>30</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="16">
+        <v>-1</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18">
+        <v>26</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="45">
       <c r="B7" s="17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
       </c>
       <c r="G7" s="5">
         <v>0.1</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="I7" s="8">
+        <v>240</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="K7" s="16">
-        <v>2</v>
-      </c>
-      <c r="L7" s="14">
-        <v>14.9</v>
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M7" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>0</v>
@@ -1833,74 +1833,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="45">
+    <row r="8" spans="2:18" ht="30">
       <c r="B8" s="17" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>0.125</v>
+        <v>0.01</v>
       </c>
       <c r="H8" s="4">
-        <v>30</v>
-      </c>
-      <c r="I8" s="8">
-        <v>5000</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="K8" s="16">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L8" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M8" s="16">
-        <v>-1</v>
+        <v>12.9</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" ht="90">
-      <c r="B9" s="17" t="s">
-        <v>103</v>
+        <v>50</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="60">
+      <c r="B9" s="26" t="s">
+        <v>126</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>104</v>
+      <c r="D9" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F9" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="5">
-        <v>0.7</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H9" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>0</v>
@@ -1909,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="K9" s="16">
-        <v>8</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="14">
+        <v>4.5</v>
       </c>
       <c r="M9" s="16">
-        <v>14.9</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>16</v>
+        <v>28.9</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>0</v>
@@ -1927,83 +1927,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:18" ht="45">
+    <row r="10" spans="2:18" ht="90">
       <c r="B10" s="17" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="H10" s="4">
-        <v>30</v>
-      </c>
-      <c r="I10" s="8">
-        <v>168</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>-1</v>
+        <v>14</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="20">
+        <v>2</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>9.9</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="75">
+        <v>45</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="45">
       <c r="B11" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>24</v>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="6">
+        <v>132</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15</v>
+      </c>
+      <c r="I11" s="8">
+        <v>320</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="16">
         <v>4</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="H11" s="4">
-        <v>50</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>5</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>0</v>
@@ -2014,52 +2014,52 @@
       <c r="N11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="30">
+      <c r="O11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="45">
       <c r="B12" s="17" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="C12" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.3</v>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.12</v>
       </c>
       <c r="H12" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I12" s="8">
-        <v>30000</v>
+        <v>320</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="K12" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="14">
-        <v>14.9</v>
+        <v>4</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M12" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>16</v>
+        <v>-1</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>0</v>
@@ -2070,31 +2070,31 @@
     </row>
     <row r="13" spans="2:18" ht="30">
       <c r="B13" s="17" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>80</v>
       </c>
       <c r="F13" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G13" s="5">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K13" s="16">
         <v>2</v>
@@ -2105,77 +2105,81 @@
       <c r="M13" s="16">
         <v>-1</v>
       </c>
-      <c r="N13" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" ht="60">
+      <c r="N13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="30">
       <c r="B14" s="17" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>94</v>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2</v>
       </c>
       <c r="G14" s="5">
-        <v>0.06</v>
+        <v>0.35</v>
       </c>
       <c r="H14" s="4">
-        <v>45</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>8000</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="K14" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L14" s="14">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M14" s="16">
-        <v>19.899999999999999</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" ht="60">
+        <v>75</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="45">
       <c r="B15" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F15" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="5">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="H15" s="4">
         <v>0</v>
@@ -2187,54 +2191,54 @@
         <v>0</v>
       </c>
       <c r="K15" s="16">
-        <v>3</v>
-      </c>
-      <c r="L15" s="14">
-        <v>1.9</v>
+        <v>2</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M15" s="16">
-        <v>14.9</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6" t="s">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="45">
       <c r="B16" s="17" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
       </c>
       <c r="G16" s="5">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="H16" s="4">
-        <v>40</v>
-      </c>
-      <c r="I16" s="8">
-        <v>84</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="K16" s="16">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>0</v>
@@ -2245,34 +2249,34 @@
       <c r="N16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>101</v>
+      <c r="O16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:16">
       <c r="B17" s="17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="3">
+        <v>114</v>
+      </c>
+      <c r="F17" s="6">
         <v>3</v>
       </c>
       <c r="G17" s="5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>0</v>
@@ -2280,64 +2284,64 @@
       <c r="J17" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="8">
-        <v>0.1</v>
+      <c r="K17" s="16">
+        <v>2</v>
       </c>
       <c r="L17" s="14">
-        <v>22.9</v>
+        <v>14.9</v>
       </c>
       <c r="M17" s="16">
-        <v>22.9</v>
+        <v>24.9</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="45">
+        <v>16</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="90">
       <c r="B18" s="17" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
       </c>
       <c r="G18" s="5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H18" s="4">
-        <v>5</v>
-      </c>
-      <c r="I18" s="8">
-        <v>240</v>
+        <v>20</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="K18" s="16">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M18" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>26</v>
+        <v>14.9</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>0</v>
@@ -2348,7 +2352,7 @@
     </row>
     <row r="19" spans="2:16" ht="45">
       <c r="B19" s="17" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>138</v>
@@ -2356,26 +2360,26 @@
       <c r="D19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>132</v>
+      <c r="E19" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="5">
         <v>0.09</v>
       </c>
       <c r="H19" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I19" s="8">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="K19" s="16">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>0</v>
@@ -2386,52 +2390,52 @@
       <c r="N19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6" t="s">
+      <c r="O19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="30">
       <c r="B20" s="17" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.01</v>
+        <v>125</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.3</v>
       </c>
       <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>30000</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="K20" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>0</v>
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="14">
+        <v>14.9</v>
       </c>
       <c r="M20" s="16">
-        <v>12.9</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>50</v>
+        <v>24.9</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O20" s="6" t="s">
         <v>0</v>
@@ -2440,45 +2444,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="45">
+    <row r="21" spans="2:16" ht="60">
       <c r="B21" s="17" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>18</v>
+      <c r="D21" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3">
-        <v>2</v>
+        <v>97</v>
+      </c>
+      <c r="F21" s="6">
+        <v>3</v>
       </c>
       <c r="G21" s="5">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="H21" s="4">
-        <v>15</v>
-      </c>
-      <c r="I21" s="8">
-        <v>320</v>
+        <v>45</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>4</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="L21" s="14">
+        <v>2.5</v>
       </c>
       <c r="M21" s="16">
-        <v>-1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>0</v>
@@ -2487,92 +2491,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="30">
+    <row r="22" spans="2:16" ht="45">
       <c r="B22" s="17" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C22" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="F22" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.2</v>
       </c>
       <c r="H22" s="4">
-        <v>16</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I22" s="8">
+        <v>84</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="K22" s="16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M22" s="16">
-        <v>32.9</v>
+        <v>-1</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="60">
+        <v>26</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>0.01</v>
       </c>
       <c r="H23" s="4">
-        <v>60</v>
-      </c>
-      <c r="I23" s="8">
-        <v>8</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>82</v>
+        <v>12</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="K23" s="8">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="L23" s="14">
-        <v>2.9</v>
+        <v>22.9</v>
       </c>
       <c r="M23" s="16">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>81</v>
+        <v>22.9</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="O23" s="8" t="s">
         <v>0</v>
@@ -2628,83 +2632,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="150">
+    <row r="25" spans="2:16" ht="60">
       <c r="B25" s="17" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="6">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="F25" s="3">
+        <v>3</v>
       </c>
       <c r="G25" s="5">
-        <v>0.4</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H25" s="4">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I25" s="8">
-        <v>500</v>
+        <v>3</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" s="16">
-        <v>3</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L25" s="14">
+        <v>2.9</v>
       </c>
       <c r="M25" s="16">
-        <v>-1</v>
+        <v>20.9</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" ht="30">
+        <v>81</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="45">
       <c r="B26" s="17" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="C26" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F26" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="H26" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I26" s="8">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="K26" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" s="14" t="s">
         <v>0</v>
@@ -2713,54 +2717,54 @@
         <v>-1</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:16" ht="45">
       <c r="B27" s="17" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C27" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5">
+        <v>123</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>10000</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="K27" s="16">
         <v>0.2</v>
       </c>
-      <c r="H27" s="4">
-        <v>70</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>2.5</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>0</v>
+      <c r="L27" s="14">
+        <v>4.9000000000000004</v>
       </c>
       <c r="M27" s="16">
-        <v>14.9</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>52</v>
+        <v>7.9</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>0</v>
@@ -2769,36 +2773,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="135">
+    <row r="28" spans="2:16" ht="30">
       <c r="B28" s="17" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C28" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>41</v>
+      <c r="D28" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="6">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3</v>
       </c>
       <c r="G28" s="5">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="4">
-        <v>150</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>8000</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="K28" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L28" s="14" t="s">
         <v>0</v>
@@ -2807,42 +2811,42 @@
         <v>-1</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" ht="45">
+        <v>75</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="75">
       <c r="B29" s="17" t="s">
-        <v>128</v>
+        <v>22</v>
       </c>
       <c r="C29" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>34</v>
+      <c r="D29" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="F29" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G29" s="5">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="H29" s="4">
         <v>50</v>
       </c>
-      <c r="I29" s="8">
-        <v>10000</v>
+      <c r="I29" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="K29" s="16">
         <v>5</v>
@@ -2857,62 +2861,58 @@
         <v>26</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" ht="60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" ht="30">
       <c r="B30" s="17" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="F30" s="6">
         <v>4</v>
       </c>
       <c r="G30" s="5">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="H30" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>45</v>
-      </c>
-      <c r="J30" s="16" t="s">
-        <v>102</v>
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
       </c>
       <c r="K30" s="16">
-        <v>1</v>
-      </c>
-      <c r="L30" s="14">
-        <v>15.9</v>
+        <v>2</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M30" s="16">
-        <v>24.9</v>
+        <v>-1</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16">
+        <v>135</v>
+      </c>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+    </row>
+    <row r="31" spans="2:16" ht="30">
       <c r="B31" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="27" t="s">
         <v>138</v>
@@ -2921,16 +2921,16 @@
         <v>65</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="3">
+        <v>67</v>
+      </c>
+      <c r="F31" s="6">
         <v>4</v>
       </c>
       <c r="G31" s="5">
-        <v>1.7999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H31" s="4">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>0</v>
@@ -2938,111 +2938,111 @@
       <c r="J31" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K31" s="8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L31" s="14">
-        <v>31.9</v>
+      <c r="K31" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M31" s="16">
-        <v>31.9</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P31" s="8" t="s">
+        <v>32.9</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="60">
-      <c r="B32" s="26" t="s">
-        <v>126</v>
+      <c r="B32" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C32" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>94</v>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="F32" s="6">
+        <v>4</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H32" s="4">
+        <v>55</v>
+      </c>
+      <c r="I32" s="8">
+        <v>45</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="K32" s="16">
         <v>1</v>
       </c>
-      <c r="G32" s="5">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H32" s="4">
-        <v>12</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>0.25</v>
-      </c>
       <c r="L32" s="14">
-        <v>4.5</v>
+        <v>15.9</v>
       </c>
       <c r="M32" s="16">
-        <v>28.9</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" ht="60">
+        <v>24.9</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C33" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="5">
-        <v>3.5000000000000003E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H33" s="4">
-        <v>36</v>
-      </c>
-      <c r="I33" s="8">
-        <v>3</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="K33" s="8">
-        <v>0.25</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L33" s="14">
-        <v>2.9</v>
+        <v>31.9</v>
       </c>
       <c r="M33" s="16">
-        <v>20.9</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>81</v>
+        <v>31.9</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="O33" s="8" t="s">
         <v>0</v>
@@ -3051,173 +3051,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:16" ht="45">
+    <row r="34" spans="2:16" ht="60">
       <c r="B34" s="17" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C34" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="6">
-        <v>3</v>
+        <v>83</v>
+      </c>
+      <c r="F34" s="3">
+        <v>5</v>
       </c>
       <c r="G34" s="5">
-        <v>0.35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="H34" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I34" s="8">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="16">
-        <v>5</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="L34" s="14">
+        <v>2.9</v>
       </c>
       <c r="M34" s="16">
-        <v>-1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:16" ht="45">
+        <v>81</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="150">
       <c r="B35" s="17" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="C35" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F35" s="6">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H35" s="4">
+        <v>50</v>
+      </c>
+      <c r="I35" s="8">
+        <v>500</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K35" s="16">
         <v>3</v>
       </c>
-      <c r="G35" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="H35" s="4">
-        <v>0</v>
-      </c>
-      <c r="I35" s="8">
-        <v>10000</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L35" s="14">
-        <v>4.9000000000000004</v>
+      <c r="L35" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M35" s="16">
-        <v>7.9</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="45">
       <c r="B36" s="17" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="C36" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="6">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="F36" s="3">
+        <v>5</v>
       </c>
       <c r="G36" s="5">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
       <c r="H36" s="4">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0.05</v>
-      </c>
-      <c r="L36" s="14">
-        <v>38.9</v>
+      <c r="J36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M36" s="16">
-        <v>35.9</v>
+        <v>14.9</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="2:16" ht="30">
+        <v>52</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="45">
       <c r="B37" s="17" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="C37" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="3">
-        <v>3</v>
+        <v>131</v>
+      </c>
+      <c r="F37" s="6">
+        <v>5</v>
       </c>
       <c r="G37" s="5">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="H37" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I37" s="8">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="K37" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L37" s="14" t="s">
         <v>0</v>
@@ -3226,83 +3230,83 @@
         <v>-1</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P37" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:16" ht="30">
+        <v>26</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="60">
       <c r="B38" s="17" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="C38" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="F38" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G38" s="5">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="H38" s="4">
         <v>0</v>
       </c>
-      <c r="I38" s="8">
-        <v>8000</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>76</v>
+      <c r="I38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="K38" s="16">
-        <v>2</v>
-      </c>
-      <c r="L38" s="14" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="L38" s="14">
+        <v>1.9</v>
       </c>
       <c r="M38" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" ht="45">
+        <v>14.9</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" ht="135">
       <c r="B39" s="17" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C39" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>70</v>
+      <c r="D39" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="3">
-        <v>2</v>
+        <v>39</v>
+      </c>
+      <c r="F39" s="6">
+        <v>6</v>
       </c>
       <c r="G39" s="5">
-        <v>0.15</v>
+        <v>0.9</v>
       </c>
       <c r="H39" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I39" s="8" t="s">
         <v>0</v>
@@ -3311,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L39" s="14" t="s">
         <v>0</v>
@@ -3320,61 +3324,57 @@
         <v>-1</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="45">
       <c r="B40" s="17" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="C40" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="3">
-        <v>2</v>
+        <v>130</v>
+      </c>
+      <c r="F40" s="6">
+        <v>6</v>
       </c>
       <c r="G40" s="5">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
       <c r="H40" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
-        <v>2</v>
-      </c>
-      <c r="L40" s="14" t="s">
-        <v>0</v>
+      <c r="J40" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="L40" s="14">
+        <v>38.9</v>
       </c>
       <c r="M40" s="16">
-        <v>-1</v>
+        <v>35.9</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O40" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
     </row>
     <row r="41" spans="2:16" ht="30">
       <c r="B41" s="17" t="s">
@@ -3424,44 +3424,44 @@
       </c>
     </row>
     <row r="42" spans="2:16" ht="30">
-      <c r="B42" s="17" t="s">
-        <v>144</v>
+      <c r="B42" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>180</v>
+      <c r="D42" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>178</v>
       </c>
       <c r="F42" s="6">
-        <v>4</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="H42" s="4">
-        <v>30</v>
-      </c>
-      <c r="I42" s="8">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="31">
+        <v>3000</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42" s="16">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="K42" s="32">
+        <v>2</v>
       </c>
       <c r="L42" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="16">
-        <v>30.9</v>
+      <c r="M42" s="32">
+        <v>-1</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>0</v>
@@ -3470,92 +3470,90 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="45">
-      <c r="B43" s="17" t="s">
-        <v>145</v>
+    <row r="43" spans="2:16" ht="150">
+      <c r="B43" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>18</v>
+      <c r="D43" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="6">
-        <v>5</v>
+        <v>185</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3</v>
       </c>
       <c r="G43" s="5">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
-      <c r="I43" s="31">
-        <v>5000</v>
+      <c r="I43" s="4">
+        <v>1500</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K43" s="16">
+        <v>184</v>
+      </c>
+      <c r="K43" s="38">
         <v>1</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="16">
         <v>-1</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="O43" s="39"/>
       <c r="P43" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="30">
+    <row r="44" spans="2:16" ht="45">
       <c r="B44" s="17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>14</v>
+      <c r="D44" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="F44" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>0.45</v>
       </c>
       <c r="H44" s="4">
-        <v>40</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I44" s="31">
+        <v>5000</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8">
+        <v>15</v>
+      </c>
+      <c r="K44" s="16">
         <v>1</v>
       </c>
-      <c r="L44" s="14">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M44" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>16</v>
+      <c r="L44" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="32">
+        <v>-1</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>0</v>
@@ -3566,43 +3564,43 @@
     </row>
     <row r="45" spans="2:16" ht="30">
       <c r="B45" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="F45" s="6">
         <v>4</v>
       </c>
       <c r="G45" s="5">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H45" s="4">
         <v>30</v>
       </c>
-      <c r="I45" s="8" t="s">
-        <v>0</v>
+      <c r="I45" s="8">
+        <v>15</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="K45" s="16">
-        <v>1</v>
-      </c>
-      <c r="L45" s="14">
-        <v>3.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M45" s="16">
-        <v>29.9</v>
-      </c>
-      <c r="N45" s="6" t="s">
-        <v>16</v>
+        <v>30.9</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="O45" s="8" t="s">
         <v>0</v>
@@ -3612,44 +3610,44 @@
       </c>
     </row>
     <row r="46" spans="2:16" ht="30">
-      <c r="B46" s="29" t="s">
-        <v>140</v>
+      <c r="B46" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>178</v>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="F46" s="6">
-        <v>2</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="31">
-        <v>3000</v>
+        <v>4</v>
+      </c>
+      <c r="G46" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H46" s="4">
+        <v>40</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46" s="32">
-        <v>2</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M46" s="32">
-        <v>-1</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>177</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="8">
+        <v>1</v>
+      </c>
+      <c r="L46" s="14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M46" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3658,45 +3656,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:16" ht="45">
+    <row r="47" spans="2:16" ht="30">
       <c r="B47" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F47" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="5">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
       <c r="H47" s="4">
-        <v>60</v>
-      </c>
-      <c r="I47" s="8">
-        <v>4000</v>
+        <v>30</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K47" s="16">
         <v>1</v>
       </c>
       <c r="L47" s="14">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M47" s="16">
-        <v>15.9</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>26</v>
+        <v>29.9</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>0</v>
@@ -3705,54 +3703,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="150">
-      <c r="B48" s="2" t="s">
-        <v>183</v>
+    <row r="48" spans="2:16" ht="45">
+      <c r="B48" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F48" s="2">
-        <v>3</v>
+        <v>154</v>
+      </c>
+      <c r="F48" s="6">
+        <v>6</v>
       </c>
       <c r="G48" s="5">
         <v>0.75</v>
       </c>
       <c r="H48" s="4">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4">
-        <v>1500</v>
+        <v>60</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4000</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K48" s="38">
+        <v>153</v>
+      </c>
+      <c r="K48" s="16">
         <v>1</v>
       </c>
-      <c r="L48" s="14" t="s">
-        <v>0</v>
+      <c r="L48" s="14">
+        <v>3.9</v>
       </c>
       <c r="M48" s="16">
-        <v>-1</v>
+        <v>15.9</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O48" s="39"/>
+        <v>26</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="P48" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:16" ht="45">
       <c r="B49" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" s="35" t="s">
         <v>148</v>
@@ -3760,32 +3760,32 @@
       <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>171</v>
+      <c r="E49" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F49" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="5">
-        <v>0.2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H49" s="4">
-        <v>30</v>
-      </c>
-      <c r="I49" s="8">
-        <v>180</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="16">
-        <v>-1</v>
+        <v>25</v>
+      </c>
+      <c r="I49" s="31">
+        <v>240</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="32">
+        <v>35.9</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>26</v>
@@ -3797,27 +3797,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="60">
-      <c r="B50" s="17" t="s">
-        <v>165</v>
+    <row r="50" spans="2:16" ht="45">
+      <c r="B50" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>94</v>
+      <c r="D50" s="40" t="s">
+        <v>18</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="F50" s="6">
-        <v>6</v>
-      </c>
-      <c r="G50" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H50" s="4">
-        <v>65</v>
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H50" s="8">
+        <v>20</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>0</v>
@@ -3826,16 +3826,16 @@
         <v>0</v>
       </c>
       <c r="K50" s="16">
-        <v>1</v>
-      </c>
-      <c r="L50" s="14">
-        <v>4.5</v>
+        <v>3</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M50" s="16">
-        <v>24.9</v>
+        <v>15.9</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>0</v>
@@ -3844,27 +3844,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="30">
-      <c r="B51" s="17" t="s">
-        <v>162</v>
+    <row r="51" spans="2:16" ht="45">
+      <c r="B51" s="40" t="s">
+        <v>188</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>94</v>
+      <c r="D51" s="40" t="s">
+        <v>18</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="F51" s="6">
-        <v>4</v>
-      </c>
-      <c r="G51" s="5">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H51" s="4">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H51" s="8">
+        <v>20</v>
       </c>
       <c r="I51" s="8" t="s">
         <v>0</v>
@@ -3873,27 +3873,23 @@
         <v>0</v>
       </c>
       <c r="K51" s="16">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="L51" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="16">
-        <v>24.9</v>
+        <v>15.9</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P51" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
     </row>
     <row r="52" spans="2:16" ht="45">
       <c r="B52" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -3901,32 +3897,32 @@
       <c r="D52" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="36" t="s">
-        <v>168</v>
+      <c r="E52" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="F52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="5">
-        <v>7.4999999999999997E-2</v>
+        <v>0.2</v>
       </c>
       <c r="H52" s="4">
-        <v>25</v>
-      </c>
-      <c r="I52" s="31">
-        <v>240</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K52" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L52" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M52" s="32">
-        <v>35.9</v>
+        <v>30</v>
+      </c>
+      <c r="I52" s="8">
+        <v>180</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="16">
+        <v>-1</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>26</v>
@@ -3938,45 +3934,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="30">
-      <c r="B53" s="29" t="s">
-        <v>160</v>
+    <row r="53" spans="2:16" ht="45">
+      <c r="B53" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="37" t="s">
-        <v>169</v>
+      <c r="E53" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="F53" s="6">
-        <v>3</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H53" s="11">
-        <v>30</v>
-      </c>
-      <c r="I53" s="31">
-        <v>240</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K53" s="32">
+        <v>2</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H53" s="8">
+        <v>20</v>
+      </c>
+      <c r="I53" s="8">
+        <v>168</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K53" s="16">
         <v>1</v>
       </c>
-      <c r="L53" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M53" s="32">
-        <v>45.9</v>
+      <c r="L53" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="16">
+        <v>-1</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>0</v>
@@ -3985,9 +3981,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="45">
-      <c r="B54" s="17" t="s">
-        <v>163</v>
+    <row r="54" spans="2:16" ht="30">
+      <c r="B54" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -3995,17 +3991,17 @@
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="36" t="s">
-        <v>168</v>
+      <c r="E54" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="F54" s="6">
-        <v>4</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="H54" s="4">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H54" s="11">
+        <v>30</v>
       </c>
       <c r="I54" s="31">
         <v>240</v>
@@ -4014,16 +4010,16 @@
         <v>172</v>
       </c>
       <c r="K54" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L54" s="33">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="M54" s="32">
-        <v>30.9</v>
+        <v>45.9</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>0</v>
@@ -4034,40 +4030,40 @@
     </row>
     <row r="55" spans="2:16" s="2" customFormat="1" ht="30">
       <c r="B55" s="17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F55" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G55" s="5">
-        <v>0.1</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H55" s="4">
         <v>40</v>
       </c>
-      <c r="I55" s="8">
-        <v>25</v>
+      <c r="I55" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="K55" s="16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M55" s="16">
-        <v>-1</v>
+        <v>24.9</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>68</v>
@@ -4080,41 +4076,41 @@
       </c>
     </row>
     <row r="56" spans="2:16" ht="45">
-      <c r="B56" s="40" t="s">
-        <v>186</v>
+      <c r="B56" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>190</v>
+      <c r="E56" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F56" s="6">
-        <v>2</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H56" s="8">
-        <v>20</v>
-      </c>
-      <c r="I56" s="8">
-        <v>168</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="K56" s="16">
-        <v>1</v>
-      </c>
-      <c r="L56" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M56" s="16">
-        <v>-1</v>
+        <v>4</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="H56" s="4">
+        <v>55</v>
+      </c>
+      <c r="I56" s="31">
+        <v>240</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="L56" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="M56" s="32">
+        <v>30.9</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>26</v>
@@ -4126,33 +4122,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="45">
-      <c r="B57" s="40" t="s">
-        <v>187</v>
+    <row r="57" spans="2:16" ht="90">
+      <c r="B57" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="40" t="s">
-        <v>18</v>
+      <c r="D57" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F57" s="6">
-        <v>1</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H57" s="8">
-        <v>20</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H57" s="4">
+        <v>45</v>
+      </c>
+      <c r="I57" s="8">
+        <v>252</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="K57" s="16">
         <v>3</v>
@@ -4161,106 +4157,110 @@
         <v>0</v>
       </c>
       <c r="M57" s="16">
-        <v>15.9</v>
+        <v>-1</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O57" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P57" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" ht="45">
-      <c r="B58" s="40" t="s">
-        <v>188</v>
+      <c r="O57" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="30">
+      <c r="B58" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>18</v>
+      <c r="D58" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F58" s="6">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H58" s="8">
-        <v>20</v>
-      </c>
-      <c r="I58" s="8" t="s">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H58" s="4">
+        <v>40</v>
+      </c>
+      <c r="I58" s="8">
+        <v>25</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="K58" s="16">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="L58" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M58" s="16">
-        <v>15.9</v>
+        <v>-1</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-    </row>
-    <row r="59" spans="2:16" ht="90">
-      <c r="B59" s="41" t="s">
-        <v>189</v>
+        <v>68</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="60">
+      <c r="B59" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>34</v>
+      <c r="D59" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F59" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G59" s="5">
-        <v>0.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H59" s="4">
-        <v>45</v>
-      </c>
-      <c r="I59" s="8">
-        <v>252</v>
+        <v>65</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="K59" s="16">
-        <v>3</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L59" s="14">
+        <v>4.5</v>
       </c>
       <c r="M59" s="16">
-        <v>-1</v>
+        <v>24.9</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>118</v>
+        <v>81</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:16">

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="207">
   <si>
     <t>N/A</t>
   </si>
@@ -832,6 +832,69 @@
   <si>
     <t>Heatstroke set to 60%</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melee Hit Chance +6 Levels
+Melee Damage Factor +15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Incoming Damage Factor x115%
+Melee Dodge Chance -4 Levels</t>
+    </r>
+  </si>
+  <si>
+    <t>Reckless Rage</t>
+  </si>
+  <si>
+    <t>Purify Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Food Posioning from a stack of food.
+Remove Metal Horror spores from a stack of food.   </t>
+  </si>
+  <si>
+    <t>Targets Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Turret  </t>
+  </si>
+  <si>
+    <t>Spawn a temporary ethereal turret to will defend the casters faction. It has low ammo and low health but fires quickly.</t>
+  </si>
+  <si>
+    <t>Carry All</t>
+  </si>
+  <si>
+    <t>Clean Stride</t>
+  </si>
+  <si>
+    <t>Filth Rate x0%</t>
+  </si>
+  <si>
+    <t>Carrying Capacity +225</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>ShootingAccuracyPawn +3%
+ShootingAccuracyFactor_Medium +10%
+ShootingAccuracyFactor_Long   +20%</t>
+  </si>
 </sst>
 </file>
 
@@ -891,12 +954,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -911,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1031,6 +1100,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1551,7 +1635,7 @@
   <dimension ref="B1:R72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3981,9 +4065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="30">
-      <c r="B54" s="29" t="s">
-        <v>160</v>
+    <row r="54" spans="2:16" ht="75">
+      <c r="B54" s="46" t="s">
+        <v>205</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -3991,79 +4075,75 @@
       <c r="D54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="37" t="s">
-        <v>169</v>
+      <c r="E54" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="F54" s="6">
-        <v>3</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H54" s="11">
-        <v>30</v>
-      </c>
-      <c r="I54" s="31">
-        <v>240</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K54" s="32">
+        <v>2</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>168</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="16">
         <v>1</v>
       </c>
-      <c r="L54" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M54" s="32">
-        <v>45.9</v>
+      <c r="L54" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="16">
+        <v>-1</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O54" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P54" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
     </row>
     <row r="55" spans="2:16" s="2" customFormat="1" ht="30">
-      <c r="B55" s="17" t="s">
-        <v>162</v>
+      <c r="B55" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>175</v>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="F55" s="6">
-        <v>4</v>
-      </c>
-      <c r="G55" s="5">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="H55" s="4">
-        <v>40</v>
-      </c>
-      <c r="I55" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K55" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L55" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="16">
-        <v>24.9</v>
+        <v>3</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H55" s="11">
+        <v>30</v>
+      </c>
+      <c r="I55" s="31">
+        <v>240</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="32">
+        <v>1</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="32">
+        <v>45.9</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>68</v>
@@ -4217,134 +4297,112 @@
       </c>
     </row>
     <row r="59" spans="2:16" ht="60">
-      <c r="B59" s="17" t="s">
-        <v>165</v>
+      <c r="B59" s="45" t="s">
+        <v>195</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F59" s="6">
-        <v>6</v>
+      <c r="D59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="F59" s="2">
+        <v>5</v>
       </c>
       <c r="G59" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H59" s="4">
-        <v>65</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="I59" s="31">
+        <v>240</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="K59" s="16">
         <v>1</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" ht="60">
+      <c r="B60" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="6">
+        <v>6</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H60" s="4">
+        <v>65</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="16">
+        <v>1</v>
+      </c>
+      <c r="L60" s="14">
         <v>4.5</v>
       </c>
-      <c r="M59" s="16">
+      <c r="M60" s="16">
         <v>24.9</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N60" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O59" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P59" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="14"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
+      <c r="O60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:16">
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="14"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="6"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
     </row>
     <row r="62" spans="2:16">
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="6"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
     <row r="63" spans="2:16">
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="6"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
     </row>
     <row r="64" spans="2:16">
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="14"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="6"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
     </row>
@@ -4388,13 +4446,13 @@
       <c r="D67" s="9"/>
       <c r="E67" s="30"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="32"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="16"/>
       <c r="N67" s="10"/>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
@@ -4473,13 +4531,13 @@
       <c r="D72" s="9"/>
       <c r="E72" s="30"/>
       <c r="F72" s="10"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="32"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="16"/>
       <c r="N72" s="10"/>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
@@ -4499,7 +4557,7 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:N5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4662,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>0</v>
@@ -4762,71 +4820,175 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="17"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="3"/>
+    <row r="8" spans="2:16" ht="60">
+      <c r="B8" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="4">
+        <v>40</v>
+      </c>
+      <c r="I8" s="8">
+        <v>84</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="16">
+        <v>24.9</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="17"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="6"/>
+    <row r="9" spans="2:16" ht="60">
+      <c r="B9" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>1</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="17"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="3"/>
+    <row r="10" spans="2:16" ht="45">
+      <c r="B10" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31">
+        <v>3000</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="16">
+        <v>1</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="17"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="3"/>
+    <row r="11" spans="2:16" ht="45">
+      <c r="B11" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="16">
+        <v>1</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -891,7 +891,7 @@
     <t>Sniper</t>
   </si>
   <si>
-    <t>ShootingAccuracyPawn +3%
+    <t>Shooting Accuracy Pawn +3.0
 ShootingAccuracyFactor_Medium +10%
 ShootingAccuracyFactor_Long   +20%</t>
   </si>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -833,6 +833,45 @@
     <t>Heatstroke set to 60%</t>
   </si>
   <si>
+    <t>Reckless Rage</t>
+  </si>
+  <si>
+    <t>Purify Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Food Posioning from a stack of food.
+Remove Metal Horror spores from a stack of food.   </t>
+  </si>
+  <si>
+    <t>Targets Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Turret  </t>
+  </si>
+  <si>
+    <t>Spawn a temporary ethereal turret to will defend the casters faction. It has low ammo and low health but fires quickly.</t>
+  </si>
+  <si>
+    <t>Carry All</t>
+  </si>
+  <si>
+    <t>Clean Stride</t>
+  </si>
+  <si>
+    <t>Filth Rate x0%</t>
+  </si>
+  <si>
+    <t>Carrying Capacity +225</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <t>Shooting Accuracy Pawn +3.0
+ShootingAccuracyFactor_Medium +10%
+ShootingAccuracyFactor_Long   +20%</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -852,48 +891,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Incoming Damage Factor x115%
+Incoming Damage Factor x110%
 Melee Dodge Chance -4 Levels</t>
     </r>
-  </si>
-  <si>
-    <t>Reckless Rage</t>
-  </si>
-  <si>
-    <t>Purify Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Food Posioning from a stack of food.
-Remove Metal Horror spores from a stack of food.   </t>
-  </si>
-  <si>
-    <t>Targets Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom Turret  </t>
-  </si>
-  <si>
-    <t>Spawn a temporary ethereal turret to will defend the casters faction. It has low ammo and low health but fires quickly.</t>
-  </si>
-  <si>
-    <t>Carry All</t>
-  </si>
-  <si>
-    <t>Clean Stride</t>
-  </si>
-  <si>
-    <t>Filth Rate x0%</t>
-  </si>
-  <si>
-    <t>Carrying Capacity +225</t>
-  </si>
-  <si>
-    <t>Sniper</t>
-  </si>
-  <si>
-    <t>Shooting Accuracy Pawn +3.0
-ShootingAccuracyFactor_Medium +10%
-ShootingAccuracyFactor_Long   +20%</t>
   </si>
 </sst>
 </file>
@@ -1634,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="54" spans="2:16" ht="75">
       <c r="B54" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -4076,7 +4076,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F54" s="6">
         <v>2</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="59" spans="2:16" ht="60">
       <c r="B59" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>148</v>
@@ -4307,7 +4307,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F59" s="2">
         <v>5</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="8" spans="2:16" ht="60">
       <c r="B8" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>148</v>
@@ -4831,7 +4831,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="9" spans="2:16" ht="60">
       <c r="B9" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>147</v>
@@ -4874,7 +4874,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -4901,14 +4901,14 @@
         <v>-1</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="2:16" ht="45">
       <c r="B10" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>147</v>
@@ -4917,7 +4917,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="11" spans="2:16" ht="45">
       <c r="B11" s="43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C11" s="34" t="s">
         <v>147</v>
@@ -4960,7 +4960,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="205">
   <si>
     <t>N/A</t>
   </si>
@@ -827,12 +827,6 @@
 Melee Cooldown Factor -15%</t>
   </si>
   <si>
-    <t>Hypothermia set to 60%</t>
-  </si>
-  <si>
-    <t>Heatstroke set to 60%</t>
-  </si>
-  <si>
     <t>Reckless Rage</t>
   </si>
   <si>
@@ -852,24 +846,13 @@
     <t>Spawn a temporary ethereal turret to will defend the casters faction. It has low ammo and low health but fires quickly.</t>
   </si>
   <si>
-    <t>Carry All</t>
-  </si>
-  <si>
     <t>Clean Stride</t>
   </si>
   <si>
     <t>Filth Rate x0%</t>
   </si>
   <si>
-    <t>Carrying Capacity +225</t>
-  </si>
-  <si>
     <t>Sniper</t>
-  </si>
-  <si>
-    <t>Shooting Accuracy Pawn +3.0
-ShootingAccuracyFactor_Medium +10%
-ShootingAccuracyFactor_Long   +20%</t>
   </si>
   <si>
     <r>
@@ -894,6 +877,17 @@
 Incoming Damage Factor x110%
 Melee Dodge Chance -4 Levels</t>
     </r>
+  </si>
+  <si>
+    <t>Shooting Accuracy Pawn +3.0
+ShootingAccuracyFactor_Medium +0.5%
+ShootingAccuracyFactor_Long  +1% (Makes a much bigger difference then suggested)</t>
+  </si>
+  <si>
+    <t>Hypothermia set to 50%</t>
+  </si>
+  <si>
+    <t>Heatstroke set to 50%</t>
   </si>
 </sst>
 </file>
@@ -980,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1104,17 +1098,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1634,8 +1646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2048,7 +2060,7 @@
       <c r="M10" s="24">
         <v>9.9</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="O10" s="20" t="s">
@@ -3460,92 +3472,88 @@
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="2:16" ht="30">
-      <c r="B41" s="17" t="s">
-        <v>156</v>
+    <row r="41" spans="2:16" ht="45">
+      <c r="B41" s="44" t="s">
+        <v>198</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
       </c>
       <c r="G41" s="5">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="H41" s="4">
-        <v>15</v>
-      </c>
-      <c r="I41" s="8">
-        <v>500</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>117</v>
+        <v>0</v>
+      </c>
+      <c r="I41" s="31">
+        <v>3000</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="K41" s="16">
         <v>1</v>
       </c>
-      <c r="L41" s="14">
-        <v>39.9</v>
+      <c r="L41" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M41" s="16">
-        <v>39.9</v>
+        <v>-1</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O41" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" ht="30">
-      <c r="B42" s="29" t="s">
-        <v>140</v>
+      <c r="B42" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="C42" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>178</v>
+      <c r="D42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="F42" s="6">
         <v>2</v>
       </c>
-      <c r="G42" s="12">
-        <v>0.25</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="31">
-        <v>3000</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42" s="32">
-        <v>2</v>
-      </c>
-      <c r="L42" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M42" s="32">
-        <v>-1</v>
+      <c r="G42" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="H42" s="4">
+        <v>15</v>
+      </c>
+      <c r="I42" s="8">
+        <v>500</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K42" s="16">
+        <v>1</v>
+      </c>
+      <c r="L42" s="14">
+        <v>39.9</v>
+      </c>
+      <c r="M42" s="16">
+        <v>39.9</v>
       </c>
       <c r="N42" s="3" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="O42" s="8" t="s">
         <v>0</v>
@@ -3554,134 +3562,134 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:16" ht="150">
-      <c r="B43" s="2" t="s">
-        <v>183</v>
+    <row r="43" spans="2:16" ht="30">
+      <c r="B43" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F43" s="2">
-        <v>3</v>
-      </c>
-      <c r="G43" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="H43" s="4">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1500</v>
+      <c r="D43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="31">
+        <v>3000</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K43" s="38">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="K43" s="32">
+        <v>2</v>
       </c>
       <c r="L43" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="16">
+      <c r="M43" s="32">
         <v>-1</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="O43" s="39"/>
+      <c r="O43" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="P43" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:16" ht="45">
-      <c r="B44" s="17" t="s">
-        <v>145</v>
+    <row r="44" spans="2:16" ht="150">
+      <c r="B44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="9" t="s">
-        <v>18</v>
+      <c r="D44" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="6">
+        <v>185</v>
+      </c>
+      <c r="F44" s="2">
         <v>3</v>
       </c>
       <c r="G44" s="5">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="H44" s="4">
         <v>0</v>
       </c>
-      <c r="I44" s="31">
-        <v>5000</v>
+      <c r="I44" s="4">
+        <v>1500</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K44" s="16">
+        <v>184</v>
+      </c>
+      <c r="K44" s="38">
         <v>1</v>
       </c>
       <c r="L44" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="16">
         <v>-1</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="O44" s="39"/>
       <c r="P44" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="30">
+    <row r="45" spans="2:16" ht="45">
       <c r="B45" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
+      <c r="D45" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F45" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45" s="5">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="H45" s="4">
-        <v>30</v>
-      </c>
-      <c r="I45" s="8">
+        <v>0</v>
+      </c>
+      <c r="I45" s="31">
+        <v>5000</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="K45" s="16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L45" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M45" s="16">
-        <v>30.9</v>
+      <c r="M45" s="32">
+        <v>-1</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>75</v>
@@ -3695,43 +3703,43 @@
     </row>
     <row r="46" spans="2:16" ht="30">
       <c r="B46" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F46" s="6">
         <v>4</v>
       </c>
       <c r="G46" s="5">
-        <v>4.4999999999999998E-2</v>
+        <v>0.06</v>
       </c>
       <c r="H46" s="4">
-        <v>40</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I46" s="8">
+        <v>15</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K46" s="8">
-        <v>1</v>
-      </c>
-      <c r="L46" s="14">
-        <v>4.9000000000000004</v>
+        <v>84</v>
+      </c>
+      <c r="K46" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="M46" s="16">
-        <v>24.9</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>16</v>
+        <v>30.9</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="O46" s="8" t="s">
         <v>0</v>
@@ -3742,7 +3750,7 @@
     </row>
     <row r="47" spans="2:16" ht="30">
       <c r="B47" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="34" t="s">
         <v>147</v>
@@ -3751,16 +3759,16 @@
         <v>14</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F47" s="6">
         <v>4</v>
       </c>
       <c r="G47" s="5">
-        <v>0.03</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H47" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>0</v>
@@ -3768,14 +3776,14 @@
       <c r="J47" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="8">
         <v>1</v>
       </c>
       <c r="L47" s="14">
-        <v>3.5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="M47" s="16">
-        <v>29.9</v>
+        <v>24.9</v>
       </c>
       <c r="N47" s="6" t="s">
         <v>16</v>
@@ -3787,45 +3795,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:16" ht="45">
+    <row r="48" spans="2:16" ht="30">
       <c r="B48" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" s="34" t="s">
         <v>147</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48" s="5">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
       <c r="H48" s="4">
-        <v>60</v>
-      </c>
-      <c r="I48" s="8">
-        <v>4000</v>
+        <v>30</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="K48" s="16">
         <v>1</v>
       </c>
       <c r="L48" s="14">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M48" s="16">
-        <v>15.9</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>26</v>
+        <v>29.9</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="O48" s="8" t="s">
         <v>0</v>
@@ -3836,40 +3844,40 @@
     </row>
     <row r="49" spans="2:16" ht="45">
       <c r="B49" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="36" t="s">
-        <v>168</v>
+      <c r="E49" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="F49" s="6">
+        <v>6</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="H49" s="4">
+        <v>60</v>
+      </c>
+      <c r="I49" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K49" s="16">
         <v>1</v>
       </c>
-      <c r="G49" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>25</v>
-      </c>
-      <c r="I49" s="31">
-        <v>240</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K49" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L49" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="32">
-        <v>35.9</v>
+      <c r="L49" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="M49" s="16">
+        <v>15.9</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>26</v>
@@ -3882,41 +3890,41 @@
       </c>
     </row>
     <row r="50" spans="2:16" ht="45">
-      <c r="B50" s="40" t="s">
-        <v>187</v>
+      <c r="B50" s="17" t="s">
+        <v>158</v>
       </c>
       <c r="C50" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>192</v>
+      <c r="E50" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
       </c>
-      <c r="G50" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H50" s="8">
-        <v>20</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <v>3</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M50" s="16">
-        <v>15.9</v>
+      <c r="G50" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H50" s="4">
+        <v>25</v>
+      </c>
+      <c r="I50" s="31">
+        <v>240</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="32">
+        <v>35.9</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>26</v>
@@ -3929,78 +3937,82 @@
       </c>
     </row>
     <row r="51" spans="2:16" ht="45">
-      <c r="B51" s="40" t="s">
-        <v>188</v>
+      <c r="B51" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="C51" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="H51" s="8">
-        <v>20</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H51" s="4">
+        <v>30</v>
+      </c>
+      <c r="I51" s="8">
+        <v>180</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="K51" s="16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L51" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M51" s="16">
-        <v>15.9</v>
+        <v>-1</v>
       </c>
       <c r="N51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="O51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:16" ht="45">
-      <c r="B52" s="17" t="s">
-        <v>159</v>
+      <c r="B52" s="40" t="s">
+        <v>186</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="40" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F52" s="6">
         <v>2</v>
       </c>
-      <c r="G52" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="H52" s="4">
-        <v>30</v>
+      <c r="G52" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="H52" s="8">
+        <v>20</v>
       </c>
       <c r="I52" s="8">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J52" s="6" t="s">
         <v>91</v>
       </c>
       <c r="K52" s="16">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L52" s="14" t="s">
         <v>0</v>
@@ -4018,27 +4030,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="45">
-      <c r="B53" s="40" t="s">
-        <v>186</v>
+    <row r="53" spans="2:16" ht="90">
+      <c r="B53" s="44" t="s">
+        <v>200</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
       </c>
-      <c r="G53" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="H53" s="8">
-        <v>20</v>
+      <c r="G53" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
       </c>
       <c r="I53" s="8">
         <v>168</v>
@@ -4056,108 +4068,102 @@
         <v>-1</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P53" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:16" ht="75">
-      <c r="B54" s="46" t="s">
-        <v>204</v>
+        <v>75</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+    </row>
+    <row r="54" spans="2:16" ht="45">
+      <c r="B54" s="40" t="s">
+        <v>187</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="40" t="s">
         <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F54" s="6">
-        <v>2</v>
-      </c>
-      <c r="G54" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <v>168</v>
+        <v>3</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H54" s="8">
+        <v>40</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>0</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="K54" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54" s="14" t="s">
         <v>0</v>
       </c>
       <c r="M54" s="16">
-        <v>-1</v>
+        <v>15.9</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="2:16" s="2" customFormat="1" ht="30">
-      <c r="B55" s="29" t="s">
-        <v>160</v>
+        <v>26</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" s="2" customFormat="1" ht="45">
+      <c r="B55" s="40" t="s">
+        <v>188</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="37" t="s">
-        <v>169</v>
+      <c r="E55" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
       </c>
-      <c r="G55" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="H55" s="11">
-        <v>30</v>
-      </c>
-      <c r="I55" s="31">
-        <v>240</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K55" s="32">
-        <v>1</v>
-      </c>
-      <c r="L55" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="M55" s="32">
-        <v>45.9</v>
+      <c r="G55" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H55" s="8">
+        <v>40</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>3</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="16">
+        <v>15.9</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O55" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P55" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" ht="45">
-      <c r="B56" s="17" t="s">
-        <v>163</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="30">
+      <c r="B56" s="29" t="s">
+        <v>160</v>
       </c>
       <c r="C56" s="35" t="s">
         <v>148</v>
@@ -4165,17 +4171,17 @@
       <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="36" t="s">
-        <v>168</v>
+      <c r="E56" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="F56" s="6">
-        <v>4</v>
-      </c>
-      <c r="G56" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="H56" s="4">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="G56" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H56" s="11">
+        <v>30</v>
       </c>
       <c r="I56" s="31">
         <v>240</v>
@@ -4184,16 +4190,16 @@
         <v>172</v>
       </c>
       <c r="K56" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="L56" s="33">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="L56" s="33" t="s">
+        <v>0</v>
       </c>
       <c r="M56" s="32">
-        <v>30.9</v>
+        <v>45.9</v>
       </c>
       <c r="N56" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>0</v>
@@ -4202,83 +4208,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="90">
-      <c r="B57" s="41" t="s">
-        <v>189</v>
+    <row r="57" spans="2:16" ht="45">
+      <c r="B57" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="C57" s="35" t="s">
         <v>148</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>191</v>
+        <v>18</v>
+      </c>
+      <c r="E57" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="F57" s="6">
         <v>4</v>
       </c>
       <c r="G57" s="5">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H57" s="4">
-        <v>45</v>
-      </c>
-      <c r="I57" s="8">
-        <v>252</v>
-      </c>
-      <c r="J57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I57" s="31">
+        <v>240</v>
+      </c>
+      <c r="J57" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="K57" s="16">
-        <v>3</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="16">
-        <v>-1</v>
+      <c r="K57" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="33">
+        <v>2.5</v>
+      </c>
+      <c r="M57" s="32">
+        <v>30.9</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" ht="30">
-      <c r="B58" s="17" t="s">
-        <v>164</v>
+      <c r="O57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" ht="90">
+      <c r="B58" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="17" t="s">
-        <v>167</v>
+      <c r="D58" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F58" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G58" s="5">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H58" s="4">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I58" s="8">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K58" s="16">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="L58" s="14" t="s">
         <v>0</v>
@@ -4287,45 +4293,45 @@
         <v>-1</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O58" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" ht="60">
-      <c r="B59" s="45" t="s">
-        <v>194</v>
+        <v>26</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" ht="30">
+      <c r="B59" s="17" t="s">
+        <v>164</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="F59" s="2">
+      <c r="D59" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="6">
         <v>5</v>
       </c>
       <c r="G59" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H59" s="4">
-        <v>50</v>
-      </c>
-      <c r="I59" s="31">
-        <v>240</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>172</v>
+        <v>40</v>
+      </c>
+      <c r="I59" s="8">
+        <v>25</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="K59" s="16">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L59" s="14" t="s">
         <v>0</v>
@@ -4334,7 +4340,7 @@
         <v>-1</v>
       </c>
       <c r="N59" s="3" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>0</v>
@@ -4344,55 +4350,98 @@
       </c>
     </row>
     <row r="60" spans="2:16" ht="60">
-      <c r="B60" s="17" t="s">
-        <v>165</v>
+      <c r="B60" s="43" t="s">
+        <v>192</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="6">
-        <v>6</v>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="2">
+        <v>5</v>
       </c>
       <c r="G60" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="H60" s="4">
-        <v>65</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="I60" s="31">
+        <v>240</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="K60" s="16">
         <v>1</v>
       </c>
-      <c r="L60" s="14">
+      <c r="L60" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" ht="60">
+      <c r="B61" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F61" s="6">
+        <v>6</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H61" s="4">
+        <v>65</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="16">
+        <v>1</v>
+      </c>
+      <c r="L61" s="14">
         <v>4.5</v>
       </c>
-      <c r="M60" s="16">
+      <c r="M61" s="16">
         <v>24.9</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="O60" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
+      <c r="O61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:16">
       <c r="O62" s="2"/>
@@ -4557,7 +4606,7 @@
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4821,8 +4870,8 @@
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="2:16" ht="60">
-      <c r="B8" s="46" t="s">
-        <v>198</v>
+      <c r="B8" s="44" t="s">
+        <v>196</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>148</v>
@@ -4831,7 +4880,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
@@ -4865,7 +4914,7 @@
     </row>
     <row r="9" spans="2:16" ht="60">
       <c r="B9" s="42" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>147</v>
@@ -4874,7 +4923,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -4901,94 +4950,29 @@
         <v>-1</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="2:16" ht="45">
-      <c r="B10" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="31">
-        <v>3000</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="10" spans="2:16">
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="2:16" ht="45">
-      <c r="B11" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="6">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>1500</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="2:16">
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="46"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="207">
   <si>
     <t>N/A</t>
   </si>
@@ -716,9 +716,6 @@
   </si>
   <si>
     <t xml:space="preserve">Max Manipution x0 </t>
-  </si>
-  <si>
-    <t>0.5 Hours</t>
   </si>
   <si>
     <t>Max Consciousness x1% 
@@ -888,6 +885,15 @@
   </si>
   <si>
     <t>Heatstroke set to 50%</t>
+  </si>
+  <si>
+    <t>8.0 Hours</t>
+  </si>
+  <si>
+    <t>4.2 Hours</t>
+  </si>
+  <si>
+    <t>0.6 Hours</t>
   </si>
 </sst>
 </file>
@@ -1646,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3076,7 +3082,7 @@
         <v>55</v>
       </c>
       <c r="I32" s="8">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>102</v>
@@ -3474,7 +3480,7 @@
     </row>
     <row r="41" spans="2:16" ht="45">
       <c r="B41" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
@@ -3483,7 +3489,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3495,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="31">
-        <v>3000</v>
+        <v>3024</v>
       </c>
       <c r="J41" s="6" t="s">
         <v>77</v>
@@ -3538,7 +3544,7 @@
         <v>15</v>
       </c>
       <c r="I42" s="8">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>117</v>
@@ -3585,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="31">
-        <v>3000</v>
+        <v>3024</v>
       </c>
       <c r="J43" s="6" t="s">
         <v>77</v>
@@ -3611,7 +3617,7 @@
     </row>
     <row r="44" spans="2:16" ht="150">
       <c r="B44" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>147</v>
@@ -3620,7 +3626,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -3632,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <v>1500</v>
+        <v>1512</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K44" s="38">
         <v>1</v>
@@ -3677,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="31">
-        <v>5000</v>
+        <v>5040</v>
       </c>
       <c r="J45" s="6" t="s">
         <v>15</v>
@@ -3865,7 +3871,7 @@
         <v>60</v>
       </c>
       <c r="I49" s="8">
-        <v>4000</v>
+        <v>4032</v>
       </c>
       <c r="J49" s="6" t="s">
         <v>153</v>
@@ -3912,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="I50" s="31">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>172</v>
@@ -3962,7 +3968,7 @@
         <v>180</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="K51" s="16">
         <v>1.5</v>
@@ -3985,7 +3991,7 @@
     </row>
     <row r="52" spans="2:16" ht="45">
       <c r="B52" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -3994,7 +4000,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F52" s="6">
         <v>2</v>
@@ -4032,7 +4038,7 @@
     </row>
     <row r="53" spans="2:16" ht="90">
       <c r="B53" s="44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
@@ -4041,7 +4047,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
@@ -4075,7 +4081,7 @@
     </row>
     <row r="54" spans="2:16" ht="45">
       <c r="B54" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -4084,7 +4090,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -4122,7 +4128,7 @@
     </row>
     <row r="55" spans="2:16" s="2" customFormat="1" ht="45">
       <c r="B55" s="40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
@@ -4131,7 +4137,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
@@ -4184,7 +4190,7 @@
         <v>30</v>
       </c>
       <c r="I56" s="31">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>172</v>
@@ -4231,7 +4237,7 @@
         <v>55</v>
       </c>
       <c r="I57" s="31">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J57" s="10" t="s">
         <v>172</v>
@@ -4257,7 +4263,7 @@
     </row>
     <row r="58" spans="2:16" ht="90">
       <c r="B58" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>148</v>
@@ -4266,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F58" s="6">
         <v>4</v>
@@ -4278,10 +4284,10 @@
         <v>45</v>
       </c>
       <c r="I58" s="8">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="K58" s="16">
         <v>3</v>
@@ -4313,7 +4319,7 @@
         <v>167</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F59" s="6">
         <v>5</v>
@@ -4328,7 +4334,7 @@
         <v>25</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="K59" s="16">
         <v>0.1</v>
@@ -4351,7 +4357,7 @@
     </row>
     <row r="60" spans="2:16" ht="60">
       <c r="B60" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>148</v>
@@ -4360,7 +4366,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
@@ -4372,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="I60" s="31">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>172</v>
@@ -4871,7 +4877,7 @@
     </row>
     <row r="8" spans="2:16" ht="60">
       <c r="B8" s="44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>148</v>
@@ -4880,7 +4886,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
@@ -4914,7 +4920,7 @@
     </row>
     <row r="9" spans="2:16" ht="60">
       <c r="B9" s="42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>147</v>
@@ -4923,7 +4929,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -4950,7 +4956,7 @@
         <v>-1</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -716,10 +716,6 @@
   </si>
   <si>
     <t xml:space="preserve">Max Manipution x0 </t>
-  </si>
-  <si>
-    <t>Max Consciousness x1% 
-Deals 10 Blunt Damage 33%AP</t>
   </si>
   <si>
     <t>Resonance</t>
@@ -813,10 +809,6 @@
     <t>Hypervelocity</t>
   </si>
   <si>
-    <t>Melee Dodge Chance +12 Levels
-Pawn Trap Spring Chance -40%</t>
-  </si>
-  <si>
     <t>Moving +50%
 Melee Dodge Chance +6 Levels
 Aiming Delay Factor -7.5%
@@ -894,6 +886,13 @@
   </si>
   <si>
     <t>0.6 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Consciousness x1% </t>
+  </si>
+  <si>
+    <t>Melee Dodge Chance +14 Levels
+Pawn Trap Spring Chance -95%</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3480,7 +3479,7 @@
     </row>
     <row r="41" spans="2:16" ht="45">
       <c r="B41" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
@@ -3489,7 +3488,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3617,7 +3616,7 @@
     </row>
     <row r="44" spans="2:16" ht="150">
       <c r="B44" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>147</v>
@@ -3626,7 +3625,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -3641,10 +3640,10 @@
         <v>1512</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K44" s="38">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L44" s="14" t="s">
         <v>0</v>
@@ -3968,7 +3967,7 @@
         <v>180</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K51" s="16">
         <v>1.5</v>
@@ -3991,7 +3990,7 @@
     </row>
     <row r="52" spans="2:16" ht="45">
       <c r="B52" s="40" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -4000,7 +3999,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F52" s="6">
         <v>2</v>
@@ -4038,7 +4037,7 @@
     </row>
     <row r="53" spans="2:16" ht="90">
       <c r="B53" s="44" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
@@ -4047,7 +4046,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
@@ -4081,7 +4080,7 @@
     </row>
     <row r="54" spans="2:16" ht="45">
       <c r="B54" s="40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -4090,7 +4089,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -4128,7 +4127,7 @@
     </row>
     <row r="55" spans="2:16" s="2" customFormat="1" ht="45">
       <c r="B55" s="40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
@@ -4137,7 +4136,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
@@ -4263,7 +4262,7 @@
     </row>
     <row r="58" spans="2:16" ht="90">
       <c r="B58" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>148</v>
@@ -4272,7 +4271,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F58" s="6">
         <v>4</v>
@@ -4287,7 +4286,7 @@
         <v>336</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K58" s="16">
         <v>3</v>
@@ -4319,7 +4318,7 @@
         <v>167</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="F59" s="6">
         <v>5</v>
@@ -4334,7 +4333,7 @@
         <v>25</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K59" s="16">
         <v>0.1</v>
@@ -4357,7 +4356,7 @@
     </row>
     <row r="60" spans="2:16" ht="60">
       <c r="B60" s="43" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>148</v>
@@ -4366,7 +4365,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
@@ -4877,7 +4876,7 @@
     </row>
     <row r="8" spans="2:16" ht="60">
       <c r="B8" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>148</v>
@@ -4886,7 +4885,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
@@ -4920,7 +4919,7 @@
     </row>
     <row r="9" spans="2:16" ht="60">
       <c r="B9" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>147</v>
@@ -4929,7 +4928,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -4956,7 +4955,7 @@
         <v>-1</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="206">
   <si>
     <t>N/A</t>
   </si>
@@ -670,10 +670,6 @@
     <t>Meteor Swarm</t>
   </si>
   <si>
-    <t>Melee Attack
-Give Hediff</t>
-  </si>
-  <si>
     <t>Shooting Accuracy Pawn -6 Levels
 Melee Hit Chance -4 Levels
 Melee Dodge Chance -2 Levels</t>
@@ -722,6 +718,104 @@
   </si>
   <si>
     <t>1.5 Days</t>
+  </si>
+  <si>
+    <t>Clairvoyance</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>Thermal Shock</t>
+  </si>
+  <si>
+    <t>Hypervelocity</t>
+  </si>
+  <si>
+    <t>Moving +50%
+Melee Dodge Chance +6 Levels
+Aiming Delay Factor -7.5%
+Ranged Cooldown Factor -7.5%
+Melee Cooldown Factor -15%</t>
+  </si>
+  <si>
+    <t>Reckless Rage</t>
+  </si>
+  <si>
+    <t>Purify Food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Food Posioning from a stack of food.
+Remove Metal Horror spores from a stack of food.   </t>
+  </si>
+  <si>
+    <t>Targets Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phantom Turret  </t>
+  </si>
+  <si>
+    <t>Spawn a temporary ethereal turret to will defend the casters faction. It has low ammo and low health but fires quickly.</t>
+  </si>
+  <si>
+    <t>Clean Stride</t>
+  </si>
+  <si>
+    <t>Filth Rate x0%</t>
+  </si>
+  <si>
+    <t>Sniper</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Melee Hit Chance +6 Levels
+Melee Damage Factor +15%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Incoming Damage Factor x110%
+Melee Dodge Chance -4 Levels</t>
+    </r>
+  </si>
+  <si>
+    <t>Shooting Accuracy Pawn +3.0
+ShootingAccuracyFactor_Medium +0.5%
+ShootingAccuracyFactor_Long  +1% (Makes a much bigger difference then suggested)</t>
+  </si>
+  <si>
+    <t>Hypothermia set to 50%</t>
+  </si>
+  <si>
+    <t>Heatstroke set to 50%</t>
+  </si>
+  <si>
+    <t>8.0 Hours</t>
+  </si>
+  <si>
+    <t>4.2 Hours</t>
+  </si>
+  <si>
+    <t>0.6 Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Consciousness x1% </t>
+  </si>
+  <si>
+    <t>Melee Dodge Chance +14 Levels
+Pawn Trap Spring Chance -95%</t>
   </si>
   <si>
     <r>
@@ -764,7 +858,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -776,7 +870,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -787,7 +881,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -795,104 +889,6 @@
       <t xml:space="preserve">Psychic Entropy Recovery Rate
  -0.40/sec </t>
     </r>
-  </si>
-  <si>
-    <t>Clairvoyance</t>
-  </si>
-  <si>
-    <t>Frostbite</t>
-  </si>
-  <si>
-    <t>Thermal Shock</t>
-  </si>
-  <si>
-    <t>Hypervelocity</t>
-  </si>
-  <si>
-    <t>Moving +50%
-Melee Dodge Chance +6 Levels
-Aiming Delay Factor -7.5%
-Ranged Cooldown Factor -7.5%
-Melee Cooldown Factor -15%</t>
-  </si>
-  <si>
-    <t>Reckless Rage</t>
-  </si>
-  <si>
-    <t>Purify Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Food Posioning from a stack of food.
-Remove Metal Horror spores from a stack of food.   </t>
-  </si>
-  <si>
-    <t>Targets Items</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phantom Turret  </t>
-  </si>
-  <si>
-    <t>Spawn a temporary ethereal turret to will defend the casters faction. It has low ammo and low health but fires quickly.</t>
-  </si>
-  <si>
-    <t>Clean Stride</t>
-  </si>
-  <si>
-    <t>Filth Rate x0%</t>
-  </si>
-  <si>
-    <t>Sniper</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Melee Hit Chance +6 Levels
-Melee Damage Factor +15%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Incoming Damage Factor x110%
-Melee Dodge Chance -4 Levels</t>
-    </r>
-  </si>
-  <si>
-    <t>Shooting Accuracy Pawn +3.0
-ShootingAccuracyFactor_Medium +0.5%
-ShootingAccuracyFactor_Long  +1% (Makes a much bigger difference then suggested)</t>
-  </si>
-  <si>
-    <t>Hypothermia set to 50%</t>
-  </si>
-  <si>
-    <t>Heatstroke set to 50%</t>
-  </si>
-  <si>
-    <t>8.0 Hours</t>
-  </si>
-  <si>
-    <t>4.2 Hours</t>
-  </si>
-  <si>
-    <t>0.6 Hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Consciousness x1% </t>
-  </si>
-  <si>
-    <t>Melee Dodge Chance +14 Levels
-Pawn Trap Spring Chance -95%</t>
   </si>
 </sst>
 </file>
@@ -902,7 +898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -948,6 +944,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1651,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1743,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="30">
@@ -3479,7 +3483,7 @@
     </row>
     <row r="41" spans="2:16" ht="45">
       <c r="B41" s="44" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
@@ -3488,7 +3492,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3578,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F43" s="6">
         <v>2</v>
@@ -3605,7 +3609,7 @@
         <v>-1</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O43" s="8" t="s">
         <v>0</v>
@@ -3616,7 +3620,7 @@
     </row>
     <row r="44" spans="2:16" ht="150">
       <c r="B44" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>147</v>
@@ -3625,7 +3629,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -3640,7 +3644,7 @@
         <v>1512</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K44" s="38">
         <v>3.5</v>
@@ -3652,7 +3656,7 @@
         <v>-1</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O44" s="39"/>
       <c r="P44" s="8" t="s">
@@ -3670,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F45" s="6">
         <v>3</v>
@@ -3716,8 +3720,8 @@
       <c r="D46" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>180</v>
+      <c r="E46" s="36" t="s">
+        <v>179</v>
       </c>
       <c r="F46" s="6">
         <v>4</v>
@@ -3905,7 +3909,7 @@
         <v>18</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -3920,7 +3924,7 @@
         <v>252</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K50" s="32">
         <v>0.5</v>
@@ -3952,7 +3956,7 @@
         <v>18</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F51" s="6">
         <v>2</v>
@@ -3967,7 +3971,7 @@
         <v>180</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K51" s="16">
         <v>1.5</v>
@@ -3990,7 +3994,7 @@
     </row>
     <row r="52" spans="2:16" ht="45">
       <c r="B52" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C52" s="35" t="s">
         <v>148</v>
@@ -3999,7 +4003,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F52" s="6">
         <v>2</v>
@@ -4037,7 +4041,7 @@
     </row>
     <row r="53" spans="2:16" ht="90">
       <c r="B53" s="44" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
@@ -4046,7 +4050,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
@@ -4080,7 +4084,7 @@
     </row>
     <row r="54" spans="2:16" ht="45">
       <c r="B54" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C54" s="35" t="s">
         <v>148</v>
@@ -4088,8 +4092,8 @@
       <c r="D54" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>200</v>
+      <c r="E54" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -4127,7 +4131,7 @@
     </row>
     <row r="55" spans="2:16" s="2" customFormat="1" ht="45">
       <c r="B55" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C55" s="35" t="s">
         <v>148</v>
@@ -4135,8 +4139,8 @@
       <c r="D55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>201</v>
+      <c r="E55" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
@@ -4177,7 +4181,7 @@
         <v>18</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F56" s="6">
         <v>3</v>
@@ -4192,7 +4196,7 @@
         <v>252</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K56" s="32">
         <v>1</v>
@@ -4224,7 +4228,7 @@
         <v>18</v>
       </c>
       <c r="E57" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F57" s="6">
         <v>4</v>
@@ -4239,7 +4243,7 @@
         <v>252</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K57" s="32">
         <v>0.5</v>
@@ -4262,7 +4266,7 @@
     </row>
     <row r="58" spans="2:16" ht="90">
       <c r="B58" s="41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>148</v>
@@ -4271,7 +4275,7 @@
         <v>34</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F58" s="6">
         <v>4</v>
@@ -4286,7 +4290,7 @@
         <v>336</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K58" s="16">
         <v>3</v>
@@ -4315,10 +4319,10 @@
         <v>148</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>205</v>
+        <v>18</v>
+      </c>
+      <c r="E59" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="F59" s="6">
         <v>5</v>
@@ -4333,7 +4337,7 @@
         <v>25</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K59" s="16">
         <v>0.1</v>
@@ -4356,7 +4360,7 @@
     </row>
     <row r="60" spans="2:16" ht="60">
       <c r="B60" s="43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>148</v>
@@ -4365,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
@@ -4380,7 +4384,7 @@
         <v>252</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K60" s="16">
         <v>1</v>
@@ -4412,7 +4416,7 @@
         <v>94</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F61" s="6">
         <v>6</v>
@@ -4756,7 +4760,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="6">
         <v>4</v>
@@ -4799,7 +4803,7 @@
         <v>94</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
@@ -4842,7 +4846,7 @@
         <v>104</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F7" s="6">
         <v>6</v>
@@ -4876,7 +4880,7 @@
     </row>
     <row r="8" spans="2:16" ht="60">
       <c r="B8" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>148</v>
@@ -4885,7 +4889,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
@@ -4919,7 +4923,7 @@
     </row>
     <row r="9" spans="2:16" ht="60">
       <c r="B9" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C9" s="34" t="s">
         <v>147</v>
@@ -4928,7 +4932,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -4955,7 +4959,7 @@
         <v>-1</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="207">
   <si>
     <t>N/A</t>
   </si>
@@ -888,6 +888,22 @@
       </rPr>
       <t xml:space="preserve">Psychic Entropy Recovery Rate
  -0.40/sec </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Regrowth Pains
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pain Offset +35%</t>
     </r>
   </si>
 </sst>
@@ -1655,8 +1671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView tabSelected="1" topLeftCell="I34" workbookViewId="0">
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3314,7 +3330,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="5">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H37" s="4">
         <v>50</v>
@@ -3338,10 +3354,10 @@
         <v>26</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:16" ht="60">

--- a/Resources/SleepyPsycastEffects.xlsx
+++ b/Resources/SleepyPsycastEffects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="27735" windowHeight="10755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SLP More Psycasts" sheetId="1" r:id="rId1"/>
@@ -743,10 +743,6 @@
   </si>
   <si>
     <t>Purify Food</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Food Posioning from a stack of food.
-Remove Metal Horror spores from a stack of food.   </t>
   </si>
   <si>
     <t>Targets Items</t>
@@ -905,6 +901,10 @@
       </rPr>
       <t>Pain Offset +35%</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Food Posioning from all stacks of food in target area.
+Remove Metal Horror spores from  all stacks of food in target area.   </t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -3354,7 +3354,7 @@
         <v>26</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>109</v>
@@ -3499,7 +3499,7 @@
     </row>
     <row r="41" spans="2:16" ht="45">
       <c r="B41" s="44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>147</v>
@@ -3508,7 +3508,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F44" s="2">
         <v>3</v>
@@ -3987,7 +3987,7 @@
         <v>180</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K51" s="16">
         <v>1.5</v>
@@ -4019,7 +4019,7 @@
         <v>18</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F52" s="6">
         <v>2</v>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="53" spans="2:16" ht="90">
       <c r="B53" s="44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C53" s="35" t="s">
         <v>148</v>
@@ -4066,7 +4066,7 @@
         <v>18</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
@@ -4109,7 +4109,7 @@
         <v>18</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F54" s="6">
         <v>3</v>
@@ -4156,7 +4156,7 @@
         <v>18</v>
       </c>
       <c r="E55" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F55" s="6">
         <v>3</v>
@@ -4306,7 +4306,7 @@
         <v>336</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K58" s="16">
         <v>3</v>
@@ -4338,7 +4338,7 @@
         <v>18</v>
       </c>
       <c r="E59" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F59" s="6">
         <v>5</v>
@@ -4353,7 +4353,7 @@
         <v>25</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K59" s="16">
         <v>0.1</v>
@@ -4385,7 +4385,7 @@
         <v>18</v>
       </c>
       <c r="E60" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F60" s="2">
         <v>5</v>
@@ -4630,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4896,7 +4896,7 @@
     </row>
     <row r="8" spans="2:16" ht="60">
       <c r="B8" s="44" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>148</v>
@@ -4905,7 +4905,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
@@ -4948,7 +4948,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="F9" s="6">
         <v>1</v>
@@ -4975,7 +4975,7 @@
         <v>-1</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
